--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F615BB-31D7-4BDA-8BD5-63C5D0BE3BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38181C4F-4E5D-41CF-8BE2-D37DC6758432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="4200" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="3675" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>操作可能判定に用いる鍵名称</t>
+          <t>てこの種類</t>
         </r>
       </text>
     </comment>
@@ -130,7 +130,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -143,11 +143,50 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>この盤以外で連動する場合に指定する駅名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>この盤以外で連動する場合に指定するユニーク名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -404,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="173">
   <si>
     <t>Type</t>
   </si>
@@ -443,7 +482,16 @@
     <t>PointValue</t>
   </si>
   <si>
+    <t>LeverType</t>
+  </si>
+  <si>
     <t>KeyName</t>
+  </si>
+  <si>
+    <t>LinkedStationName</t>
+  </si>
+  <si>
+    <t>LinkedUniqueName</t>
   </si>
   <si>
     <t>X</t>
@@ -1254,7 +1302,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AI104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1267,14 +1315,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="37.5703125" customWidth="1"/>
-    <col min="23" max="23" width="100.140625" customWidth="1"/>
-    <col min="24" max="24" width="62.5703125" customWidth="1"/>
-    <col min="25" max="32" width="14.5703125" customWidth="1"/>
+    <col min="3" max="24" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="37.5703125" customWidth="1"/>
+    <col min="26" max="26" width="100.140625" customWidth="1"/>
+    <col min="27" max="27" width="62.5703125" customWidth="1"/>
+    <col min="28" max="35" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,44 +1389,53 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1389,48 +1446,51 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6">
         <v>850</v>
       </c>
-      <c r="I3" s="6">
+      <c r="L3" s="6">
         <v>78</v>
       </c>
-      <c r="J3" s="6">
+      <c r="M3" s="6">
         <v>79</v>
       </c>
-      <c r="K3" s="6">
+      <c r="N3" s="6">
         <v>110</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1439,50 +1499,53 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-    </row>
-    <row r="4" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+    </row>
+    <row r="4" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="4"/>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="L4" s="6">
         <v>37</v>
       </c>
-      <c r="J4" s="6">
+      <c r="M4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6">
+      <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1490,47 +1553,50 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6">
-        <f>H3+11</f>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
+        <f>K3+11</f>
         <v>861</v>
       </c>
-      <c r="I5" s="6">
-        <f>I3-68</f>
+      <c r="L5" s="6">
+        <f>L3-68</f>
         <v>10</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1541,96 +1607,102 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <v>431</v>
       </c>
-      <c r="I6" s="4">
+      <c r="L6" s="4">
         <v>311</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="6">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="6">
         <v>0</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="Y6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
         <v>497</v>
       </c>
-      <c r="I7" s="4">
+      <c r="L7" s="4">
         <v>317</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1638,78 +1710,81 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="6">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="6">
         <v>0</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="6">
+      <c r="L8" s="6">
         <v>20</v>
       </c>
-      <c r="J8" s="6">
+      <c r="M8" s="6">
         <v>11</v>
       </c>
-      <c r="K8" s="6">
+      <c r="N8" s="6">
         <v>11</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="6">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="6">
         <v>1</v>
       </c>
-      <c r="P8" s="6">
+      <c r="S8" s="6">
         <v>10</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="T8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
@@ -1717,84 +1792,90 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>528</v>
       </c>
-      <c r="I9" s="4">
+      <c r="L9" s="4">
         <v>371</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" s="6">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="6">
         <v>0</v>
       </c>
-      <c r="V9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="Y9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>492</v>
       </c>
-      <c r="I10" s="4">
+      <c r="L10" s="4">
         <v>427</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1802,78 +1883,81 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="6">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="6">
         <v>0</v>
       </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>14</v>
       </c>
-      <c r="I11" s="6">
+      <c r="L11" s="6">
         <v>20</v>
       </c>
-      <c r="J11" s="6">
+      <c r="M11" s="6">
         <v>11</v>
       </c>
-      <c r="K11" s="6">
+      <c r="N11" s="6">
         <v>11</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="6">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="6">
         <v>2</v>
       </c>
-      <c r="P11" s="6">
+      <c r="S11" s="6">
         <v>10</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="T11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
@@ -1881,84 +1965,90 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <v>882</v>
       </c>
-      <c r="I12" s="4">
+      <c r="L12" s="4">
         <v>311</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="6">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="6">
         <v>0</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="Y12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
         <v>959</v>
       </c>
-      <c r="I13" s="4">
+      <c r="L13" s="4">
         <v>309</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1966,78 +2056,81 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="6">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="6">
         <v>0</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="4"/>
+      <c r="H14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
         <v>14</v>
       </c>
-      <c r="I14" s="6">
+      <c r="L14" s="6">
         <v>20</v>
       </c>
-      <c r="J14" s="6">
+      <c r="M14" s="6">
         <v>11</v>
       </c>
-      <c r="K14" s="6">
+      <c r="N14" s="6">
         <v>11</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="6">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="6">
         <v>3</v>
       </c>
-      <c r="P14" s="6">
+      <c r="S14" s="6">
         <v>10</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="T14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -2045,84 +2138,90 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <v>882</v>
       </c>
-      <c r="I15" s="4">
+      <c r="L15" s="4">
         <v>371</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="6">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" s="6">
         <v>0</v>
       </c>
-      <c r="V15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="Y15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>948</v>
       </c>
-      <c r="I16" s="4">
+      <c r="L16" s="4">
         <v>407</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2130,78 +2229,81 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="6">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="6">
         <v>0</v>
       </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="4"/>
+      <c r="H17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6">
         <v>14</v>
       </c>
-      <c r="I17" s="6">
+      <c r="L17" s="6">
         <v>20</v>
       </c>
-      <c r="J17" s="6">
+      <c r="M17" s="6">
         <v>11</v>
       </c>
-      <c r="K17" s="6">
+      <c r="N17" s="6">
         <v>11</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="6">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="6">
         <v>4</v>
       </c>
-      <c r="P17" s="6">
+      <c r="S17" s="6">
         <v>10</v>
       </c>
-      <c r="Q17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="T17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
@@ -2209,84 +2311,90 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
         <v>1168</v>
       </c>
-      <c r="I18" s="4">
+      <c r="L18" s="4">
         <v>371</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U18" s="6">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" s="6">
         <v>0</v>
       </c>
-      <c r="V18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="Y18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>1132</v>
       </c>
-      <c r="I19" s="4">
+      <c r="L19" s="4">
         <v>407</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2294,78 +2402,81 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="6">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="6">
         <v>0</v>
       </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="4"/>
+      <c r="H20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6">
         <v>14</v>
       </c>
-      <c r="I20" s="6">
+      <c r="L20" s="6">
         <v>20</v>
       </c>
-      <c r="J20" s="6">
+      <c r="M20" s="6">
         <v>11</v>
       </c>
-      <c r="K20" s="6">
+      <c r="N20" s="6">
         <v>11</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="6">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="6">
         <v>5</v>
       </c>
-      <c r="P20" s="6">
+      <c r="S20" s="6">
         <v>10</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+      <c r="T20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
@@ -2373,84 +2484,90 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <v>824</v>
       </c>
-      <c r="I21" s="4">
+      <c r="L21" s="4">
         <v>311</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="9">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="9">
         <v>0</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="Y21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
         <v>941</v>
       </c>
-      <c r="I22" s="4">
+      <c r="L22" s="4">
         <v>308</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2458,78 +2575,81 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="9">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="9">
         <v>0</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
         <v>14</v>
       </c>
-      <c r="I23" s="6">
+      <c r="L23" s="6">
         <v>20</v>
       </c>
-      <c r="J23" s="6">
+      <c r="M23" s="6">
         <v>11</v>
       </c>
-      <c r="K23" s="6">
+      <c r="N23" s="6">
         <v>11</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="6">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="6">
         <v>11</v>
       </c>
-      <c r="P23" s="6">
+      <c r="S23" s="6">
         <v>10</v>
       </c>
-      <c r="Q23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
+      <c r="T23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
@@ -2537,84 +2657,90 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <v>1034</v>
       </c>
-      <c r="I24" s="4">
+      <c r="L24" s="4">
         <v>311</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U24" s="9">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X24" s="9">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="Y24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>1005</v>
       </c>
-      <c r="I25" s="4">
+      <c r="L25" s="4">
         <v>318</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2622,78 +2748,81 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U25" s="9">
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="9">
         <v>0</v>
       </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="6">
+      <c r="G26" s="4"/>
+      <c r="H26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
         <v>14</v>
       </c>
-      <c r="I26" s="6">
+      <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="J26" s="6">
+      <c r="M26" s="6">
         <v>11</v>
       </c>
-      <c r="K26" s="6">
+      <c r="N26" s="6">
         <v>11</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="6">
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="6">
         <v>12</v>
       </c>
-      <c r="P26" s="6">
+      <c r="S26" s="6">
         <v>10</v>
       </c>
-      <c r="Q26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
+      <c r="T26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
@@ -2701,648 +2830,684 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
         <v>439</v>
       </c>
-      <c r="I27" s="4">
+      <c r="L27" s="4">
         <v>384</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="6">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" s="6">
         <v>0</v>
       </c>
-      <c r="V27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="Y27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="G28" s="4"/>
+      <c r="H28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6">
         <v>5</v>
       </c>
-      <c r="I28" s="6">
+      <c r="L28" s="6">
         <v>23</v>
       </c>
-      <c r="J28" s="6">
+      <c r="M28" s="6">
         <v>15</v>
       </c>
-      <c r="K28" s="6">
+      <c r="N28" s="6">
         <v>12</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" s="6">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28" s="6">
         <v>10</v>
       </c>
-      <c r="Q28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="T28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="W28" s="7"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
         <v>780</v>
       </c>
-      <c r="I29" s="4">
+      <c r="L29" s="4">
         <v>324</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="T29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="Z29" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="G30" s="4"/>
+      <c r="H30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
         <v>5</v>
       </c>
-      <c r="I30" s="6">
+      <c r="L30" s="6">
         <v>23</v>
       </c>
-      <c r="J30" s="6">
+      <c r="M30" s="6">
         <v>15</v>
       </c>
-      <c r="K30" s="6">
+      <c r="N30" s="6">
         <v>12</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P30" s="6">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" s="6">
         <v>10</v>
       </c>
-      <c r="Q30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="T30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="W30" s="7"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
         <v>780</v>
       </c>
-      <c r="I31" s="4">
+      <c r="L31" s="4">
         <v>384</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="6">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" s="6">
         <v>0</v>
       </c>
-      <c r="V31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+      <c r="Y31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="G32" s="4"/>
+      <c r="H32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6">
         <v>5</v>
       </c>
-      <c r="I32" s="6">
+      <c r="L32" s="6">
         <v>23</v>
       </c>
-      <c r="J32" s="6">
+      <c r="M32" s="6">
         <v>15</v>
       </c>
-      <c r="K32" s="6">
+      <c r="N32" s="6">
         <v>12</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P32" s="6">
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" s="6">
         <v>10</v>
       </c>
-      <c r="Q32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="T32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="W32" s="7"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
         <v>1251</v>
       </c>
-      <c r="I33" s="4">
+      <c r="L33" s="4">
         <v>324</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U33" s="6">
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X33" s="6">
         <v>0</v>
       </c>
-      <c r="V33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="Y33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="G34" s="4"/>
+      <c r="H34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
         <v>5</v>
       </c>
-      <c r="I34" s="6">
+      <c r="L34" s="6">
         <v>23</v>
       </c>
-      <c r="J34" s="6">
+      <c r="M34" s="6">
         <v>15</v>
       </c>
-      <c r="K34" s="6">
+      <c r="N34" s="6">
         <v>12</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P34" s="6">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="6">
         <v>10</v>
       </c>
-      <c r="Q34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+      <c r="T34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="W34" s="7"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
         <v>304</v>
       </c>
-      <c r="I35" s="4">
+      <c r="L35" s="4">
         <v>551</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U35" s="6">
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="6">
         <v>0</v>
       </c>
-      <c r="V35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="Y35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
         <v>1111</v>
       </c>
-      <c r="I36" s="4">
+      <c r="L36" s="4">
         <v>551</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U36" s="6">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="6">
         <v>0</v>
       </c>
-      <c r="V36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="Y36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
         <v>958</v>
       </c>
-      <c r="I37" s="4">
+      <c r="L37" s="4">
         <v>64</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U37" s="6">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X37" s="6">
         <v>0</v>
       </c>
-      <c r="V37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="W37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="Y37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
         <v>956</v>
       </c>
-      <c r="I38" s="4">
+      <c r="L38" s="4">
         <v>45</v>
       </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -3350,49 +3515,52 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U38" s="6">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X38" s="6">
         <v>0</v>
       </c>
-      <c r="V38" s="7"/>
-      <c r="W38" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
         <v>990</v>
       </c>
-      <c r="I39" s="4">
+      <c r="L39" s="4">
         <v>45</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -3400,78 +3568,81 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U39" s="6">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X39" s="6">
         <v>0</v>
       </c>
-      <c r="V39" s="7"/>
-      <c r="W39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="6">
+      <c r="G40" s="4"/>
+      <c r="H40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
         <v>14</v>
       </c>
-      <c r="I40" s="6">
+      <c r="L40" s="6">
         <v>20</v>
       </c>
-      <c r="J40" s="6">
+      <c r="M40" s="6">
         <v>11</v>
       </c>
-      <c r="K40" s="6">
+      <c r="N40" s="6">
         <v>11</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="6">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="6">
         <v>21</v>
       </c>
-      <c r="P40" s="6">
+      <c r="S40" s="6">
         <v>10</v>
       </c>
-      <c r="Q40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
+      <c r="T40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
@@ -3479,80 +3650,86 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-    </row>
-    <row r="41" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+    </row>
+    <row r="41" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
         <v>1347</v>
       </c>
-      <c r="I41" s="4">
+      <c r="L41" s="4">
         <v>64</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T41" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="U41" s="6">
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X41" s="6">
         <v>1</v>
       </c>
-      <c r="V41" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="W41" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="Y41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4">
         <v>1345</v>
       </c>
-      <c r="I42" s="4">
+      <c r="L42" s="4">
         <v>45</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3560,47 +3737,50 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U42" s="9">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="9">
         <v>0</v>
       </c>
-      <c r="V42" s="3"/>
-      <c r="W42" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4">
         <v>1379</v>
       </c>
-      <c r="I43" s="4">
+      <c r="L43" s="4">
         <v>45</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -3608,47 +3788,50 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U43" s="9">
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X43" s="9">
         <v>0</v>
       </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
         <v>52</v>
       </c>
-      <c r="I44" s="4">
+      <c r="L44" s="4">
         <v>334</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -3656,49 +3839,52 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U44" s="9">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X44" s="9">
         <v>0</v>
       </c>
-      <c r="V44" s="3"/>
-      <c r="W44" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA44" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
         <v>82</v>
       </c>
-      <c r="I45" s="4">
+      <c r="L45" s="4">
         <v>334</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3706,47 +3892,50 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U45" s="9">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X45" s="9">
         <v>0</v>
       </c>
-      <c r="V45" s="3"/>
-      <c r="W45" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA45" s="11"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
         <v>107</v>
       </c>
-      <c r="I46" s="4">
+      <c r="L46" s="4">
         <v>334</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3754,47 +3943,50 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U46" s="9">
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X46" s="9">
         <v>0</v>
       </c>
-      <c r="V46" s="3"/>
-      <c r="W46" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA46" s="11"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
         <v>137</v>
       </c>
-      <c r="I47" s="4">
+      <c r="L47" s="4">
         <v>334</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -3802,47 +3994,50 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U47" s="9">
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X47" s="9">
         <v>0</v>
       </c>
-      <c r="V47" s="3"/>
-      <c r="W47" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA47" s="11"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4">
         <v>107</v>
       </c>
-      <c r="I48" s="4">
+      <c r="L48" s="4">
         <v>334</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3850,47 +4045,50 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U48" s="9">
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X48" s="9">
         <v>0</v>
       </c>
-      <c r="V48" s="3"/>
-      <c r="W48" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA48" s="11"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
         <v>129</v>
       </c>
-      <c r="I49" s="4">
+      <c r="L49" s="4">
         <v>289</v>
       </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -3898,49 +4096,52 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U49" s="9">
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X49" s="9">
         <v>0</v>
       </c>
-      <c r="V49" s="3"/>
-      <c r="W49" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="X49" s="11">
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA49" s="11">
         <v>68</v>
       </c>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4">
         <v>161</v>
       </c>
-      <c r="I50" s="4">
+      <c r="L50" s="4">
         <v>274</v>
       </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -3948,47 +4149,50 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U50" s="9">
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X50" s="9">
         <v>0</v>
       </c>
-      <c r="V50" s="3"/>
-      <c r="W50" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA50" s="11"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="4">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4">
         <v>243</v>
       </c>
-      <c r="I51" s="4">
+      <c r="L51" s="4">
         <v>274</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -3996,47 +4200,50 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U51" s="9">
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X51" s="9">
         <v>0</v>
       </c>
-      <c r="V51" s="3"/>
-      <c r="W51" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA51" s="11"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4">
         <v>161</v>
       </c>
-      <c r="I52" s="4">
+      <c r="L52" s="4">
         <v>334</v>
       </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -4044,47 +4251,50 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U52" s="9">
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X52" s="9">
         <v>0</v>
       </c>
-      <c r="V52" s="3"/>
-      <c r="W52" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA52" s="11"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4">
         <v>243</v>
       </c>
-      <c r="I53" s="4">
+      <c r="L53" s="4">
         <v>334</v>
       </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -4092,47 +4302,50 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U53" s="9">
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X53" s="9">
         <v>0</v>
       </c>
-      <c r="V53" s="3"/>
-      <c r="W53" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA53" s="11"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4">
         <v>267</v>
       </c>
-      <c r="I54" s="4">
+      <c r="L54" s="4">
         <v>334</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -4140,47 +4353,50 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U54" s="9">
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X54" s="9">
         <v>0</v>
       </c>
-      <c r="V54" s="3"/>
-      <c r="W54" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA54" s="11"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4">
         <v>325</v>
       </c>
-      <c r="I55" s="4">
+      <c r="L55" s="4">
         <v>334</v>
       </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -4188,47 +4404,50 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U55" s="9">
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X55" s="9">
         <v>0</v>
       </c>
-      <c r="V55" s="3"/>
-      <c r="W55" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4">
         <v>267</v>
       </c>
-      <c r="I56" s="4">
+      <c r="L56" s="4">
         <v>274</v>
       </c>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -4236,47 +4455,50 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U56" s="9">
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X56" s="9">
         <v>0</v>
       </c>
-      <c r="V56" s="3"/>
-      <c r="W56" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="4">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4">
         <v>307</v>
       </c>
-      <c r="I57" s="4">
+      <c r="L57" s="4">
         <v>289</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -4284,49 +4506,52 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U57" s="9">
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X57" s="9">
         <v>0</v>
       </c>
-      <c r="V57" s="3"/>
-      <c r="W57" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="X57" s="11">
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA57" s="11">
         <v>112</v>
       </c>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4">
         <v>325</v>
       </c>
-      <c r="I58" s="4">
+      <c r="L58" s="4">
         <v>334</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -4334,49 +4559,52 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U58" s="9">
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X58" s="9">
         <v>0</v>
       </c>
-      <c r="V58" s="3"/>
-      <c r="W58" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X58" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA58" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4">
         <v>350</v>
       </c>
-      <c r="I59" s="4">
+      <c r="L59" s="4">
         <v>334</v>
       </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -4384,47 +4612,50 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U59" s="9">
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X59" s="9">
         <v>0</v>
       </c>
-      <c r="V59" s="3"/>
-      <c r="W59" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA59" s="11"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4">
         <v>380</v>
       </c>
-      <c r="I60" s="4">
+      <c r="L60" s="4">
         <v>334</v>
       </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -4432,47 +4663,50 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U60" s="9">
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X60" s="9">
         <v>0</v>
       </c>
-      <c r="V60" s="3"/>
-      <c r="W60" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA60" s="11"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4">
         <v>410</v>
       </c>
-      <c r="I61" s="4">
+      <c r="L61" s="4">
         <v>334</v>
       </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -4480,47 +4714,50 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U61" s="9">
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X61" s="9">
         <v>0</v>
       </c>
-      <c r="V61" s="3"/>
-      <c r="W61" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA61" s="11"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4">
         <v>413</v>
       </c>
-      <c r="I62" s="4">
+      <c r="L62" s="4">
         <v>394</v>
       </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -4528,47 +4765,50 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U62" s="9">
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X62" s="9">
         <v>0</v>
       </c>
-      <c r="V62" s="3"/>
-      <c r="W62" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA62" s="11"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="4">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4">
         <v>480</v>
       </c>
-      <c r="I63" s="4">
+      <c r="L63" s="4">
         <v>394</v>
       </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -4576,47 +4816,50 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U63" s="9">
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X63" s="9">
         <v>0</v>
       </c>
-      <c r="V63" s="3"/>
-      <c r="W63" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA63" s="11"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4">
         <v>568</v>
       </c>
-      <c r="I64" s="4">
+      <c r="L64" s="4">
         <v>334</v>
       </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -4624,47 +4867,50 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U64" s="9">
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X64" s="9">
         <v>0</v>
       </c>
-      <c r="V64" s="3"/>
-      <c r="W64" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA64" s="11"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="4">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4">
         <v>812</v>
       </c>
-      <c r="I65" s="4">
+      <c r="L65" s="4">
         <v>334</v>
       </c>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -4672,47 +4918,50 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U65" s="9">
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X65" s="9">
         <v>0</v>
       </c>
-      <c r="V65" s="3"/>
-      <c r="W65" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA65" s="11"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="4">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4">
         <v>568</v>
       </c>
-      <c r="I66" s="4">
+      <c r="L66" s="4">
         <v>394</v>
       </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -4720,47 +4969,50 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U66" s="9">
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X66" s="9">
         <v>0</v>
       </c>
-      <c r="V66" s="3"/>
-      <c r="W66" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA66" s="11"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="4">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4">
         <v>812</v>
       </c>
-      <c r="I67" s="4">
+      <c r="L67" s="4">
         <v>394</v>
       </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -4768,47 +5020,50 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U67" s="9">
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X67" s="9">
         <v>0</v>
       </c>
-      <c r="V67" s="3"/>
-      <c r="W67" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA67" s="11"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="4">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4">
         <v>939</v>
       </c>
-      <c r="I68" s="4">
+      <c r="L68" s="4">
         <v>394</v>
       </c>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -4816,47 +5071,50 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U68" s="9">
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X68" s="9">
         <v>0</v>
       </c>
-      <c r="V68" s="3"/>
-      <c r="W68" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA68" s="11"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4">
         <v>1005</v>
       </c>
-      <c r="I69" s="4">
+      <c r="L69" s="4">
         <v>394</v>
       </c>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -4864,47 +5122,50 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U69" s="9">
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X69" s="9">
         <v>0</v>
       </c>
-      <c r="V69" s="3"/>
-      <c r="W69" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA69" s="11"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="4">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4">
         <v>939</v>
       </c>
-      <c r="I70" s="4">
+      <c r="L70" s="4">
         <v>394</v>
       </c>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -4912,47 +5173,50 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U70" s="9">
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X70" s="9">
         <v>0</v>
       </c>
-      <c r="V70" s="3"/>
-      <c r="W70" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA70" s="11"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="4">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4">
         <v>963</v>
       </c>
-      <c r="I71" s="4">
+      <c r="L71" s="4">
         <v>372</v>
       </c>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -4960,49 +5224,52 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U71" s="9">
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X71" s="9">
         <v>0</v>
       </c>
-      <c r="V71" s="3"/>
-      <c r="W71" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="X71" s="11">
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA71" s="11">
         <v>45</v>
       </c>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4">
         <v>939</v>
       </c>
-      <c r="I72" s="4">
+      <c r="L72" s="4">
         <v>334</v>
       </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -5010,47 +5277,50 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U72" s="9">
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X72" s="9">
         <v>0</v>
       </c>
-      <c r="V72" s="3"/>
-      <c r="W72" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA72" s="11"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4">
         <v>1005</v>
       </c>
-      <c r="I73" s="4">
+      <c r="L73" s="4">
         <v>334</v>
       </c>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -5058,47 +5328,50 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="T73" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U73" s="9">
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X73" s="9">
         <v>0</v>
       </c>
-      <c r="V73" s="3"/>
-      <c r="W73" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA73" s="11"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4">
         <v>983</v>
       </c>
-      <c r="I74" s="4">
+      <c r="L74" s="4">
         <v>352</v>
       </c>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -5106,49 +5379,52 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U74" s="9">
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X74" s="9">
         <v>0</v>
       </c>
-      <c r="V74" s="3"/>
-      <c r="W74" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="X74" s="11">
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA74" s="11">
         <v>45</v>
       </c>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4">
         <v>1005</v>
       </c>
-      <c r="I75" s="4">
+      <c r="L75" s="4">
         <v>334</v>
       </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -5156,47 +5432,50 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-      <c r="T75" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U75" s="9">
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X75" s="9">
         <v>0</v>
       </c>
-      <c r="V75" s="3"/>
-      <c r="W75" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA75" s="11"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4">
         <v>1074</v>
       </c>
-      <c r="I76" s="4">
+      <c r="L76" s="4">
         <v>334</v>
       </c>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -5204,47 +5483,50 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U76" s="9">
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X76" s="9">
         <v>0</v>
       </c>
-      <c r="V76" s="3"/>
-      <c r="W76" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA76" s="11"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4">
         <v>1232</v>
       </c>
-      <c r="I77" s="4">
+      <c r="L77" s="4">
         <v>334</v>
       </c>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -5252,47 +5534,50 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-      <c r="T77" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U77" s="9">
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X77" s="9">
         <v>0</v>
       </c>
-      <c r="V77" s="3"/>
-      <c r="W77" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA77" s="11"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4">
         <v>1053</v>
       </c>
-      <c r="I78" s="4">
+      <c r="L78" s="4">
         <v>394</v>
       </c>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -5300,47 +5585,50 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-      <c r="T78" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U78" s="9">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X78" s="9">
         <v>0</v>
       </c>
-      <c r="V78" s="3"/>
-      <c r="W78" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA78" s="11"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="4">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4">
         <v>1119</v>
       </c>
-      <c r="I79" s="4">
+      <c r="L79" s="4">
         <v>394</v>
       </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -5348,47 +5636,50 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U79" s="9">
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X79" s="9">
         <v>0</v>
       </c>
-      <c r="V79" s="3"/>
-      <c r="W79" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA79" s="11"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="4">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4">
         <v>1217</v>
       </c>
-      <c r="I80" s="4">
+      <c r="L80" s="4">
         <v>394</v>
       </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -5396,47 +5687,50 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U80" s="9">
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X80" s="9">
         <v>0</v>
       </c>
-      <c r="V80" s="3"/>
-      <c r="W80" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA80" s="11"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="4">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4">
         <v>1273</v>
       </c>
-      <c r="I81" s="4">
+      <c r="L81" s="4">
         <v>394</v>
       </c>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -5444,47 +5738,50 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U81" s="9">
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X81" s="9">
         <v>0</v>
       </c>
-      <c r="V81" s="3"/>
-      <c r="W81" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA81" s="11"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="4">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4">
         <v>1317</v>
       </c>
-      <c r="I82" s="4">
+      <c r="L82" s="4">
         <v>394</v>
       </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5492,47 +5789,50 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="T82" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U82" s="9">
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X82" s="9">
         <v>0</v>
       </c>
-      <c r="V82" s="3"/>
-      <c r="W82" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X82" s="11"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA82" s="11"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="4">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4">
         <v>1347</v>
       </c>
-      <c r="I83" s="4">
+      <c r="L83" s="4">
         <v>394</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -5540,47 +5840,50 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U83" s="9">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X83" s="9">
         <v>0</v>
       </c>
-      <c r="V83" s="3"/>
-      <c r="W83" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA83" s="11"/>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="4">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4">
         <v>1377</v>
       </c>
-      <c r="I84" s="4">
+      <c r="L84" s="4">
         <v>394</v>
       </c>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -5588,47 +5891,50 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U84" s="9">
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X84" s="9">
         <v>0</v>
       </c>
-      <c r="V84" s="3"/>
-      <c r="W84" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA84" s="11"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="4">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4">
         <v>54</v>
       </c>
-      <c r="I85" s="4">
+      <c r="L85" s="4">
         <v>45</v>
       </c>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -5636,47 +5942,50 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-      <c r="T85" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U85" s="9">
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X85" s="9">
         <v>0</v>
       </c>
-      <c r="V85" s="3"/>
-      <c r="W85" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="4">
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4">
         <v>102</v>
       </c>
-      <c r="I86" s="4">
+      <c r="L86" s="4">
         <v>45</v>
       </c>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -5684,47 +5993,50 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-      <c r="T86" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U86" s="9">
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X86" s="9">
         <v>0</v>
       </c>
-      <c r="V86" s="3"/>
-      <c r="W86" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4">
         <v>734</v>
       </c>
-      <c r="I87" s="4">
+      <c r="L87" s="4">
         <v>567</v>
       </c>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -5732,47 +6044,50 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-      <c r="T87" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U87" s="9">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X87" s="9">
         <v>0</v>
       </c>
-      <c r="V87" s="3"/>
-      <c r="W87" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="4">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4">
         <v>696</v>
       </c>
-      <c r="I88" s="4">
+      <c r="L88" s="4">
         <v>567</v>
       </c>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -5780,487 +6095,520 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-      <c r="T88" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U88" s="9">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X88" s="9">
         <v>0</v>
       </c>
-      <c r="V88" s="3"/>
-      <c r="W88" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="4">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4">
         <v>24</v>
       </c>
-      <c r="I89" s="4">
+      <c r="L89" s="4">
         <v>196</v>
       </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-      <c r="S89" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
+      <c r="V89" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="4">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4">
         <v>174</v>
       </c>
-      <c r="I90" s="4">
+      <c r="L90" s="4">
         <v>150</v>
       </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
+      <c r="V90" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="4">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4">
         <v>174</v>
       </c>
-      <c r="I91" s="4">
+      <c r="L91" s="4">
         <v>196</v>
       </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
+      <c r="V91" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4">
         <v>324</v>
       </c>
-      <c r="I92" s="4">
+      <c r="L92" s="4">
         <v>196</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
+      <c r="V92" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="4">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4">
         <v>474</v>
       </c>
-      <c r="I93" s="4">
+      <c r="L93" s="4">
         <v>196</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-      <c r="S93" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
+      <c r="V93" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="4">
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4">
         <v>630</v>
       </c>
-      <c r="I94" s="4">
+      <c r="L94" s="4">
         <v>323</v>
       </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-      <c r="S94" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
+      <c r="V94" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="4">
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4">
         <v>630</v>
       </c>
-      <c r="I95" s="4">
+      <c r="L95" s="4">
         <v>383</v>
       </c>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="W95" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
+      <c r="V95" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="4">
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4">
         <v>1093</v>
       </c>
-      <c r="I96" s="4">
+      <c r="L96" s="4">
         <v>323</v>
       </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-      <c r="S96" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
+      <c r="V96" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
-    </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4">
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4">
         <v>1135</v>
       </c>
-      <c r="I97" s="4">
+      <c r="L97" s="4">
         <v>450</v>
       </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
-      <c r="S97" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="W97" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
+      <c r="V97" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4">
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4">
         <v>1285</v>
       </c>
-      <c r="I98" s="4">
+      <c r="L98" s="4">
         <v>450</v>
       </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
+      <c r="V98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6283,9 +6631,9 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
@@ -6293,8 +6641,11 @@
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6317,9 +6668,9 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="5"/>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
@@ -6327,8 +6678,11 @@
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
-    </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6351,9 +6705,9 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
@@ -6361,8 +6715,11 @@
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
-    </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6385,9 +6742,9 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
-      <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
-      <c r="Y102" s="5"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
@@ -6395,8 +6752,11 @@
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
-    </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6419,9 +6779,9 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
-      <c r="W103" s="5"/>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
@@ -6429,8 +6789,11 @@
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
-    </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6453,9 +6816,9 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
-      <c r="W104" s="5"/>
-      <c r="X104" s="5"/>
-      <c r="Y104" s="5"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
@@ -6463,6 +6826,9 @@
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6496,7 +6862,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -6526,7 +6892,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6556,7 +6922,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -6586,7 +6952,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -6616,7 +6982,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -6646,7 +7012,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6676,7 +7042,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -6706,7 +7072,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -6736,7 +7102,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -6766,7 +7132,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38181C4F-4E5D-41CF-8BE2-D37DC6758432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B5F8C-FE9D-4436-90F4-9BD01BA8C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="3675" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="3705" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="179">
   <si>
     <t>Type</t>
   </si>
@@ -602,10 +602,16 @@
     <t>Image/Lever/Lever_Red_N.png,Image/Lever/Lever_Red_R.png</t>
   </si>
   <si>
+    <t>0代X=てこ赤(X)N(X)　例：1R=てこ赤NR</t>
+  </si>
+  <si>
     <t>1R_G</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
+  </si>
+  <si>
+    <t>G,Y,R,PG,PYは灯色</t>
   </si>
   <si>
     <t>TextBlock</t>
@@ -749,6 +755,9 @@
     <t>Image/Lever/Lever_Black_L.png,Image/Lever/Lever_Black_N.png,Image/Lever/Lever_Black_R.png</t>
   </si>
   <si>
+    <t>転てつ器単独てこはNCR</t>
+  </si>
+  <si>
     <t>P21_PG</t>
   </si>
   <si>
@@ -776,6 +785,9 @@
     <t>Image/Lever/KeyLever_KeyOFF_L.png,Image/Lever/KeyLever_KeyOFF_R.png,Image/Lever/KeyLever_KeyON_L.png,Image/Lever/KeyLever_KeyON_R.png</t>
   </si>
   <si>
+    <t>駅扱切換はLR</t>
+  </si>
+  <si>
     <t>駅扱切換_PY</t>
   </si>
   <si>
@@ -791,7 +803,7 @@
     <t>Image/Light/0N.png,Image/Light/0Y.png,Image/Light/0R.png</t>
   </si>
   <si>
-    <t>以下ラインライト。特記なき限り0度。</t>
+    <t>0度※以下0度省略</t>
   </si>
   <si>
     <t>TH71_1RT_1</t>
@@ -810,6 +822,9 @@
   </si>
   <si>
     <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
+  </si>
+  <si>
+    <t>68度</t>
   </si>
   <si>
     <t>TH71_1RAT_1</t>
@@ -839,10 +854,10 @@
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
   </si>
   <si>
-    <t>TH71_23T_P23R_3</t>
+    <t>112度</t>
   </si>
   <si>
-    <t>ラインライトここまで。</t>
+    <t>TH71_23T_P23R_3</t>
   </si>
   <si>
     <t>TH71_SST_1</t>
@@ -885,6 +900,9 @@
   </si>
   <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
+  </si>
+  <si>
+    <t>45度</t>
   </si>
   <si>
     <t>TH70_21ロT_P21ロN_1</t>
@@ -1311,7 +1329,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
@@ -1322,7 +1340,7 @@
     <col min="28" max="35" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1431,7 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1480,7 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1533,7 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1590,7 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1623,7 +1641,7 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1670,7 +1688,9 @@
       <c r="Z6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="5"/>
+      <c r="AA6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -1680,12 +1700,12 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1721,9 +1741,11 @@
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA7" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
@@ -1733,12 +1755,12 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
@@ -1774,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V8" s="6" t="s">
         <v>41</v>
@@ -1796,12 +1818,12 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1829,19 +1851,19 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X9" s="6">
         <v>0</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
@@ -1853,12 +1875,12 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1894,7 +1916,7 @@
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
@@ -1906,16 +1928,16 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1947,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -1969,12 +1991,12 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2002,7 +2024,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>43</v>
@@ -2026,12 +2048,12 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2067,7 +2089,7 @@
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -2079,16 +2101,16 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2120,13 +2142,13 @@
         <v>10</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -2142,12 +2164,12 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2175,7 +2197,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>43</v>
@@ -2199,12 +2221,12 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2240,7 +2262,7 @@
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
@@ -2252,16 +2274,16 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2293,13 +2315,13 @@
         <v>10</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -2315,12 +2337,12 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2348,19 +2370,19 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X18" s="6">
         <v>0</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
@@ -2372,12 +2394,12 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2413,7 +2435,7 @@
       </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
@@ -2425,16 +2447,16 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2466,13 +2488,13 @@
         <v>10</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -2488,12 +2510,12 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2521,7 +2543,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>43</v>
@@ -2533,7 +2555,7 @@
         <v>44</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
@@ -2545,12 +2567,12 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2586,7 +2608,7 @@
       </c>
       <c r="Y22" s="3"/>
       <c r="Z22" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
@@ -2598,16 +2620,16 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2639,13 +2661,13 @@
         <v>10</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2661,12 +2683,12 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2694,19 +2716,19 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X24" s="9">
         <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -2718,12 +2740,12 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2759,7 +2781,7 @@
       </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
@@ -2771,16 +2793,16 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2812,13 +2834,13 @@
         <v>10</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
@@ -2834,12 +2856,12 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2867,7 +2889,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>43</v>
@@ -2876,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -2891,16 +2913,16 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2926,19 +2948,19 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S28" s="6">
         <v>10</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
@@ -2954,12 +2976,12 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2987,7 +3009,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W29" s="6" t="s">
         <v>43</v>
@@ -2996,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
@@ -3011,16 +3033,16 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3046,19 +3068,19 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S30" s="6">
         <v>10</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
@@ -3074,12 +3096,12 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3107,7 +3129,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W31" s="6" t="s">
         <v>43</v>
@@ -3116,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
@@ -3131,16 +3153,16 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3166,19 +3188,19 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S32" s="6">
         <v>10</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -3194,12 +3216,12 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3227,7 +3249,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W33" s="6" t="s">
         <v>43</v>
@@ -3236,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="Y33" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
@@ -3251,16 +3273,16 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3286,19 +3308,19 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S34" s="6">
         <v>10</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -3314,12 +3336,12 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3347,7 +3369,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W35" s="6" t="s">
         <v>43</v>
@@ -3356,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
@@ -3371,12 +3393,12 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3404,7 +3426,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W36" s="6" t="s">
         <v>43</v>
@@ -3413,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z36" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
@@ -3428,12 +3450,12 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3461,21 +3483,23 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W37" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X37" s="6">
         <v>0</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA37" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
@@ -3485,12 +3509,12 @@
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3526,7 +3550,7 @@
       </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
@@ -3538,12 +3562,12 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3579,7 +3603,7 @@
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
@@ -3591,16 +3615,16 @@
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3632,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -3654,9 +3678,9 @@
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
     </row>
-    <row r="41" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>42</v>
@@ -3665,7 +3689,9 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3688,18 +3714,20 @@
         <v>42</v>
       </c>
       <c r="W41" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="X41" s="6">
         <v>1</v>
       </c>
       <c r="Y41" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA41" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -3709,12 +3737,12 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3748,7 +3776,7 @@
       </c>
       <c r="Y42" s="3"/>
       <c r="Z42" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
@@ -3760,12 +3788,12 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3799,7 +3827,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -3811,12 +3839,12 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3843,17 +3871,17 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X44" s="9">
         <v>0</v>
       </c>
       <c r="Y44" s="3"/>
       <c r="Z44" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA44" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -3864,12 +3892,12 @@
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3896,14 +3924,14 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X45" s="9">
         <v>0</v>
       </c>
       <c r="Y45" s="3"/>
       <c r="Z45" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA45" s="11"/>
       <c r="AB45" s="5"/>
@@ -3915,12 +3943,12 @@
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3947,14 +3975,14 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X46" s="9">
         <v>0</v>
       </c>
       <c r="Y46" s="3"/>
       <c r="Z46" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA46" s="11"/>
       <c r="AB46" s="5"/>
@@ -3966,12 +3994,12 @@
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3998,14 +4026,14 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X47" s="9">
         <v>0</v>
       </c>
       <c r="Y47" s="3"/>
       <c r="Z47" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA47" s="11"/>
       <c r="AB47" s="5"/>
@@ -4017,12 +4045,12 @@
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -4049,14 +4077,14 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X48" s="9">
         <v>0</v>
       </c>
       <c r="Y48" s="3"/>
       <c r="Z48" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA48" s="11"/>
       <c r="AB48" s="5"/>
@@ -4068,12 +4096,12 @@
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -4100,17 +4128,17 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X49" s="9">
         <v>0</v>
       </c>
       <c r="Y49" s="3"/>
       <c r="Z49" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA49" s="11">
-        <v>68</v>
+        <v>119</v>
+      </c>
+      <c r="AA49" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4121,12 +4149,12 @@
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -4153,14 +4181,14 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X50" s="9">
         <v>0</v>
       </c>
       <c r="Y50" s="3"/>
       <c r="Z50" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA50" s="11"/>
       <c r="AB50" s="5"/>
@@ -4172,12 +4200,12 @@
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -4204,14 +4232,14 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X51" s="9">
         <v>0</v>
       </c>
       <c r="Y51" s="3"/>
       <c r="Z51" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA51" s="11"/>
       <c r="AB51" s="5"/>
@@ -4223,12 +4251,12 @@
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -4255,14 +4283,14 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X52" s="9">
         <v>0</v>
       </c>
       <c r="Y52" s="3"/>
       <c r="Z52" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA52" s="11"/>
       <c r="AB52" s="5"/>
@@ -4274,12 +4302,12 @@
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -4306,14 +4334,14 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X53" s="9">
         <v>0</v>
       </c>
       <c r="Y53" s="3"/>
       <c r="Z53" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA53" s="11"/>
       <c r="AB53" s="5"/>
@@ -4325,12 +4353,12 @@
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -4357,14 +4385,14 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X54" s="9">
         <v>0</v>
       </c>
       <c r="Y54" s="3"/>
       <c r="Z54" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA54" s="11"/>
       <c r="AB54" s="5"/>
@@ -4376,12 +4404,12 @@
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4408,14 +4436,14 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X55" s="9">
         <v>0</v>
       </c>
       <c r="Y55" s="3"/>
       <c r="Z55" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
@@ -4427,12 +4455,12 @@
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -4459,14 +4487,14 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X56" s="9">
         <v>0</v>
       </c>
       <c r="Y56" s="3"/>
       <c r="Z56" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -4478,12 +4506,12 @@
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -4510,17 +4538,17 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X57" s="9">
         <v>0</v>
       </c>
       <c r="Y57" s="3"/>
       <c r="Z57" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA57" s="11">
-        <v>112</v>
+        <v>129</v>
+      </c>
+      <c r="AA57" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -4531,12 +4559,12 @@
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -4563,18 +4591,16 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X58" s="9">
         <v>0</v>
       </c>
       <c r="Y58" s="3"/>
       <c r="Z58" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA58" s="5" t="s">
-        <v>126</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -4584,12 +4610,12 @@
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -4616,14 +4642,14 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X59" s="9">
         <v>0</v>
       </c>
       <c r="Y59" s="3"/>
       <c r="Z59" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA59" s="11"/>
       <c r="AB59" s="5"/>
@@ -4635,12 +4661,12 @@
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -4667,14 +4693,14 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X60" s="9">
         <v>0</v>
       </c>
       <c r="Y60" s="3"/>
       <c r="Z60" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA60" s="11"/>
       <c r="AB60" s="5"/>
@@ -4686,12 +4712,12 @@
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -4718,14 +4744,14 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X61" s="9">
         <v>0</v>
       </c>
       <c r="Y61" s="3"/>
       <c r="Z61" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA61" s="11"/>
       <c r="AB61" s="5"/>
@@ -4737,12 +4763,12 @@
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -4769,14 +4795,14 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X62" s="9">
         <v>0</v>
       </c>
       <c r="Y62" s="3"/>
       <c r="Z62" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA62" s="11"/>
       <c r="AB62" s="5"/>
@@ -4788,12 +4814,12 @@
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -4820,14 +4846,14 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X63" s="9">
         <v>0</v>
       </c>
       <c r="Y63" s="3"/>
       <c r="Z63" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA63" s="11"/>
       <c r="AB63" s="5"/>
@@ -4839,12 +4865,12 @@
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -4871,14 +4897,14 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X64" s="9">
         <v>0</v>
       </c>
       <c r="Y64" s="3"/>
       <c r="Z64" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA64" s="11"/>
       <c r="AB64" s="5"/>
@@ -4890,12 +4916,12 @@
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -4922,14 +4948,14 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X65" s="9">
         <v>0</v>
       </c>
       <c r="Y65" s="3"/>
       <c r="Z65" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA65" s="11"/>
       <c r="AB65" s="5"/>
@@ -4941,12 +4967,12 @@
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -4973,14 +4999,14 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X66" s="9">
         <v>0</v>
       </c>
       <c r="Y66" s="3"/>
       <c r="Z66" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA66" s="11"/>
       <c r="AB66" s="5"/>
@@ -4992,12 +5018,12 @@
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -5024,14 +5050,14 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X67" s="9">
         <v>0</v>
       </c>
       <c r="Y67" s="3"/>
       <c r="Z67" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA67" s="11"/>
       <c r="AB67" s="5"/>
@@ -5043,12 +5069,12 @@
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -5075,14 +5101,14 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X68" s="9">
         <v>0</v>
       </c>
       <c r="Y68" s="3"/>
       <c r="Z68" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA68" s="11"/>
       <c r="AB68" s="5"/>
@@ -5094,12 +5120,12 @@
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -5126,14 +5152,14 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X69" s="9">
         <v>0</v>
       </c>
       <c r="Y69" s="3"/>
       <c r="Z69" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA69" s="11"/>
       <c r="AB69" s="5"/>
@@ -5145,12 +5171,12 @@
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -5177,14 +5203,14 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X70" s="9">
         <v>0</v>
       </c>
       <c r="Y70" s="3"/>
       <c r="Z70" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA70" s="11"/>
       <c r="AB70" s="5"/>
@@ -5196,12 +5222,12 @@
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -5228,17 +5254,17 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X71" s="9">
         <v>0</v>
       </c>
       <c r="Y71" s="3"/>
       <c r="Z71" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA71" s="11">
-        <v>45</v>
+        <v>145</v>
+      </c>
+      <c r="AA71" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5249,12 +5275,12 @@
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5281,14 +5307,14 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X72" s="9">
         <v>0</v>
       </c>
       <c r="Y72" s="3"/>
       <c r="Z72" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA72" s="11"/>
       <c r="AB72" s="5"/>
@@ -5300,12 +5326,12 @@
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5332,14 +5358,14 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X73" s="9">
         <v>0</v>
       </c>
       <c r="Y73" s="3"/>
       <c r="Z73" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA73" s="11"/>
       <c r="AB73" s="5"/>
@@ -5351,12 +5377,12 @@
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5383,17 +5409,17 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X74" s="9">
         <v>0</v>
       </c>
       <c r="Y74" s="3"/>
       <c r="Z74" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA74" s="11">
-        <v>45</v>
+        <v>145</v>
+      </c>
+      <c r="AA74" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -5404,12 +5430,12 @@
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -5436,14 +5462,14 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X75" s="9">
         <v>0</v>
       </c>
       <c r="Y75" s="3"/>
       <c r="Z75" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA75" s="11"/>
       <c r="AB75" s="5"/>
@@ -5455,12 +5481,12 @@
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -5487,14 +5513,14 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X76" s="9">
         <v>0</v>
       </c>
       <c r="Y76" s="3"/>
       <c r="Z76" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA76" s="11"/>
       <c r="AB76" s="5"/>
@@ -5506,12 +5532,12 @@
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5538,14 +5564,14 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X77" s="9">
         <v>0</v>
       </c>
       <c r="Y77" s="3"/>
       <c r="Z77" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA77" s="11"/>
       <c r="AB77" s="5"/>
@@ -5557,12 +5583,12 @@
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -5589,14 +5615,14 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X78" s="9">
         <v>0</v>
       </c>
       <c r="Y78" s="3"/>
       <c r="Z78" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA78" s="11"/>
       <c r="AB78" s="5"/>
@@ -5608,12 +5634,12 @@
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -5640,14 +5666,14 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X79" s="9">
         <v>0</v>
       </c>
       <c r="Y79" s="3"/>
       <c r="Z79" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA79" s="11"/>
       <c r="AB79" s="5"/>
@@ -5659,12 +5685,12 @@
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5691,14 +5717,14 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X80" s="9">
         <v>0</v>
       </c>
       <c r="Y80" s="3"/>
       <c r="Z80" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA80" s="11"/>
       <c r="AB80" s="5"/>
@@ -5710,12 +5736,12 @@
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -5742,14 +5768,14 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X81" s="9">
         <v>0</v>
       </c>
       <c r="Y81" s="3"/>
       <c r="Z81" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA81" s="11"/>
       <c r="AB81" s="5"/>
@@ -5761,12 +5787,12 @@
       <c r="AH81" s="5"/>
       <c r="AI81" s="5"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -5793,14 +5819,14 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X82" s="9">
         <v>0</v>
       </c>
       <c r="Y82" s="3"/>
       <c r="Z82" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA82" s="11"/>
       <c r="AB82" s="5"/>
@@ -5812,12 +5838,12 @@
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -5844,14 +5870,14 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X83" s="9">
         <v>0</v>
       </c>
       <c r="Y83" s="3"/>
       <c r="Z83" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA83" s="11"/>
       <c r="AB83" s="5"/>
@@ -5863,12 +5889,12 @@
       <c r="AH83" s="5"/>
       <c r="AI83" s="5"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -5895,14 +5921,14 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X84" s="9">
         <v>0</v>
       </c>
       <c r="Y84" s="3"/>
       <c r="Z84" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA84" s="11"/>
       <c r="AB84" s="5"/>
@@ -5914,12 +5940,12 @@
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -5953,7 +5979,7 @@
       </c>
       <c r="Y85" s="3"/>
       <c r="Z85" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
@@ -5965,12 +5991,12 @@
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6004,7 +6030,7 @@
       </c>
       <c r="Y86" s="3"/>
       <c r="Z86" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
@@ -6016,12 +6042,12 @@
       <c r="AH86" s="5"/>
       <c r="AI86" s="5"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6055,7 +6081,7 @@
       </c>
       <c r="Y87" s="3"/>
       <c r="Z87" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
@@ -6067,12 +6093,12 @@
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6106,7 +6132,7 @@
       </c>
       <c r="Y88" s="3"/>
       <c r="Z88" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
@@ -6118,12 +6144,12 @@
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6149,13 +6175,13 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
@@ -6167,12 +6193,12 @@
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6198,13 +6224,13 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
@@ -6216,12 +6242,12 @@
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6247,13 +6273,13 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
@@ -6265,12 +6291,12 @@
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6296,13 +6322,13 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
@@ -6314,12 +6340,12 @@
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6345,13 +6371,13 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
@@ -6363,12 +6389,12 @@
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6394,13 +6420,13 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
@@ -6412,12 +6438,12 @@
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6443,13 +6469,13 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
@@ -6461,12 +6487,12 @@
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6492,13 +6518,13 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
@@ -6510,12 +6536,12 @@
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6541,13 +6567,13 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
       <c r="Z97" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
@@ -6559,12 +6585,12 @@
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6590,13 +6616,13 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
       <c r="Z98" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
@@ -6608,7 +6634,7 @@
       <c r="AH98" s="5"/>
       <c r="AI98" s="5"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6645,7 +6671,7 @@
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6682,7 +6708,7 @@
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6719,7 +6745,7 @@
       <c r="AH101" s="5"/>
       <c r="AI101" s="5"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6756,7 +6782,7 @@
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6793,7 +6819,7 @@
       <c r="AH103" s="5"/>
       <c r="AI103" s="5"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6862,7 +6888,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -6892,7 +6918,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6922,7 +6948,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7072,7 +7098,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7102,7 +7128,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7132,7 +7158,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B5F8C-FE9D-4436-90F4-9BD01BA8C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC9A29-3BDB-4D59-B6CE-AE4EDBADF6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="3705" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="4590" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,9 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側名称（未記入で良い）</t>
+          <t>親となる画像がある場合に指定
+X座標, Y座標
+　　→親画像の左上座標が0, 0起点となる</t>
         </r>
       </text>
     </comment>
@@ -74,13 +76,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>親となる画像がある場合に指定
-X座標, Y座標
-　　→親画像の左上座標が0, 0起点となる</t>
+          <t>サーバー側名称</t>
         </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>サーバー側分類</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="185">
   <si>
     <t>Type</t>
   </si>
@@ -470,10 +483,13 @@
     <t>UniqueName</t>
   </si>
   <si>
+    <t>ParentName</t>
+  </si>
+  <si>
     <t>ServerName</t>
   </si>
   <si>
-    <t>ParentName</t>
+    <t>ServerType</t>
   </si>
   <si>
     <t>PointName</t>
@@ -606,6 +622,9 @@
   </si>
   <si>
     <t>1R_G</t>
+  </si>
+  <si>
+    <t>信号機</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -761,6 +780,9 @@
     <t>P21_PG</t>
   </si>
   <si>
+    <t>分岐器</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
@@ -791,10 +813,16 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>駅扱切換_PG</t>
   </si>
   <si>
     <t>74T_1</t>
+  </si>
+  <si>
+    <t>軌道回路</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -945,6 +973,9 @@
   </si>
   <si>
     <t>停電_R</t>
+  </si>
+  <si>
+    <t>ランプ</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
@@ -1320,7 +1351,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI104"/>
+  <dimension ref="A1:AJ104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1329,18 +1360,18 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="24" width="15.140625" customWidth="1"/>
-    <col min="25" max="25" width="37.5703125" customWidth="1"/>
-    <col min="26" max="26" width="100.140625" customWidth="1"/>
-    <col min="27" max="27" width="62.5703125" customWidth="1"/>
-    <col min="28" max="35" width="14.5703125" customWidth="1"/>
+    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="37.5703125" customWidth="1"/>
+    <col min="27" max="27" width="100.140625" customWidth="1"/>
+    <col min="28" max="28" width="62.5703125" customWidth="1"/>
+    <col min="29" max="36" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,13 +1447,15 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3"/>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -1430,31 +1463,32 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1467,10 +1501,10 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -1479,37 +1513,38 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
-    </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="6">
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>850</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>78</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>79</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>110</v>
       </c>
-      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1520,10 +1555,10 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="5"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -1532,39 +1567,40 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="6">
+      <c r="K4" s="7"/>
+      <c r="L4" s="6">
         <v>6</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>37</v>
-      </c>
-      <c r="M4" s="6">
-        <v>63</v>
       </c>
       <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="6">
+        <v>63</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1574,13 +1610,13 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="5"/>
+      <c r="AA4" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -1589,33 +1625,34 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="6">
-        <f>K3+11</f>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6">
+        <f>L3+11</f>
         <v>861</v>
       </c>
-      <c r="L5" s="6">
-        <f>L3-68</f>
+      <c r="M5" s="6">
+        <f>M3-68</f>
         <v>10</v>
       </c>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1628,11 +1665,11 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="5"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="7"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
@@ -1640,31 +1677,32 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>431</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>311</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1673,25 +1711,25 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="6">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="6">
         <v>0</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
@@ -1699,31 +1737,34 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>497</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>317</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1733,20 +1774,20 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X7" s="6">
+      <c r="W7" s="4"/>
+      <c r="X7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="6">
         <v>0</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="5"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -1754,60 +1795,61 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>14</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>20</v>
-      </c>
-      <c r="M8" s="6">
-        <v>11</v>
       </c>
       <c r="N8" s="6">
         <v>11</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="6">
+        <v>11</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="6">
+      <c r="R8" s="4"/>
+      <c r="S8" s="6">
         <v>1</v>
       </c>
-      <c r="S8" s="6">
+      <c r="T8" s="6">
         <v>10</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U8" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="5"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -1817,31 +1859,32 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-    </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>528</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>371</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1850,22 +1893,22 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" s="6">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="6">
         <v>0</v>
       </c>
-      <c r="Y9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA9" s="5"/>
+      <c r="Z9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -1874,31 +1917,34 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-    </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="5"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>492</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>427</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1908,17 +1954,17 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="6">
+      <c r="W10" s="4"/>
+      <c r="X10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="6">
         <v>0</v>
       </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="5"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -1927,60 +1973,61 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-    </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>14</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>20</v>
-      </c>
-      <c r="M11" s="6">
-        <v>11</v>
       </c>
       <c r="N11" s="6">
         <v>11</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="6">
+        <v>11</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="6">
+      <c r="R11" s="4"/>
+      <c r="S11" s="6">
         <v>2</v>
       </c>
-      <c r="S11" s="6">
+      <c r="T11" s="6">
         <v>10</v>
       </c>
-      <c r="T11" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="5"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -1990,31 +2037,32 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-    </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="5"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>882</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>311</v>
       </c>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2023,22 +2071,22 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X12" s="6">
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="6">
         <v>0</v>
       </c>
-      <c r="Y12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Z12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AA12" s="5"/>
+      <c r="AA12" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -2047,31 +2095,34 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-    </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="5"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>959</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>309</v>
       </c>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2081,17 +2132,17 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X13" s="6">
+      <c r="W13" s="4"/>
+      <c r="X13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="6">
         <v>0</v>
       </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="5"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
@@ -2100,60 +2151,61 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-    </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="6"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>14</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>20</v>
-      </c>
-      <c r="M14" s="6">
-        <v>11</v>
       </c>
       <c r="N14" s="6">
         <v>11</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="O14" s="6">
+        <v>11</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="6">
+      <c r="R14" s="4"/>
+      <c r="S14" s="6">
         <v>3</v>
       </c>
-      <c r="S14" s="6">
+      <c r="T14" s="6">
         <v>10</v>
       </c>
-      <c r="T14" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U14" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="5"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2163,31 +2215,32 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-    </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>882</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>371</v>
       </c>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2196,22 +2249,22 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X15" s="6">
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" s="6">
         <v>0</v>
       </c>
-      <c r="Y15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="8" t="s">
+      <c r="Z15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -2220,31 +2273,34 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-    </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>948</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>407</v>
       </c>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2254,17 +2310,17 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X16" s="6">
+      <c r="W16" s="4"/>
+      <c r="X16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" s="6">
         <v>0</v>
       </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA16" s="5"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -2273,60 +2329,61 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-    </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>14</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>20</v>
-      </c>
-      <c r="M17" s="6">
-        <v>11</v>
       </c>
       <c r="N17" s="6">
         <v>11</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="6">
+        <v>11</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="6">
+      <c r="R17" s="4"/>
+      <c r="S17" s="6">
         <v>4</v>
       </c>
-      <c r="S17" s="6">
+      <c r="T17" s="6">
         <v>10</v>
       </c>
-      <c r="T17" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U17" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W17" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="5"/>
+      <c r="Z17" s="4"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2336,31 +2393,32 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-    </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>1168</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>371</v>
       </c>
-      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2369,22 +2427,22 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X18" s="6">
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="6">
         <v>0</v>
       </c>
-      <c r="Y18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA18" s="5"/>
+      <c r="Z18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -2393,31 +2451,34 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-    </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="5"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>1132</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>407</v>
       </c>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2427,17 +2488,17 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19" s="6">
+      <c r="W19" s="4"/>
+      <c r="X19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" s="6">
         <v>0</v>
       </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA19" s="5"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2446,60 +2507,61 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>14</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>20</v>
-      </c>
-      <c r="M20" s="6">
-        <v>11</v>
       </c>
       <c r="N20" s="6">
         <v>11</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="6">
+        <v>11</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="6">
+      <c r="R20" s="4"/>
+      <c r="S20" s="6">
         <v>5</v>
       </c>
-      <c r="S20" s="6">
+      <c r="T20" s="6">
         <v>10</v>
       </c>
-      <c r="T20" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U20" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="5"/>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2509,31 +2571,32 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-    </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>824</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>311</v>
       </c>
-      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2542,22 +2605,22 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X21" s="9">
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="9">
         <v>0</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA21" s="5"/>
+      <c r="Z21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
@@ -2566,31 +2629,34 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-    </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>941</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>308</v>
       </c>
-      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2600,17 +2666,17 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X22" s="9">
+      <c r="W22" s="4"/>
+      <c r="X22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="9">
         <v>0</v>
       </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA22" s="5"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -2619,60 +2685,61 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-    </row>
-    <row r="23" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="6">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>14</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>20</v>
-      </c>
-      <c r="M23" s="6">
-        <v>11</v>
       </c>
       <c r="N23" s="6">
         <v>11</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="O23" s="6">
+        <v>11</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="6">
+      <c r="R23" s="4"/>
+      <c r="S23" s="6">
         <v>11</v>
       </c>
-      <c r="S23" s="6">
+      <c r="T23" s="6">
         <v>10</v>
       </c>
-      <c r="T23" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U23" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="W23" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="5"/>
+      <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -2682,31 +2749,32 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-    </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ23" s="5"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>1034</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>311</v>
       </c>
-      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2715,22 +2783,22 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="X24" s="9">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="9">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA24" s="5"/>
+      <c r="Z24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
@@ -2739,31 +2807,34 @@
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
         <v>1005</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>318</v>
       </c>
-      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2773,17 +2844,17 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X25" s="9">
+      <c r="W25" s="4"/>
+      <c r="X25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y25" s="9">
         <v>0</v>
       </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA25" s="5"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -2792,60 +2863,61 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="6">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>14</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>20</v>
-      </c>
-      <c r="M26" s="6">
-        <v>11</v>
       </c>
       <c r="N26" s="6">
         <v>11</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="6">
+        <v>11</v>
+      </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="6">
+      <c r="R26" s="4"/>
+      <c r="S26" s="6">
         <v>12</v>
       </c>
-      <c r="S26" s="6">
+      <c r="T26" s="6">
         <v>10</v>
       </c>
-      <c r="T26" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U26" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="W26" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="5"/>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -2855,31 +2927,32 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="4">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
         <v>439</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>384</v>
       </c>
-      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2888,22 +2961,22 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X27" s="6">
+      <c r="V27" s="4"/>
+      <c r="W27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y27" s="6">
         <v>0</v>
       </c>
-      <c r="Y27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA27" s="5"/>
+      <c r="Z27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
@@ -2912,61 +2985,62 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="6">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>23</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>15</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <v>12</v>
       </c>
-      <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S28" s="6">
+      <c r="R28" s="4"/>
+      <c r="S28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="6">
         <v>10</v>
       </c>
-      <c r="T28" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U28" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="W28" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="5"/>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -2975,31 +3049,32 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
         <v>780</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>324</v>
       </c>
-      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3008,22 +3083,22 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="4"/>
+      <c r="W29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
@@ -3032,61 +3107,62 @@
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="6"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="6">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
         <v>5</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <v>23</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>15</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <v>12</v>
       </c>
-      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="S30" s="6">
+      <c r="R30" s="4"/>
+      <c r="S30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" s="6">
         <v>10</v>
       </c>
-      <c r="T30" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U30" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="W30" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="5"/>
+      <c r="AA30" s="7"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -3095,31 +3171,32 @@
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-    </row>
-    <row r="31" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="4">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
         <v>780</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>384</v>
       </c>
-      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3128,22 +3205,22 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X31" s="6">
+      <c r="V31" s="4"/>
+      <c r="W31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y31" s="6">
         <v>0</v>
       </c>
-      <c r="Y31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA31" s="5"/>
+      <c r="Z31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
@@ -3152,61 +3229,62 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-    </row>
-    <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="6"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="6">
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
         <v>5</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>23</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <v>15</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <v>12</v>
       </c>
-      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S32" s="6">
+      <c r="R32" s="4"/>
+      <c r="S32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T32" s="6">
         <v>10</v>
       </c>
-      <c r="T32" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U32" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W32" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="5"/>
+      <c r="AA32" s="7"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -3215,31 +3293,32 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="4">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
         <v>1251</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>324</v>
       </c>
-      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -3248,22 +3327,22 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X33" s="6">
+      <c r="V33" s="4"/>
+      <c r="W33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y33" s="6">
         <v>0</v>
       </c>
-      <c r="Y33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA33" s="5"/>
+      <c r="Z33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
@@ -3272,61 +3351,62 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="6"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="6">
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
         <v>5</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>23</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <v>15</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>12</v>
       </c>
-      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S34" s="6">
+      <c r="R34" s="4"/>
+      <c r="S34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T34" s="6">
         <v>10</v>
       </c>
-      <c r="T34" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U34" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="W34" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
-      <c r="AA34" s="5"/>
+      <c r="AA34" s="7"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -3335,31 +3415,32 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>304</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>551</v>
       </c>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -3368,22 +3449,22 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="W35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X35" s="6">
+      <c r="V35" s="4"/>
+      <c r="W35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y35" s="6">
         <v>0</v>
       </c>
-      <c r="Y35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA35" s="5"/>
+      <c r="Z35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -3392,31 +3473,32 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-    </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="4">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>1111</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>551</v>
       </c>
-      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3425,22 +3507,22 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="4" t="s">
+      <c r="V36" s="4"/>
+      <c r="W36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA36" s="5"/>
+      <c r="AA36" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3449,31 +3531,32 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-    </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="4">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>958</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>64</v>
       </c>
-      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3482,25 +3565,25 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="W37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X37" s="6">
+      <c r="V37" s="4"/>
+      <c r="W37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y37" s="6">
         <v>0</v>
       </c>
-      <c r="Y37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA37" s="5" t="s">
+      <c r="Z37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AB37" s="5"/>
+      <c r="AA37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
@@ -3508,31 +3591,34 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-    </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ37" s="5"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="4">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
         <v>956</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>45</v>
       </c>
-      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3542,17 +3628,17 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X38" s="6">
+      <c r="W38" s="4"/>
+      <c r="X38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y38" s="6">
         <v>0</v>
       </c>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA38" s="5"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -3561,31 +3647,34 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
-    </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ38" s="5"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
         <v>990</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>45</v>
       </c>
-      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -3595,17 +3684,17 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X39" s="6">
+      <c r="W39" s="4"/>
+      <c r="X39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y39" s="6">
         <v>0</v>
       </c>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA39" s="5"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -3614,60 +3703,61 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-    </row>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ39" s="5"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="6"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J40" s="6"/>
-      <c r="K40" s="6">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>14</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>20</v>
-      </c>
-      <c r="M40" s="6">
-        <v>11</v>
       </c>
       <c r="N40" s="6">
         <v>11</v>
       </c>
-      <c r="O40" s="4"/>
+      <c r="O40" s="6">
+        <v>11</v>
+      </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="6">
+      <c r="R40" s="4"/>
+      <c r="S40" s="6">
         <v>21</v>
       </c>
-      <c r="S40" s="6">
+      <c r="T40" s="6">
         <v>10</v>
       </c>
-      <c r="T40" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U40" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="W40" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="5"/>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -3677,31 +3767,32 @@
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-    </row>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ40" s="5"/>
+    </row>
+    <row r="41" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>1347</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>64</v>
       </c>
-      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3710,25 +3801,25 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W41" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="X41" s="6">
+      <c r="V41" s="4"/>
+      <c r="W41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y41" s="6">
         <v>1</v>
       </c>
-      <c r="Y41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z41" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB41" s="5"/>
+      <c r="Z41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -3736,29 +3827,32 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-    </row>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="5"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>1345</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>45</v>
       </c>
-      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3768,17 +3862,17 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X42" s="9">
+      <c r="W42" s="4"/>
+      <c r="X42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y42" s="9">
         <v>0</v>
       </c>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA42" s="5"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
@@ -3787,29 +3881,32 @@
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-    </row>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ42" s="5"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
         <v>1379</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>45</v>
       </c>
-      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3819,17 +3916,17 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X43" s="9">
+      <c r="W43" s="4"/>
+      <c r="X43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y43" s="9">
         <v>0</v>
       </c>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA43" s="5"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -3838,29 +3935,32 @@
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-    </row>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>52</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>334</v>
       </c>
-      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -3870,20 +3970,20 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X44" s="9">
+      <c r="W44" s="4"/>
+      <c r="X44" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y44" s="9">
         <v>0</v>
       </c>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB44" s="5"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB44" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
@@ -3891,29 +3991,32 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-    </row>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ44" s="5"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
         <v>82</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>334</v>
       </c>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -3923,18 +4026,18 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X45" s="9">
+      <c r="W45" s="4"/>
+      <c r="X45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y45" s="9">
         <v>0</v>
       </c>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="5"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB45" s="11"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
@@ -3942,29 +4045,32 @@
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-    </row>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ45" s="5"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>107</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>334</v>
       </c>
-      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -3974,18 +4080,18 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X46" s="9">
+      <c r="W46" s="4"/>
+      <c r="X46" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y46" s="9">
         <v>0</v>
       </c>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="5"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB46" s="11"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
@@ -3993,29 +4099,32 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
-    </row>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ46" s="5"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>137</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>334</v>
       </c>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -4025,18 +4134,18 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X47" s="9">
+      <c r="W47" s="4"/>
+      <c r="X47" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y47" s="9">
         <v>0</v>
       </c>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="5"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB47" s="11"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
@@ -4044,29 +4153,32 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
-    </row>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ47" s="5"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
         <v>107</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>334</v>
       </c>
-      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4076,18 +4188,18 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X48" s="9">
+      <c r="W48" s="4"/>
+      <c r="X48" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y48" s="9">
         <v>0</v>
       </c>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="5"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB48" s="11"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
@@ -4095,29 +4207,32 @@
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
-    </row>
-    <row r="49" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
         <v>129</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>289</v>
       </c>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4127,20 +4242,20 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X49" s="9">
+      <c r="W49" s="4"/>
+      <c r="X49" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y49" s="9">
         <v>0</v>
       </c>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB49" s="5"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB49" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
@@ -4148,29 +4263,32 @@
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
-    </row>
-    <row r="50" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="5"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
         <v>161</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>274</v>
       </c>
-      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4180,18 +4298,18 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X50" s="9">
+      <c r="W50" s="4"/>
+      <c r="X50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y50" s="9">
         <v>0</v>
       </c>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="5"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB50" s="11"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
@@ -4199,29 +4317,32 @@
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
-    </row>
-    <row r="51" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ50" s="5"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4">
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
         <v>243</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>274</v>
       </c>
-      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4231,18 +4352,18 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X51" s="9">
+      <c r="W51" s="4"/>
+      <c r="X51" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y51" s="9">
         <v>0</v>
       </c>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="5"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB51" s="11"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
@@ -4250,29 +4371,32 @@
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
-    </row>
-    <row r="52" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ51" s="5"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
         <v>161</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M52" s="4">
         <v>334</v>
       </c>
-      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4282,18 +4406,18 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-      <c r="W52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X52" s="9">
+      <c r="W52" s="4"/>
+      <c r="X52" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y52" s="9">
         <v>0</v>
       </c>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="5"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB52" s="11"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
@@ -4301,29 +4425,32 @@
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
-    </row>
-    <row r="53" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ52" s="5"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
         <v>243</v>
       </c>
-      <c r="L53" s="4">
+      <c r="M53" s="4">
         <v>334</v>
       </c>
-      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -4333,18 +4460,18 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-      <c r="W53" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X53" s="9">
+      <c r="W53" s="4"/>
+      <c r="X53" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y53" s="9">
         <v>0</v>
       </c>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="5"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB53" s="11"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
@@ -4352,29 +4479,32 @@
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
-    </row>
-    <row r="54" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ53" s="5"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
         <v>267</v>
       </c>
-      <c r="L54" s="4">
+      <c r="M54" s="4">
         <v>334</v>
       </c>
-      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -4384,18 +4514,18 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X54" s="9">
+      <c r="W54" s="4"/>
+      <c r="X54" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y54" s="9">
         <v>0</v>
       </c>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="5"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB54" s="11"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
@@ -4403,29 +4533,32 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
-    </row>
-    <row r="55" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ54" s="5"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4">
         <v>325</v>
       </c>
-      <c r="L55" s="4">
+      <c r="M55" s="4">
         <v>334</v>
       </c>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4435,17 +4568,17 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X55" s="9">
+      <c r="W55" s="4"/>
+      <c r="X55" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y55" s="9">
         <v>0</v>
       </c>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA55" s="5"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -4454,29 +4587,32 @@
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
-    </row>
-    <row r="56" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ55" s="5"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4">
         <v>267</v>
       </c>
-      <c r="L56" s="4">
+      <c r="M56" s="4">
         <v>274</v>
       </c>
-      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -4486,17 +4622,17 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X56" s="9">
+      <c r="W56" s="4"/>
+      <c r="X56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y56" s="9">
         <v>0</v>
       </c>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA56" s="5"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -4505,29 +4641,32 @@
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
-    </row>
-    <row r="57" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ56" s="5"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4">
         <v>307</v>
       </c>
-      <c r="L57" s="4">
+      <c r="M57" s="4">
         <v>289</v>
       </c>
-      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -4537,20 +4676,20 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X57" s="9">
+      <c r="W57" s="4"/>
+      <c r="X57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y57" s="9">
         <v>0</v>
       </c>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA57" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB57" s="5"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB57" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -4558,29 +4697,32 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
-    </row>
-    <row r="58" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ57" s="5"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4">
         <v>325</v>
       </c>
-      <c r="L58" s="4">
+      <c r="M58" s="4">
         <v>334</v>
       </c>
-      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4590,17 +4732,17 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X58" s="9">
+      <c r="W58" s="4"/>
+      <c r="X58" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y58" s="9">
         <v>0</v>
       </c>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA58" s="5"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -4609,29 +4751,32 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
-    </row>
-    <row r="59" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ58" s="5"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4">
         <v>350</v>
       </c>
-      <c r="L59" s="4">
+      <c r="M59" s="4">
         <v>334</v>
       </c>
-      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4641,18 +4786,18 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X59" s="9">
+      <c r="W59" s="4"/>
+      <c r="X59" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y59" s="9">
         <v>0</v>
       </c>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="5"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB59" s="11"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -4660,29 +4805,32 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
-    </row>
-    <row r="60" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ59" s="5"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4">
         <v>380</v>
       </c>
-      <c r="L60" s="4">
+      <c r="M60" s="4">
         <v>334</v>
       </c>
-      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4692,18 +4840,18 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X60" s="9">
+      <c r="W60" s="4"/>
+      <c r="X60" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y60" s="9">
         <v>0</v>
       </c>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="5"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB60" s="11"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
@@ -4711,29 +4859,32 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
-    </row>
-    <row r="61" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ60" s="5"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4">
         <v>410</v>
       </c>
-      <c r="L61" s="4">
+      <c r="M61" s="4">
         <v>334</v>
       </c>
-      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4743,18 +4894,18 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X61" s="9">
+      <c r="W61" s="4"/>
+      <c r="X61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y61" s="9">
         <v>0</v>
       </c>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="5"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB61" s="11"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
@@ -4762,29 +4913,32 @@
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
-    </row>
-    <row r="62" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ61" s="5"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4">
+      <c r="K62" s="4"/>
+      <c r="L62" s="4">
         <v>413</v>
       </c>
-      <c r="L62" s="4">
+      <c r="M62" s="4">
         <v>394</v>
       </c>
-      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4794,18 +4948,18 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X62" s="9">
+      <c r="W62" s="4"/>
+      <c r="X62" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y62" s="9">
         <v>0</v>
       </c>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="5"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB62" s="11"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
@@ -4813,29 +4967,32 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
-    </row>
-    <row r="63" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ62" s="5"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4">
         <v>480</v>
       </c>
-      <c r="L63" s="4">
+      <c r="M63" s="4">
         <v>394</v>
       </c>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4845,18 +5002,18 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
-      <c r="W63" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X63" s="9">
+      <c r="W63" s="4"/>
+      <c r="X63" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y63" s="9">
         <v>0</v>
       </c>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="5"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB63" s="11"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
@@ -4864,29 +5021,32 @@
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
-    </row>
-    <row r="64" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ63" s="5"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4">
+      <c r="K64" s="4"/>
+      <c r="L64" s="4">
         <v>568</v>
       </c>
-      <c r="L64" s="4">
+      <c r="M64" s="4">
         <v>334</v>
       </c>
-      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4896,18 +5056,18 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X64" s="9">
+      <c r="W64" s="4"/>
+      <c r="X64" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y64" s="9">
         <v>0</v>
       </c>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="5"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB64" s="11"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
@@ -4915,29 +5075,32 @@
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
-    </row>
-    <row r="65" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ64" s="5"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4">
+      <c r="K65" s="4"/>
+      <c r="L65" s="4">
         <v>812</v>
       </c>
-      <c r="L65" s="4">
+      <c r="M65" s="4">
         <v>334</v>
       </c>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -4947,18 +5110,18 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X65" s="9">
+      <c r="W65" s="4"/>
+      <c r="X65" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y65" s="9">
         <v>0</v>
       </c>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="5"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB65" s="11"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
@@ -4966,29 +5129,32 @@
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
-    </row>
-    <row r="66" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ65" s="5"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4">
+      <c r="K66" s="4"/>
+      <c r="L66" s="4">
         <v>568</v>
       </c>
-      <c r="L66" s="4">
+      <c r="M66" s="4">
         <v>394</v>
       </c>
-      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -4998,18 +5164,18 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X66" s="9">
+      <c r="W66" s="4"/>
+      <c r="X66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y66" s="9">
         <v>0</v>
       </c>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="5"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB66" s="11"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
@@ -5017,29 +5183,32 @@
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
-    </row>
-    <row r="67" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ66" s="5"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
         <v>812</v>
       </c>
-      <c r="L67" s="4">
+      <c r="M67" s="4">
         <v>394</v>
       </c>
-      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -5049,18 +5218,18 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X67" s="9">
+      <c r="W67" s="4"/>
+      <c r="X67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y67" s="9">
         <v>0</v>
       </c>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="5"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB67" s="11"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -5068,29 +5237,32 @@
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
-    </row>
-    <row r="68" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ67" s="5"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4">
+      <c r="K68" s="4"/>
+      <c r="L68" s="4">
         <v>939</v>
       </c>
-      <c r="L68" s="4">
+      <c r="M68" s="4">
         <v>394</v>
       </c>
-      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -5100,18 +5272,18 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-      <c r="W68" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X68" s="9">
+      <c r="W68" s="4"/>
+      <c r="X68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y68" s="9">
         <v>0</v>
       </c>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA68" s="11"/>
-      <c r="AB68" s="5"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB68" s="11"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -5119,29 +5291,32 @@
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
-    </row>
-    <row r="69" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ68" s="5"/>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4">
+      <c r="K69" s="4"/>
+      <c r="L69" s="4">
         <v>1005</v>
       </c>
-      <c r="L69" s="4">
+      <c r="M69" s="4">
         <v>394</v>
       </c>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -5151,18 +5326,18 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
-      <c r="W69" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X69" s="9">
+      <c r="W69" s="4"/>
+      <c r="X69" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y69" s="9">
         <v>0</v>
       </c>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="5"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB69" s="11"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
@@ -5170,29 +5345,32 @@
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
-    </row>
-    <row r="70" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ69" s="5"/>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4">
         <v>939</v>
       </c>
-      <c r="L70" s="4">
+      <c r="M70" s="4">
         <v>394</v>
       </c>
-      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5202,18 +5380,18 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X70" s="9">
+      <c r="W70" s="4"/>
+      <c r="X70" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y70" s="9">
         <v>0</v>
       </c>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="5"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB70" s="11"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
@@ -5221,29 +5399,32 @@
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
-    </row>
-    <row r="71" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ70" s="5"/>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4">
+      <c r="K71" s="4"/>
+      <c r="L71" s="4">
         <v>963</v>
       </c>
-      <c r="L71" s="4">
+      <c r="M71" s="4">
         <v>372</v>
       </c>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5253,20 +5434,20 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-      <c r="W71" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X71" s="9">
+      <c r="W71" s="4"/>
+      <c r="X71" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y71" s="9">
         <v>0</v>
       </c>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA71" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB71" s="5"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB71" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
@@ -5274,29 +5455,32 @@
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
-    </row>
-    <row r="72" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ71" s="5"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4">
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
         <v>939</v>
       </c>
-      <c r="L72" s="4">
+      <c r="M72" s="4">
         <v>334</v>
       </c>
-      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -5306,18 +5490,18 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-      <c r="W72" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X72" s="9">
+      <c r="W72" s="4"/>
+      <c r="X72" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y72" s="9">
         <v>0</v>
       </c>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA72" s="11"/>
-      <c r="AB72" s="5"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB72" s="11"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
@@ -5325,29 +5509,32 @@
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
-    </row>
-    <row r="73" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ72" s="5"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4">
+      <c r="K73" s="4"/>
+      <c r="L73" s="4">
         <v>1005</v>
       </c>
-      <c r="L73" s="4">
+      <c r="M73" s="4">
         <v>334</v>
       </c>
-      <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -5357,18 +5544,18 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X73" s="9">
+      <c r="W73" s="4"/>
+      <c r="X73" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y73" s="9">
         <v>0</v>
       </c>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="5"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB73" s="11"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
@@ -5376,29 +5563,32 @@
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
-    </row>
-    <row r="74" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ73" s="5"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4">
+      <c r="K74" s="4"/>
+      <c r="L74" s="4">
         <v>983</v>
       </c>
-      <c r="L74" s="4">
+      <c r="M74" s="4">
         <v>352</v>
       </c>
-      <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5408,20 +5598,20 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X74" s="9">
+      <c r="W74" s="4"/>
+      <c r="X74" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y74" s="9">
         <v>0</v>
       </c>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA74" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB74" s="5"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB74" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
@@ -5429,29 +5619,32 @@
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
-    </row>
-    <row r="75" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ74" s="5"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4">
+      <c r="K75" s="4"/>
+      <c r="L75" s="4">
         <v>1005</v>
       </c>
-      <c r="L75" s="4">
+      <c r="M75" s="4">
         <v>334</v>
       </c>
-      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -5461,18 +5654,18 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
-      <c r="W75" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X75" s="9">
+      <c r="W75" s="4"/>
+      <c r="X75" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y75" s="9">
         <v>0</v>
       </c>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="5"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB75" s="11"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -5480,29 +5673,32 @@
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
-    </row>
-    <row r="76" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ75" s="5"/>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4">
+      <c r="K76" s="4"/>
+      <c r="L76" s="4">
         <v>1074</v>
       </c>
-      <c r="L76" s="4">
+      <c r="M76" s="4">
         <v>334</v>
       </c>
-      <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -5512,18 +5708,18 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-      <c r="W76" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X76" s="9">
+      <c r="W76" s="4"/>
+      <c r="X76" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y76" s="9">
         <v>0</v>
       </c>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="5"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB76" s="11"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -5531,29 +5727,32 @@
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
-    </row>
-    <row r="77" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ76" s="5"/>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4">
+      <c r="K77" s="4"/>
+      <c r="L77" s="4">
         <v>1232</v>
       </c>
-      <c r="L77" s="4">
+      <c r="M77" s="4">
         <v>334</v>
       </c>
-      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -5563,18 +5762,18 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
-      <c r="W77" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X77" s="9">
+      <c r="W77" s="4"/>
+      <c r="X77" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y77" s="9">
         <v>0</v>
       </c>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="5"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB77" s="11"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -5582,29 +5781,32 @@
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
-    </row>
-    <row r="78" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ77" s="5"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4">
+      <c r="K78" s="4"/>
+      <c r="L78" s="4">
         <v>1053</v>
       </c>
-      <c r="L78" s="4">
+      <c r="M78" s="4">
         <v>394</v>
       </c>
-      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -5614,18 +5816,18 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
-      <c r="W78" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X78" s="9">
+      <c r="W78" s="4"/>
+      <c r="X78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y78" s="9">
         <v>0</v>
       </c>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="5"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB78" s="11"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -5633,29 +5835,32 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
-    </row>
-    <row r="79" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ78" s="5"/>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4">
+      <c r="K79" s="4"/>
+      <c r="L79" s="4">
         <v>1119</v>
       </c>
-      <c r="L79" s="4">
+      <c r="M79" s="4">
         <v>394</v>
       </c>
-      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -5665,18 +5870,18 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
-      <c r="W79" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X79" s="9">
+      <c r="W79" s="4"/>
+      <c r="X79" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y79" s="9">
         <v>0</v>
       </c>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA79" s="11"/>
-      <c r="AB79" s="5"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB79" s="11"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
@@ -5684,29 +5889,32 @@
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
-    </row>
-    <row r="80" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ79" s="5"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4">
         <v>1217</v>
       </c>
-      <c r="L80" s="4">
+      <c r="M80" s="4">
         <v>394</v>
       </c>
-      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -5716,18 +5924,18 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-      <c r="W80" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X80" s="9">
+      <c r="W80" s="4"/>
+      <c r="X80" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y80" s="9">
         <v>0</v>
       </c>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA80" s="11"/>
-      <c r="AB80" s="5"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB80" s="11"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
@@ -5735,29 +5943,32 @@
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
-    </row>
-    <row r="81" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ80" s="5"/>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4">
+      <c r="K81" s="4"/>
+      <c r="L81" s="4">
         <v>1273</v>
       </c>
-      <c r="L81" s="4">
+      <c r="M81" s="4">
         <v>394</v>
       </c>
-      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -5767,18 +5978,18 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
-      <c r="W81" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X81" s="9">
+      <c r="W81" s="4"/>
+      <c r="X81" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y81" s="9">
         <v>0</v>
       </c>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA81" s="11"/>
-      <c r="AB81" s="5"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB81" s="11"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
@@ -5786,29 +5997,32 @@
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
       <c r="AI81" s="5"/>
-    </row>
-    <row r="82" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ81" s="5"/>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4">
         <v>1317</v>
       </c>
-      <c r="L82" s="4">
+      <c r="M82" s="4">
         <v>394</v>
       </c>
-      <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -5818,18 +6032,18 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X82" s="9">
+      <c r="W82" s="4"/>
+      <c r="X82" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y82" s="9">
         <v>0</v>
       </c>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA82" s="11"/>
-      <c r="AB82" s="5"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB82" s="11"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
@@ -5837,29 +6051,32 @@
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
-    </row>
-    <row r="83" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ82" s="5"/>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4">
+      <c r="K83" s="4"/>
+      <c r="L83" s="4">
         <v>1347</v>
       </c>
-      <c r="L83" s="4">
+      <c r="M83" s="4">
         <v>394</v>
       </c>
-      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -5869,18 +6086,18 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
-      <c r="W83" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X83" s="9">
+      <c r="W83" s="4"/>
+      <c r="X83" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y83" s="9">
         <v>0</v>
       </c>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="5"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB83" s="11"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
@@ -5888,29 +6105,32 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
       <c r="AI83" s="5"/>
-    </row>
-    <row r="84" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ83" s="5"/>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4">
+      <c r="K84" s="4"/>
+      <c r="L84" s="4">
         <v>1377</v>
       </c>
-      <c r="L84" s="4">
+      <c r="M84" s="4">
         <v>394</v>
       </c>
-      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -5920,18 +6140,18 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
-      <c r="W84" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X84" s="9">
+      <c r="W84" s="4"/>
+      <c r="X84" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y84" s="9">
         <v>0</v>
       </c>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="5"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB84" s="11"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
@@ -5939,29 +6159,32 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
-    </row>
-    <row r="85" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ84" s="5"/>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4">
+      <c r="K85" s="4"/>
+      <c r="L85" s="4">
         <v>54</v>
       </c>
-      <c r="L85" s="4">
+      <c r="M85" s="4">
         <v>45</v>
       </c>
-      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -5971,17 +6194,17 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
-      <c r="W85" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X85" s="9">
+      <c r="W85" s="4"/>
+      <c r="X85" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y85" s="9">
         <v>0</v>
       </c>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA85" s="5"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
@@ -5990,29 +6213,32 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
-    </row>
-    <row r="86" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ85" s="5"/>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4">
+      <c r="K86" s="4"/>
+      <c r="L86" s="4">
         <v>102</v>
       </c>
-      <c r="L86" s="4">
+      <c r="M86" s="4">
         <v>45</v>
       </c>
-      <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6022,17 +6248,17 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
-      <c r="W86" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X86" s="9">
+      <c r="W86" s="4"/>
+      <c r="X86" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y86" s="9">
         <v>0</v>
       </c>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA86" s="5"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
@@ -6041,29 +6267,32 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
       <c r="AI86" s="5"/>
-    </row>
-    <row r="87" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ86" s="5"/>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4">
+      <c r="K87" s="4"/>
+      <c r="L87" s="4">
         <v>734</v>
       </c>
-      <c r="L87" s="4">
+      <c r="M87" s="4">
         <v>567</v>
       </c>
-      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6073,17 +6302,17 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
-      <c r="W87" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X87" s="9">
+      <c r="W87" s="4"/>
+      <c r="X87" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y87" s="9">
         <v>0</v>
       </c>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA87" s="5"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
@@ -6092,29 +6321,32 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
-    </row>
-    <row r="88" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ87" s="5"/>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4">
+      <c r="K88" s="4"/>
+      <c r="L88" s="4">
         <v>696</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>567</v>
       </c>
-      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -6124,17 +6356,17 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
-      <c r="W88" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X88" s="9">
+      <c r="W88" s="4"/>
+      <c r="X88" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y88" s="9">
         <v>0</v>
       </c>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA88" s="5"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
@@ -6143,13 +6375,14 @@
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
-    </row>
-    <row r="89" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ88" s="5"/>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6159,13 +6392,13 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4">
+      <c r="K89" s="4"/>
+      <c r="L89" s="4">
         <v>24</v>
       </c>
-      <c r="L89" s="4">
+      <c r="M89" s="4">
         <v>196</v>
       </c>
-      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -6174,16 +6407,16 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="W89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
-      <c r="Z89" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA89" s="5"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -6192,13 +6425,14 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
-    </row>
-    <row r="90" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ89" s="5"/>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6208,13 +6442,13 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4">
+      <c r="K90" s="4"/>
+      <c r="L90" s="4">
         <v>174</v>
       </c>
-      <c r="L90" s="4">
+      <c r="M90" s="4">
         <v>150</v>
       </c>
-      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6223,16 +6457,16 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="W90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
-      <c r="Z90" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA90" s="5"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -6241,13 +6475,14 @@
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
-    </row>
-    <row r="91" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ90" s="5"/>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6257,13 +6492,13 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4">
+      <c r="K91" s="4"/>
+      <c r="L91" s="4">
         <v>174</v>
       </c>
-      <c r="L91" s="4">
+      <c r="M91" s="4">
         <v>196</v>
       </c>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6272,16 +6507,16 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="W91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
-      <c r="Z91" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA91" s="5"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
@@ -6290,13 +6525,14 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
-    </row>
-    <row r="92" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ91" s="5"/>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6306,13 +6542,13 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4">
+      <c r="K92" s="4"/>
+      <c r="L92" s="4">
         <v>324</v>
       </c>
-      <c r="L92" s="4">
+      <c r="M92" s="4">
         <v>196</v>
       </c>
-      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -6321,16 +6557,16 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="W92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
-      <c r="Z92" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA92" s="5"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
@@ -6339,13 +6575,14 @@
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
-    </row>
-    <row r="93" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ92" s="5"/>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6355,13 +6592,13 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4">
+      <c r="K93" s="4"/>
+      <c r="L93" s="4">
         <v>474</v>
       </c>
-      <c r="L93" s="4">
+      <c r="M93" s="4">
         <v>196</v>
       </c>
-      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -6370,16 +6607,16 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="W93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
-      <c r="Z93" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA93" s="5"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
@@ -6388,13 +6625,14 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
-    </row>
-    <row r="94" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ93" s="5"/>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6404,13 +6642,13 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4">
+      <c r="K94" s="4"/>
+      <c r="L94" s="4">
         <v>630</v>
       </c>
-      <c r="L94" s="4">
+      <c r="M94" s="4">
         <v>323</v>
       </c>
-      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -6419,16 +6657,16 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="W94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
-      <c r="Z94" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA94" s="5"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
@@ -6437,13 +6675,14 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
-    </row>
-    <row r="95" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ94" s="5"/>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6453,13 +6692,13 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4">
+      <c r="K95" s="4"/>
+      <c r="L95" s="4">
         <v>630</v>
       </c>
-      <c r="L95" s="4">
+      <c r="M95" s="4">
         <v>383</v>
       </c>
-      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
@@ -6468,16 +6707,16 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="W95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
-      <c r="Z95" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA95" s="5"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
@@ -6486,13 +6725,14 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
-    </row>
-    <row r="96" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ95" s="5"/>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6502,13 +6742,13 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4">
+      <c r="K96" s="4"/>
+      <c r="L96" s="4">
         <v>1093</v>
       </c>
-      <c r="L96" s="4">
+      <c r="M96" s="4">
         <v>323</v>
       </c>
-      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -6517,16 +6757,16 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="W96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
-      <c r="Z96" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA96" s="5"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
@@ -6535,13 +6775,14 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
-    </row>
-    <row r="97" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ96" s="5"/>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6551,13 +6792,13 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4">
+      <c r="K97" s="4"/>
+      <c r="L97" s="4">
         <v>1135</v>
       </c>
-      <c r="L97" s="4">
+      <c r="M97" s="4">
         <v>450</v>
       </c>
-      <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -6566,16 +6807,16 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="W97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
-      <c r="Z97" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA97" s="5"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -6584,13 +6825,14 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
-    </row>
-    <row r="98" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ97" s="5"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6600,13 +6842,13 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4">
+      <c r="K98" s="4"/>
+      <c r="L98" s="4">
         <v>1285</v>
       </c>
-      <c r="L98" s="4">
+      <c r="M98" s="4">
         <v>450</v>
       </c>
-      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -6615,16 +6857,16 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="W98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
-      <c r="Z98" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA98" s="5"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -6633,8 +6875,9 @@
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
       <c r="AI98" s="5"/>
-    </row>
-    <row r="99" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ98" s="5"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6660,7 +6903,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
-      <c r="Z99" s="5"/>
+      <c r="Z99" s="4"/>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
@@ -6670,8 +6913,9 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
-    </row>
-    <row r="100" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ99" s="5"/>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6697,7 +6941,7 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
-      <c r="Z100" s="5"/>
+      <c r="Z100" s="4"/>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
@@ -6707,8 +6951,9 @@
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
-    </row>
-    <row r="101" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ100" s="5"/>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6734,7 +6979,7 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
-      <c r="Z101" s="5"/>
+      <c r="Z101" s="4"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
@@ -6744,8 +6989,9 @@
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
       <c r="AI101" s="5"/>
-    </row>
-    <row r="102" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ101" s="5"/>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6771,7 +7017,7 @@
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
-      <c r="Z102" s="5"/>
+      <c r="Z102" s="4"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
@@ -6781,8 +7027,9 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
-    </row>
-    <row r="103" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ102" s="5"/>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6808,7 +7055,7 @@
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
-      <c r="Z103" s="5"/>
+      <c r="Z103" s="4"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
@@ -6818,8 +7065,9 @@
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
       <c r="AI103" s="5"/>
-    </row>
-    <row r="104" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ103" s="5"/>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6845,7 +7093,7 @@
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
-      <c r="Z104" s="5"/>
+      <c r="Z104" s="4"/>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
@@ -6855,6 +7103,7 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
       <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6888,7 +7137,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -6918,7 +7167,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6948,7 +7197,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -6978,7 +7227,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7008,7 +7257,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7038,7 +7287,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7068,7 +7317,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7098,7 +7347,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7128,7 +7377,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7158,7 +7407,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC9A29-3BDB-4D59-B6CE-AE4EDBADF6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFBAFBA-2685-4066-B9BB-C427E150E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4590" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4455" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側名称</t>
+          <t>サーバー側分類</t>
         </r>
       </text>
     </comment>
@@ -89,7 +89,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側分類</t>
+          <t>サーバー側名称</t>
         </r>
       </text>
     </comment>
@@ -116,8 +116,8 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>制御条件に含む転てつ器の定位・反位（省略可）
-定位=True, 反位=False</t>
+          <t>制御条件に含む転てつ器状態
+（定位=N, 反位=R）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -130,7 +130,8 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>てこの種類</t>
+          <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
+</t>
         </r>
       </text>
     </comment>
@@ -143,7 +144,8 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>操作可能判定に用いる鍵名称</t>
+          <t>制御条件に含む転てつ器状態
+（定位=N, 反位=R）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -156,7 +158,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>この盤以外で連動する場合に指定する駅名</t>
+          <t>てこの種類</t>
         </r>
       </text>
     </comment>
@@ -169,7 +171,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>この盤以外で連動する場合に指定するユニーク名</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -182,7 +184,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>この盤以外で連動する場合に指定する駅名</t>
         </r>
       </text>
     </comment>
@@ -195,11 +197,37 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>この盤以外で連動する場合に指定するユニーク名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -350,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="190">
   <si>
     <t>Type</t>
   </si>
@@ -486,16 +514,22 @@
     <t>ParentName</t>
   </si>
   <si>
+    <t>ServerType</t>
+  </si>
+  <si>
     <t>ServerName</t>
   </si>
   <si>
-    <t>ServerType</t>
+    <t>PointNameA</t>
   </si>
   <si>
-    <t>PointName</t>
+    <t>PointValueA</t>
   </si>
   <si>
-    <t>PointValue</t>
+    <t>PointNameB</t>
+  </si>
+  <si>
+    <t>PointValueB</t>
   </si>
   <si>
     <t>LeverType</t>
@@ -780,7 +814,7 @@
     <t>P21_PG</t>
   </si>
   <si>
-    <t>分岐器</t>
+    <t>転てつ器</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -996,6 +1030,9 @@
     <t>列番津崎上り第1接近</t>
   </si>
   <si>
+    <t>列車番号</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
@@ -1029,7 +1066,13 @@
     <t>Button</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1394,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ104"/>
+  <dimension ref="A1:AL100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1364,14 +1407,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
-    <col min="26" max="26" width="37.5703125" customWidth="1"/>
-    <col min="27" max="27" width="100.140625" customWidth="1"/>
-    <col min="28" max="28" width="62.5703125" customWidth="1"/>
-    <col min="29" max="36" width="14.5703125" customWidth="1"/>
+    <col min="3" max="27" width="15.140625" customWidth="1"/>
+    <col min="28" max="28" width="37.5703125" customWidth="1"/>
+    <col min="29" max="29" width="100.140625" customWidth="1"/>
+    <col min="30" max="30" width="62.5703125" customWidth="1"/>
+    <col min="31" max="38" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,27 +1493,33 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1478,19 +1527,19 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1502,11 +1551,11 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -1514,39 +1563,41 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6">
         <v>850</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>78</v>
       </c>
-      <c r="N3" s="6">
+      <c r="P3" s="6">
         <v>79</v>
       </c>
-      <c r="O3" s="6">
+      <c r="Q3" s="6">
         <v>110</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1556,11 +1607,11 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-      <c r="AA3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
@@ -1568,41 +1619,43 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
-    </row>
-    <row r="4" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6">
         <v>6</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>37</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="6">
         <v>63</v>
       </c>
-      <c r="O4" s="6">
+      <c r="Q4" s="6">
         <v>63</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1611,14 +1664,14 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
@@ -1626,13 +1679,15 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1640,21 +1695,21 @@
       <c r="F5" s="7"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6">
-        <f>L3+11</f>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6">
+        <f>N3+11</f>
         <v>861</v>
       </c>
-      <c r="M5" s="6">
-        <f>M3-68</f>
+      <c r="O5" s="6">
+        <f>O3-68</f>
         <v>10</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1666,25 +1721,27 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
+      <c r="AC5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="7"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1692,19 +1749,19 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>431</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>311</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1712,61 +1769,65 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="6" t="s">
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Z6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="6">
         <v>0</v>
       </c>
-      <c r="Z6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
+      <c r="AC6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>49</v>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
         <v>497</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>317</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1775,83 +1836,85 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" s="6">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="6">
         <v>0</v>
       </c>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
         <v>14</v>
       </c>
-      <c r="M8" s="6">
+      <c r="O8" s="6">
         <v>20</v>
       </c>
-      <c r="N8" s="6">
+      <c r="P8" s="6">
         <v>11</v>
       </c>
-      <c r="O8" s="6">
+      <c r="Q8" s="6">
         <v>11</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="6">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="6">
         <v>1</v>
       </c>
-      <c r="T8" s="6">
+      <c r="V8" s="6">
         <v>10</v>
       </c>
-      <c r="U8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -1860,13 +1923,15 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1874,19 +1939,19 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="K9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>528</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>371</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1894,23 +1959,23 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y9" s="6">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA9" s="6">
         <v>0</v>
       </c>
-      <c r="Z9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AB9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -1918,35 +1983,39 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
+      <c r="K10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>492</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>427</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1955,18 +2024,18 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" s="6">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="6">
         <v>0</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
@@ -1974,62 +2043,64 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
         <v>14</v>
       </c>
-      <c r="M11" s="6">
+      <c r="O11" s="6">
         <v>20</v>
       </c>
-      <c r="N11" s="6">
+      <c r="P11" s="6">
         <v>11</v>
       </c>
-      <c r="O11" s="6">
+      <c r="Q11" s="6">
         <v>11</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="6">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="6">
         <v>2</v>
       </c>
-      <c r="T11" s="6">
+      <c r="V11" s="6">
         <v>10</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
+      <c r="X11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -2038,13 +2109,15 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2052,19 +2125,19 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
+      <c r="K12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>882</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>311</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2072,23 +2145,23 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y12" s="6">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" s="6">
         <v>0</v>
       </c>
-      <c r="Z12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AB12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -2096,35 +2169,39 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
+      <c r="K13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>959</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>309</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2133,18 +2210,18 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" s="6">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="6">
         <v>0</v>
       </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -2152,62 +2229,64 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
         <v>14</v>
       </c>
-      <c r="M14" s="6">
+      <c r="O14" s="6">
         <v>20</v>
       </c>
-      <c r="N14" s="6">
+      <c r="P14" s="6">
         <v>11</v>
       </c>
-      <c r="O14" s="6">
+      <c r="Q14" s="6">
         <v>11</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="6">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="6">
         <v>3</v>
       </c>
-      <c r="T14" s="6">
+      <c r="V14" s="6">
         <v>10</v>
       </c>
-      <c r="U14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
@@ -2216,13 +2295,15 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2230,19 +2311,19 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
+      <c r="K15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>882</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>371</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2250,23 +2331,23 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y15" s="6">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" s="6">
         <v>0</v>
       </c>
-      <c r="Z15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+      <c r="AB15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -2274,35 +2355,39 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
+      <c r="K16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>948</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>407</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2311,18 +2396,18 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y16" s="6">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA16" s="6">
         <v>0</v>
       </c>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -2330,62 +2415,64 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6">
         <v>14</v>
       </c>
-      <c r="M17" s="6">
+      <c r="O17" s="6">
         <v>20</v>
       </c>
-      <c r="N17" s="6">
+      <c r="P17" s="6">
         <v>11</v>
       </c>
-      <c r="O17" s="6">
+      <c r="Q17" s="6">
         <v>11</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="6">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="6">
         <v>4</v>
       </c>
-      <c r="T17" s="6">
+      <c r="V17" s="6">
         <v>10</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
@@ -2394,13 +2481,15 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2408,19 +2497,19 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="K18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>1168</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>371</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2428,23 +2517,23 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y18" s="6">
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA18" s="6">
         <v>0</v>
       </c>
-      <c r="Z18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+      <c r="AB18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
@@ -2452,35 +2541,39 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
+      <c r="K19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
         <v>1132</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>407</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2489,18 +2582,18 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19" s="6">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA19" s="6">
         <v>0</v>
       </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -2508,62 +2601,64 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
         <v>14</v>
       </c>
-      <c r="M20" s="6">
+      <c r="O20" s="6">
         <v>20</v>
       </c>
-      <c r="N20" s="6">
+      <c r="P20" s="6">
         <v>11</v>
       </c>
-      <c r="O20" s="6">
+      <c r="Q20" s="6">
         <v>11</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="6">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="6">
         <v>5</v>
       </c>
-      <c r="T20" s="6">
+      <c r="V20" s="6">
         <v>10</v>
       </c>
-      <c r="U20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="Z20" s="4"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
@@ -2572,13 +2667,15 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2586,19 +2683,19 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4">
+      <c r="K21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
         <v>824</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>311</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2606,23 +2703,23 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" s="9">
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA21" s="9">
         <v>0</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+      <c r="AB21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
@@ -2630,35 +2727,39 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
+      <c r="K22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
         <v>941</v>
       </c>
-      <c r="M22" s="4">
+      <c r="O22" s="4">
         <v>308</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2667,18 +2768,18 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y22" s="9">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA22" s="9">
         <v>0</v>
       </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
@@ -2686,62 +2787,64 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
         <v>14</v>
       </c>
-      <c r="M23" s="6">
+      <c r="O23" s="6">
         <v>20</v>
       </c>
-      <c r="N23" s="6">
+      <c r="P23" s="6">
         <v>11</v>
       </c>
-      <c r="O23" s="6">
+      <c r="Q23" s="6">
         <v>11</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="6">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="6">
         <v>11</v>
       </c>
-      <c r="T23" s="6">
+      <c r="V23" s="6">
         <v>10</v>
       </c>
-      <c r="U23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="Z23" s="4"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
@@ -2750,13 +2853,15 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2764,19 +2869,19 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4">
+      <c r="K24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
         <v>1034</v>
       </c>
-      <c r="M24" s="4">
+      <c r="O24" s="4">
         <v>311</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2784,23 +2889,23 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y24" s="9">
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA24" s="9">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
+      <c r="AB24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
@@ -2808,35 +2913,39 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4">
+      <c r="K25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
         <v>1005</v>
       </c>
-      <c r="M25" s="4">
+      <c r="O25" s="4">
         <v>318</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2845,18 +2954,18 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y25" s="9">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA25" s="9">
         <v>0</v>
       </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
@@ -2864,62 +2973,64 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6">
         <v>14</v>
       </c>
-      <c r="M26" s="6">
+      <c r="O26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="6">
+      <c r="P26" s="6">
         <v>11</v>
       </c>
-      <c r="O26" s="6">
+      <c r="Q26" s="6">
         <v>11</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="6">
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="6">
         <v>12</v>
       </c>
-      <c r="T26" s="6">
+      <c r="V26" s="6">
         <v>10</v>
       </c>
-      <c r="U26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
@@ -2928,13 +3039,15 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2942,19 +3055,19 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4">
+      <c r="K27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
         <v>439</v>
       </c>
-      <c r="M27" s="4">
+      <c r="O27" s="4">
         <v>384</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -2962,23 +3075,23 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y27" s="6">
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA27" s="6">
         <v>0</v>
       </c>
-      <c r="Z27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
+      <c r="AB27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC27" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
@@ -2986,63 +3099,65 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="6">
+      <c r="O28" s="6">
         <v>23</v>
       </c>
-      <c r="N28" s="6">
+      <c r="P28" s="6">
         <v>15</v>
       </c>
-      <c r="O28" s="6">
+      <c r="Q28" s="6">
         <v>12</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="T28" s="6">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V28" s="6">
         <v>10</v>
       </c>
-      <c r="U28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
@@ -3050,13 +3165,15 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3064,19 +3181,19 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4">
+      <c r="K29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
         <v>780</v>
       </c>
-      <c r="M29" s="4">
+      <c r="O29" s="4">
         <v>324</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -3084,23 +3201,23 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="4" t="s">
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="X29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
@@ -3108,63 +3225,65 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6">
         <v>5</v>
       </c>
-      <c r="M30" s="6">
+      <c r="O30" s="6">
         <v>23</v>
       </c>
-      <c r="N30" s="6">
+      <c r="P30" s="6">
         <v>15</v>
       </c>
-      <c r="O30" s="6">
+      <c r="Q30" s="6">
         <v>12</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T30" s="6">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="V30" s="6">
         <v>10</v>
       </c>
-      <c r="U30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -3172,13 +3291,15 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3186,19 +3307,19 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4">
+      <c r="K31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
         <v>780</v>
       </c>
-      <c r="M31" s="4">
+      <c r="O31" s="4">
         <v>384</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -3206,23 +3327,23 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y31" s="6">
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA31" s="6">
         <v>0</v>
       </c>
-      <c r="Z31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
+      <c r="AB31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC31" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
@@ -3230,63 +3351,65 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6">
         <v>5</v>
       </c>
-      <c r="M32" s="6">
+      <c r="O32" s="6">
         <v>23</v>
       </c>
-      <c r="N32" s="6">
+      <c r="P32" s="6">
         <v>15</v>
       </c>
-      <c r="O32" s="6">
+      <c r="Q32" s="6">
         <v>12</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T32" s="6">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V32" s="6">
         <v>10</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -3294,13 +3417,15 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3308,19 +3433,19 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4">
+      <c r="K33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
         <v>1251</v>
       </c>
-      <c r="M33" s="4">
+      <c r="O33" s="4">
         <v>324</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -3328,23 +3453,23 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y33" s="6">
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA33" s="6">
         <v>0</v>
       </c>
-      <c r="Z33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
+      <c r="AB33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -3352,63 +3477,65 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6">
         <v>5</v>
       </c>
-      <c r="M34" s="6">
+      <c r="O34" s="6">
         <v>23</v>
       </c>
-      <c r="N34" s="6">
+      <c r="P34" s="6">
         <v>15</v>
       </c>
-      <c r="O34" s="6">
+      <c r="Q34" s="6">
         <v>12</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T34" s="6">
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V34" s="6">
         <v>10</v>
       </c>
-      <c r="U34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
@@ -3416,13 +3543,15 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3430,19 +3559,19 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4">
+      <c r="K35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
         <v>304</v>
       </c>
-      <c r="M35" s="4">
+      <c r="O35" s="4">
         <v>551</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -3450,23 +3579,23 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="X35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y35" s="6">
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA35" s="6">
         <v>0</v>
       </c>
-      <c r="Z35" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
+      <c r="AB35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC35" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
@@ -3474,13 +3603,15 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3488,19 +3619,19 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4">
+      <c r="K36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4">
         <v>1111</v>
       </c>
-      <c r="M36" s="4">
+      <c r="O36" s="4">
         <v>551</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -3508,23 +3639,23 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="4" t="s">
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="X36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
+      <c r="AC36" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
@@ -3532,13 +3663,15 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3546,19 +3679,19 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4">
+      <c r="K37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
         <v>958</v>
       </c>
-      <c r="M37" s="4">
+      <c r="O37" s="4">
         <v>64</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -3566,61 +3699,63 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="X37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y37" s="6">
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA37" s="6">
         <v>0</v>
       </c>
-      <c r="Z37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB37" s="5" t="s">
+      <c r="AB37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
+      <c r="AC37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD37" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="D38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4">
+      <c r="K38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
         <v>956</v>
       </c>
-      <c r="M38" s="4">
+      <c r="O38" s="4">
         <v>45</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -3629,18 +3764,18 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y38" s="6">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA38" s="6">
         <v>0</v>
       </c>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
@@ -3648,35 +3783,37 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4">
+      <c r="K39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <v>990</v>
       </c>
-      <c r="M39" s="4">
+      <c r="O39" s="4">
         <v>45</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -3685,18 +3822,18 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y39" s="6">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA39" s="6">
         <v>0</v>
       </c>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
@@ -3704,62 +3841,64 @@
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6">
         <v>14</v>
       </c>
-      <c r="M40" s="6">
+      <c r="O40" s="6">
         <v>20</v>
       </c>
-      <c r="N40" s="6">
+      <c r="P40" s="6">
         <v>11</v>
       </c>
-      <c r="O40" s="6">
+      <c r="Q40" s="6">
         <v>11</v>
       </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="6">
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="6">
         <v>21</v>
       </c>
-      <c r="T40" s="6">
+      <c r="V40" s="6">
         <v>10</v>
       </c>
-      <c r="U40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V40" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="Z40" s="4"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
@@ -3768,33 +3907,35 @@
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
-    </row>
-    <row r="41" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+    </row>
+    <row r="41" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K41" s="4"/>
-      <c r="L41" s="4">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
         <v>1347</v>
       </c>
-      <c r="M41" s="4">
+      <c r="O41" s="4">
         <v>64</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -3802,59 +3943,61 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y41" s="6">
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA41" s="6">
         <v>1</v>
       </c>
-      <c r="Z41" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA41" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB41" s="5" t="s">
+      <c r="AB41" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
+      <c r="AC41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="D42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4">
         <v>1345</v>
       </c>
-      <c r="M42" s="4">
+      <c r="O42" s="4">
         <v>45</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -3863,18 +4006,18 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y42" s="9">
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA42" s="9">
         <v>0</v>
       </c>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -3882,33 +4025,35 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="D43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
         <v>1379</v>
       </c>
-      <c r="M43" s="4">
+      <c r="O43" s="4">
         <v>45</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -3917,18 +4062,18 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y43" s="9">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA43" s="9">
         <v>0</v>
       </c>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
@@ -3936,33 +4081,35 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
         <v>52</v>
       </c>
-      <c r="M44" s="4">
+      <c r="O44" s="4">
         <v>334</v>
       </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -3971,54 +4118,56 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y44" s="9">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA44" s="9">
         <v>0</v>
       </c>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB44" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD44" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4">
         <v>82</v>
       </c>
-      <c r="M45" s="4">
+      <c r="O45" s="4">
         <v>334</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -4027,52 +4176,54 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y45" s="9">
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA45" s="9">
         <v>0</v>
       </c>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD45" s="11"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4">
         <v>107</v>
       </c>
-      <c r="M46" s="4">
+      <c r="O46" s="4">
         <v>334</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -4081,52 +4232,54 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-      <c r="X46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y46" s="9">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA46" s="9">
         <v>0</v>
       </c>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD46" s="11"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4">
         <v>137</v>
       </c>
-      <c r="M47" s="4">
+      <c r="O47" s="4">
         <v>334</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
@@ -4135,52 +4288,54 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y47" s="9">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA47" s="9">
         <v>0</v>
       </c>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD47" s="11"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
         <v>107</v>
       </c>
-      <c r="M48" s="4">
+      <c r="O48" s="4">
         <v>334</v>
       </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -4189,52 +4344,54 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y48" s="9">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA48" s="9">
         <v>0</v>
       </c>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD48" s="11"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
         <v>129</v>
       </c>
-      <c r="M49" s="4">
+      <c r="O49" s="4">
         <v>289</v>
       </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -4243,54 +4400,56 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
-      <c r="X49" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y49" s="9">
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA49" s="9">
         <v>0</v>
       </c>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB49" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD49" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="4">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4">
         <v>161</v>
       </c>
-      <c r="M50" s="4">
+      <c r="O50" s="4">
         <v>274</v>
       </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -4299,52 +4458,54 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-      <c r="X50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y50" s="9">
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA50" s="9">
         <v>0</v>
       </c>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD50" s="11"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="4">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4">
         <v>243</v>
       </c>
-      <c r="M51" s="4">
+      <c r="O51" s="4">
         <v>274</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
@@ -4353,52 +4514,54 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
-      <c r="X51" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y51" s="9">
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA51" s="9">
         <v>0</v>
       </c>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD51" s="11"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4">
         <v>161</v>
       </c>
-      <c r="M52" s="4">
+      <c r="O52" s="4">
         <v>334</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -4407,52 +4570,54 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y52" s="9">
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA52" s="9">
         <v>0</v>
       </c>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD52" s="11"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4">
         <v>243</v>
       </c>
-      <c r="M53" s="4">
+      <c r="O53" s="4">
         <v>334</v>
       </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -4461,52 +4626,54 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
-      <c r="X53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y53" s="9">
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA53" s="9">
         <v>0</v>
       </c>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD53" s="11"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="4">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
         <v>267</v>
       </c>
-      <c r="M54" s="4">
+      <c r="O54" s="4">
         <v>334</v>
       </c>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -4515,52 +4682,54 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y54" s="9">
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA54" s="9">
         <v>0</v>
       </c>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD54" s="11"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4">
         <v>325</v>
       </c>
-      <c r="M55" s="4">
+      <c r="O55" s="4">
         <v>334</v>
       </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -4569,18 +4738,18 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
-      <c r="X55" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y55" s="9">
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA55" s="9">
         <v>0</v>
       </c>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
@@ -4588,33 +4757,35 @@
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="4">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4">
         <v>267</v>
       </c>
-      <c r="M56" s="4">
+      <c r="O56" s="4">
         <v>274</v>
       </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -4623,18 +4794,18 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y56" s="9">
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA56" s="9">
         <v>0</v>
       </c>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
@@ -4642,33 +4813,35 @@
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="4">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4">
         <v>307</v>
       </c>
-      <c r="M57" s="4">
+      <c r="O57" s="4">
         <v>289</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
@@ -4677,54 +4850,56 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y57" s="9">
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA57" s="9">
         <v>0</v>
       </c>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB57" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD57" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="4">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4">
         <v>325</v>
       </c>
-      <c r="M58" s="4">
+      <c r="O58" s="4">
         <v>334</v>
       </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -4733,18 +4908,18 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
-      <c r="X58" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y58" s="9">
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA58" s="9">
         <v>0</v>
       </c>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
@@ -4752,33 +4927,35 @@
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="4">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4">
         <v>350</v>
       </c>
-      <c r="M59" s="4">
+      <c r="O59" s="4">
         <v>334</v>
       </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -4787,52 +4964,54 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
-      <c r="X59" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y59" s="9">
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA59" s="9">
         <v>0</v>
       </c>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD59" s="11"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="4">
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4">
         <v>380</v>
       </c>
-      <c r="M60" s="4">
+      <c r="O60" s="4">
         <v>334</v>
       </c>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -4841,52 +5020,54 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
-      <c r="X60" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y60" s="9">
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA60" s="9">
         <v>0</v>
       </c>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD60" s="11"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
       <c r="AJ60" s="5"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="4">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4">
         <v>410</v>
       </c>
-      <c r="M61" s="4">
+      <c r="O61" s="4">
         <v>334</v>
       </c>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
@@ -4895,52 +5076,54 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
-      <c r="X61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y61" s="9">
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA61" s="9">
         <v>0</v>
       </c>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD61" s="11"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
       <c r="AJ61" s="5"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="4">
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
         <v>413</v>
       </c>
-      <c r="M62" s="4">
+      <c r="O62" s="4">
         <v>394</v>
       </c>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -4949,52 +5132,54 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
-      <c r="X62" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y62" s="9">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA62" s="9">
         <v>0</v>
       </c>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD62" s="11"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="4">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4">
         <v>480</v>
       </c>
-      <c r="M63" s="4">
+      <c r="O63" s="4">
         <v>394</v>
       </c>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
@@ -5003,52 +5188,54 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y63" s="9">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA63" s="9">
         <v>0</v>
       </c>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD63" s="11"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
       <c r="AJ63" s="5"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="4">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4">
         <v>568</v>
       </c>
-      <c r="M64" s="4">
+      <c r="O64" s="4">
         <v>334</v>
       </c>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
@@ -5057,52 +5244,54 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
-      <c r="X64" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y64" s="9">
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA64" s="9">
         <v>0</v>
       </c>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD64" s="11"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="4">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
         <v>812</v>
       </c>
-      <c r="M65" s="4">
+      <c r="O65" s="4">
         <v>334</v>
       </c>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -5111,52 +5300,54 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y65" s="9">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA65" s="9">
         <v>0</v>
       </c>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD65" s="11"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D66" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="4">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
         <v>568</v>
       </c>
-      <c r="M66" s="4">
+      <c r="O66" s="4">
         <v>394</v>
       </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -5165,52 +5356,54 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y66" s="9">
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA66" s="9">
         <v>0</v>
       </c>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD66" s="11"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="4">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
         <v>812</v>
       </c>
-      <c r="M67" s="4">
+      <c r="O67" s="4">
         <v>394</v>
       </c>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -5219,52 +5412,54 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
-      <c r="X67" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y67" s="9">
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA67" s="9">
         <v>0</v>
       </c>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD67" s="11"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="4">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
         <v>939</v>
       </c>
-      <c r="M68" s="4">
+      <c r="O68" s="4">
         <v>394</v>
       </c>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -5273,52 +5468,54 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-      <c r="X68" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y68" s="9">
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA68" s="9">
         <v>0</v>
       </c>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB68" s="11"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD68" s="11"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>1005</v>
       </c>
-      <c r="M69" s="4">
+      <c r="O69" s="4">
         <v>394</v>
       </c>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -5327,52 +5524,54 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y69" s="9">
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA69" s="9">
         <v>0</v>
       </c>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD69" s="11"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="4">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4">
         <v>939</v>
       </c>
-      <c r="M70" s="4">
+      <c r="O70" s="4">
         <v>394</v>
       </c>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -5381,52 +5580,54 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="X70" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y70" s="9">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA70" s="9">
         <v>0</v>
       </c>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD70" s="11"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="4">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
         <v>963</v>
       </c>
-      <c r="M71" s="4">
+      <c r="O71" s="4">
         <v>372</v>
       </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
@@ -5435,54 +5636,56 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-      <c r="X71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y71" s="9">
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA71" s="9">
         <v>0</v>
       </c>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB71" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD71" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5"/>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="4">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
         <v>939</v>
       </c>
-      <c r="M72" s="4">
+      <c r="O72" s="4">
         <v>334</v>
       </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
@@ -5491,52 +5694,54 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y72" s="9">
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA72" s="9">
         <v>0</v>
       </c>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD72" s="11"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="4">
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4">
         <v>1005</v>
       </c>
-      <c r="M73" s="4">
+      <c r="O73" s="4">
         <v>334</v>
       </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
@@ -5545,52 +5750,54 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
-      <c r="X73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y73" s="9">
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA73" s="9">
         <v>0</v>
       </c>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD73" s="11"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="4">
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4">
         <v>983</v>
       </c>
-      <c r="M74" s="4">
+      <c r="O74" s="4">
         <v>352</v>
       </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
@@ -5599,54 +5806,56 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
-      <c r="X74" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y74" s="9">
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA74" s="9">
         <v>0</v>
       </c>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB74" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD74" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D75" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="4">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4">
         <v>1005</v>
       </c>
-      <c r="M75" s="4">
+      <c r="O75" s="4">
         <v>334</v>
       </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -5655,52 +5864,54 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y75" s="9">
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA75" s="9">
         <v>0</v>
       </c>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD75" s="11"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D76" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="4">
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4">
         <v>1074</v>
       </c>
-      <c r="M76" s="4">
+      <c r="O76" s="4">
         <v>334</v>
       </c>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
@@ -5709,52 +5920,54 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y76" s="9">
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA76" s="9">
         <v>0</v>
       </c>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD76" s="11"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="4">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4">
         <v>1232</v>
       </c>
-      <c r="M77" s="4">
+      <c r="O77" s="4">
         <v>334</v>
       </c>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
@@ -5763,52 +5976,54 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y77" s="9">
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA77" s="9">
         <v>0</v>
       </c>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD77" s="11"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="4">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4">
         <v>1053</v>
       </c>
-      <c r="M78" s="4">
+      <c r="O78" s="4">
         <v>394</v>
       </c>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -5817,52 +6032,54 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y78" s="9">
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA78" s="9">
         <v>0</v>
       </c>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD78" s="11"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D79" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="4">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4">
         <v>1119</v>
       </c>
-      <c r="M79" s="4">
+      <c r="O79" s="4">
         <v>394</v>
       </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
@@ -5871,52 +6088,54 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
-      <c r="X79" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y79" s="9">
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA79" s="9">
         <v>0</v>
       </c>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB79" s="11"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD79" s="11"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
       <c r="AJ79" s="5"/>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="4">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4">
         <v>1217</v>
       </c>
-      <c r="M80" s="4">
+      <c r="O80" s="4">
         <v>394</v>
       </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -5925,52 +6144,54 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
-      <c r="X80" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y80" s="9">
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA80" s="9">
         <v>0</v>
       </c>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB80" s="11"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD80" s="11"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D81" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="4">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4">
         <v>1273</v>
       </c>
-      <c r="M81" s="4">
+      <c r="O81" s="4">
         <v>394</v>
       </c>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
@@ -5979,52 +6200,54 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
-      <c r="X81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y81" s="9">
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA81" s="9">
         <v>0</v>
       </c>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB81" s="11"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD81" s="11"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
       <c r="AI81" s="5"/>
       <c r="AJ81" s="5"/>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D82" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="4">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4">
         <v>1317</v>
       </c>
-      <c r="M82" s="4">
+      <c r="O82" s="4">
         <v>394</v>
       </c>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
@@ -6033,52 +6256,54 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
-      <c r="X82" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y82" s="9">
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA82" s="9">
         <v>0</v>
       </c>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB82" s="11"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD82" s="11"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="4">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4">
         <v>1347</v>
       </c>
-      <c r="M83" s="4">
+      <c r="O83" s="4">
         <v>394</v>
       </c>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
@@ -6087,52 +6312,54 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
-      <c r="X83" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y83" s="9">
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA83" s="9">
         <v>0</v>
       </c>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB83" s="11"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD83" s="11"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
       <c r="AI83" s="5"/>
       <c r="AJ83" s="5"/>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="D84" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="4">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4">
         <v>1377</v>
       </c>
-      <c r="M84" s="4">
+      <c r="O84" s="4">
         <v>394</v>
       </c>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -6141,52 +6368,54 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
-      <c r="X84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y84" s="9">
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA84" s="9">
         <v>0</v>
       </c>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB84" s="11"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD84" s="11"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
       <c r="AJ84" s="5"/>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="D85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="4">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4">
         <v>54</v>
       </c>
-      <c r="M85" s="4">
+      <c r="O85" s="4">
         <v>45</v>
       </c>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -6195,18 +6424,18 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
-      <c r="X85" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y85" s="9">
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA85" s="9">
         <v>0</v>
       </c>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
@@ -6214,33 +6443,35 @@
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
       <c r="AJ85" s="5"/>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="4">
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4">
         <v>102</v>
       </c>
-      <c r="M86" s="4">
+      <c r="O86" s="4">
         <v>45</v>
       </c>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -6249,18 +6480,18 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
-      <c r="X86" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y86" s="9">
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA86" s="9">
         <v>0</v>
       </c>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
@@ -6268,33 +6499,35 @@
       <c r="AH86" s="5"/>
       <c r="AI86" s="5"/>
       <c r="AJ86" s="5"/>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="D87" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="4">
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4">
         <v>734</v>
       </c>
-      <c r="M87" s="4">
+      <c r="O87" s="4">
         <v>567</v>
       </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
@@ -6303,18 +6536,18 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
-      <c r="X87" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y87" s="9">
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA87" s="9">
         <v>0</v>
       </c>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
@@ -6322,33 +6555,35 @@
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
       <c r="AJ87" s="5"/>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="D88" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="4">
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4">
         <v>696</v>
       </c>
-      <c r="M88" s="4">
+      <c r="O88" s="4">
         <v>567</v>
       </c>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
@@ -6357,18 +6592,18 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
-      <c r="X88" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y88" s="9">
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA88" s="9">
         <v>0</v>
       </c>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
@@ -6376,16 +6611,20 @@
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6393,14 +6632,14 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="4">
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4">
         <v>24</v>
       </c>
-      <c r="M89" s="4">
+      <c r="O89" s="4">
         <v>196</v>
       </c>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
@@ -6408,17 +6647,15 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
-      <c r="W89" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="W89" s="4"/>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
-      <c r="AA89" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
@@ -6426,16 +6663,20 @@
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -6443,14 +6684,14 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="4">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4">
         <v>174</v>
       </c>
-      <c r="M90" s="4">
+      <c r="O90" s="4">
         <v>150</v>
       </c>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
@@ -6458,17 +6699,15 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
-      <c r="W90" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
-      <c r="AA90" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
@@ -6476,16 +6715,20 @@
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -6493,14 +6736,14 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="4">
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4">
         <v>174</v>
       </c>
-      <c r="M91" s="4">
+      <c r="O91" s="4">
         <v>196</v>
       </c>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
@@ -6508,17 +6751,15 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
-      <c r="W91" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="W91" s="4"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
-      <c r="AA91" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
@@ -6526,16 +6767,20 @@
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
       <c r="AJ91" s="5"/>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -6543,14 +6788,14 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="4">
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4">
         <v>324</v>
       </c>
-      <c r="M92" s="4">
+      <c r="O92" s="4">
         <v>196</v>
       </c>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
@@ -6558,17 +6803,15 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
-      <c r="W92" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
-      <c r="AA92" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB92" s="5"/>
-      <c r="AC92" s="5"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
@@ -6576,16 +6819,20 @@
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
       <c r="AJ92" s="5"/>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -6593,14 +6840,14 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="4">
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4">
         <v>474</v>
       </c>
-      <c r="M93" s="4">
+      <c r="O93" s="4">
         <v>196</v>
       </c>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
@@ -6608,17 +6855,15 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
-      <c r="W93" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="W93" s="4"/>
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
-      <c r="AA93" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
@@ -6626,16 +6871,20 @@
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
       <c r="AJ93" s="5"/>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -6643,14 +6892,14 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="4">
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4">
         <v>630</v>
       </c>
-      <c r="M94" s="4">
+      <c r="O94" s="4">
         <v>323</v>
       </c>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -6658,17 +6907,15 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
-      <c r="W94" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
-      <c r="AA94" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
@@ -6676,16 +6923,20 @@
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
       <c r="AJ94" s="5"/>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -6693,14 +6944,14 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="4">
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4">
         <v>630</v>
       </c>
-      <c r="M95" s="4">
+      <c r="O95" s="4">
         <v>383</v>
       </c>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
@@ -6708,17 +6959,15 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
-      <c r="W95" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
-      <c r="AA95" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB95" s="5"/>
-      <c r="AC95" s="5"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
@@ -6726,16 +6975,20 @@
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -6743,14 +6996,14 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="4">
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4">
         <v>1093</v>
       </c>
-      <c r="M96" s="4">
+      <c r="O96" s="4">
         <v>323</v>
       </c>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -6758,17 +7011,15 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-      <c r="W96" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="W96" s="4"/>
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
-      <c r="AA96" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB96" s="5"/>
-      <c r="AC96" s="5"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
@@ -6776,16 +7027,20 @@
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
       <c r="AJ96" s="5"/>
-    </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -6793,14 +7048,14 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="4">
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4">
         <v>1135</v>
       </c>
-      <c r="M97" s="4">
+      <c r="O97" s="4">
         <v>450</v>
       </c>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
@@ -6808,17 +7063,15 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
-      <c r="W97" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="W97" s="4"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
-      <c r="AA97" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB97" s="5"/>
-      <c r="AC97" s="5"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
@@ -6826,16 +7079,20 @@
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
       <c r="AJ97" s="5"/>
-    </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -6843,14 +7100,14 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="4">
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4">
         <v>1285</v>
       </c>
-      <c r="M98" s="4">
+      <c r="O98" s="4">
         <v>450</v>
       </c>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
@@ -6858,17 +7115,15 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
-      <c r="W98" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
-      <c r="AA98" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB98" s="5"/>
-      <c r="AC98" s="5"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
@@ -6876,8 +7131,10 @@
       <c r="AH98" s="5"/>
       <c r="AI98" s="5"/>
       <c r="AJ98" s="5"/>
-    </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6904,8 +7161,8 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
-      <c r="AA99" s="5"/>
-      <c r="AB99" s="5"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
@@ -6914,8 +7171,10 @@
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
       <c r="AJ99" s="5"/>
-    </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6942,8 +7201,8 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="5"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
@@ -6952,158 +7211,8 @@
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
       <c r="AJ100" s="5"/>
-    </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-      <c r="AH101" s="5"/>
-      <c r="AI101" s="5"/>
-      <c r="AJ101" s="5"/>
-    </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="5"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="5"/>
-      <c r="AF102" s="5"/>
-      <c r="AG102" s="5"/>
-      <c r="AH102" s="5"/>
-      <c r="AI102" s="5"/>
-      <c r="AJ102" s="5"/>
-    </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="5"/>
-      <c r="AB103" s="5"/>
-      <c r="AC103" s="5"/>
-      <c r="AD103" s="5"/>
-      <c r="AE103" s="5"/>
-      <c r="AF103" s="5"/>
-      <c r="AG103" s="5"/>
-      <c r="AH103" s="5"/>
-      <c r="AI103" s="5"/>
-      <c r="AJ103" s="5"/>
-    </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-      <c r="Z104" s="4"/>
-      <c r="AA104" s="5"/>
-      <c r="AB104" s="5"/>
-      <c r="AC104" s="5"/>
-      <c r="AD104" s="5"/>
-      <c r="AE104" s="5"/>
-      <c r="AF104" s="5"/>
-      <c r="AG104" s="5"/>
-      <c r="AH104" s="5"/>
-      <c r="AI104" s="5"/>
-      <c r="AJ104" s="5"/>
+      <c r="AK100" s="5"/>
+      <c r="AL100" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7111,12 +7220,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>入力規則!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G100 I2:I100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A104</xm:sqref>
+          <xm:sqref>A2:A100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7137,9 +7252,11 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="13"/>
+        <v>186</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -7167,9 +7284,11 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>188</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -7197,9 +7316,9 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -7227,9 +7346,9 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -7257,7 +7376,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7287,7 +7406,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7317,7 +7436,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7347,7 +7466,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7377,7 +7496,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7407,7 +7526,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFBAFBA-2685-4066-B9BB-C427E150E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87566D-7DF2-4512-ABBD-22AA9E323005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4455" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3975" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>てこの種類</t>
+          <t>X座標（幅方向）を指定する</t>
         </r>
       </text>
     </comment>
@@ -171,63 +171,11 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>操作可能判定に用いる鍵名称</t>
+          <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
     <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>この盤以外で連動する場合に指定する駅名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>この盤以外で連動する場合に指定するユニーク名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>X座標（幅方向）を指定する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Y座標（高さ方向）を指定する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -484,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -503,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="185">
   <si>
     <t>Type</t>
   </si>
@@ -530,18 +478,6 @@
   </si>
   <si>
     <t>PointValueB</t>
-  </si>
-  <si>
-    <t>LeverType</t>
-  </si>
-  <si>
-    <t>KeyName</t>
-  </si>
-  <si>
-    <t>LinkedStationName</t>
-  </si>
-  <si>
-    <t>LinkedUniqueName</t>
   </si>
   <si>
     <t>X</t>
@@ -601,9 +537,6 @@
     <t>連動盤</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Image/BackImage/Th70_Hamazono.png</t>
   </si>
   <si>
@@ -638,9 +571,6 @@
   </si>
   <si>
     <t>1R</t>
-  </si>
-  <si>
-    <t>駅扱切換</t>
   </si>
   <si>
     <t>0,1</t>
@@ -830,6 +760,9 @@
   </si>
   <si>
     <t>KeyImage</t>
+  </si>
+  <si>
+    <t>駅扱切換</t>
   </si>
   <si>
     <t>-1,1,-11,11</t>
@@ -1394,27 +1327,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="27" width="15.140625" customWidth="1"/>
-    <col min="28" max="28" width="37.5703125" customWidth="1"/>
-    <col min="29" max="29" width="100.140625" customWidth="1"/>
-    <col min="30" max="30" width="62.5703125" customWidth="1"/>
-    <col min="31" max="38" width="14.5703125" customWidth="1"/>
+    <col min="3" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="37.5703125" customWidth="1"/>
+    <col min="25" max="25" width="100.140625" customWidth="1"/>
+    <col min="26" max="26" width="62.5703125" customWidth="1"/>
+    <col min="27" max="34" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,39 +1420,27 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1528,18 +1449,16 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>32</v>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1549,29 +1468,25 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="Y2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1580,24 +1495,22 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6">
+      <c r="J3" s="6">
         <v>850</v>
       </c>
-      <c r="O3" s="6">
+      <c r="K3" s="6">
         <v>78</v>
       </c>
-      <c r="P3" s="6">
+      <c r="L3" s="6">
         <v>79</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="M3" s="6">
         <v>110</v>
       </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1605,32 +1518,28 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="Y3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-    </row>
-    <row r="4" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1638,56 +1547,50 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6">
+      <c r="J4" s="6">
         <v>6</v>
       </c>
-      <c r="O4" s="6">
+      <c r="K4" s="6">
         <v>37</v>
       </c>
-      <c r="P4" s="6">
+      <c r="L4" s="6">
         <v>63</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="M4" s="6">
         <v>63</v>
       </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="X4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1696,20 +1599,18 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="7" t="s">
-        <v>32</v>
+      <c r="J5" s="6">
+        <f>J3+11</f>
+        <v>861</v>
+      </c>
+      <c r="K5" s="6">
+        <f>K3-68</f>
+        <v>10</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="6">
-        <f>N3+11</f>
-        <v>861</v>
-      </c>
-      <c r="O5" s="6">
-        <f>O3-68</f>
-        <v>10</v>
-      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1719,29 +1620,25 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD5" s="7"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1750,125 +1647,113 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
+      <c r="J6" s="4">
+        <v>431</v>
+      </c>
+      <c r="K6" s="4">
+        <v>311</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4">
-        <v>431</v>
-      </c>
-      <c r="O6" s="4">
-        <v>311</v>
-      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="6">
+      <c r="U6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="AB6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="X6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
+      <c r="J7" s="4">
+        <v>497</v>
+      </c>
+      <c r="K7" s="4">
+        <v>317</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <v>497</v>
-      </c>
-      <c r="O7" s="4">
-        <v>317</v>
-      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="6" t="s">
+      <c r="V7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="Z7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1876,62 +1761,56 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6">
+      <c r="J8" s="6">
         <v>14</v>
       </c>
-      <c r="O8" s="6">
+      <c r="K8" s="6">
         <v>20</v>
       </c>
-      <c r="P8" s="6">
+      <c r="L8" s="6">
         <v>11</v>
       </c>
+      <c r="M8" s="6">
+        <v>11</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="6">
-        <v>11</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="6">
         <v>1</v>
       </c>
-      <c r="V8" s="6">
+      <c r="R8" s="6">
         <v>10</v>
       </c>
-      <c r="W8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="S8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1940,121 +1819,109 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
+      <c r="J9" s="4">
+        <v>528</v>
+      </c>
+      <c r="K9" s="4">
+        <v>371</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <v>528</v>
-      </c>
-      <c r="O9" s="4">
-        <v>371</v>
-      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA9" s="6">
+      <c r="U9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="6">
         <v>0</v>
       </c>
-      <c r="AB9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="X9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>32</v>
+      <c r="J10" s="4">
+        <v>492</v>
+      </c>
+      <c r="K10" s="4">
+        <v>427</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>492</v>
-      </c>
-      <c r="O10" s="4">
-        <v>427</v>
-      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="6" t="s">
+      <c r="V10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2062,62 +1929,56 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
+      <c r="J11" s="6">
         <v>14</v>
       </c>
-      <c r="O11" s="6">
+      <c r="K11" s="6">
         <v>20</v>
       </c>
-      <c r="P11" s="6">
+      <c r="L11" s="6">
         <v>11</v>
       </c>
+      <c r="M11" s="6">
+        <v>11</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="6">
-        <v>11</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="6">
         <v>2</v>
       </c>
-      <c r="V11" s="6">
+      <c r="R11" s="6">
         <v>10</v>
       </c>
-      <c r="W11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
+      <c r="S11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2126,121 +1987,109 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>45</v>
+      <c r="J12" s="4">
+        <v>882</v>
+      </c>
+      <c r="K12" s="4">
+        <v>311</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>882</v>
-      </c>
-      <c r="O12" s="4">
-        <v>311</v>
-      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA12" s="6">
+      <c r="U12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="6">
         <v>0</v>
       </c>
-      <c r="AB12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>32</v>
+      <c r="J13" s="4">
+        <v>959</v>
+      </c>
+      <c r="K13" s="4">
+        <v>309</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>959</v>
-      </c>
-      <c r="O13" s="4">
-        <v>309</v>
-      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="6" t="s">
+      <c r="V13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2248,62 +2097,56 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
+      <c r="J14" s="6">
         <v>14</v>
       </c>
-      <c r="O14" s="6">
+      <c r="K14" s="6">
         <v>20</v>
       </c>
-      <c r="P14" s="6">
+      <c r="L14" s="6">
         <v>11</v>
       </c>
+      <c r="M14" s="6">
+        <v>11</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="6">
-        <v>11</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="6">
         <v>3</v>
       </c>
-      <c r="V14" s="6">
+      <c r="R14" s="6">
         <v>10</v>
       </c>
-      <c r="W14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="S14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2312,121 +2155,109 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>45</v>
+      <c r="J15" s="4">
+        <v>882</v>
+      </c>
+      <c r="K15" s="4">
+        <v>371</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>882</v>
-      </c>
-      <c r="O15" s="4">
-        <v>371</v>
-      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA15" s="6">
+      <c r="U15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="AB15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>32</v>
+      <c r="J16" s="4">
+        <v>948</v>
+      </c>
+      <c r="K16" s="4">
+        <v>407</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <v>948</v>
-      </c>
-      <c r="O16" s="4">
-        <v>407</v>
-      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="6" t="s">
+      <c r="V16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2434,62 +2265,56 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6">
+      <c r="J17" s="6">
         <v>14</v>
       </c>
-      <c r="O17" s="6">
+      <c r="K17" s="6">
         <v>20</v>
       </c>
-      <c r="P17" s="6">
+      <c r="L17" s="6">
         <v>11</v>
       </c>
+      <c r="M17" s="6">
+        <v>11</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="6">
-        <v>11</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="6">
         <v>4</v>
       </c>
-      <c r="V17" s="6">
+      <c r="R17" s="6">
         <v>10</v>
       </c>
-      <c r="W17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
+      <c r="S17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2498,121 +2323,109 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
-        <v>45</v>
+      <c r="J18" s="4">
+        <v>1168</v>
+      </c>
+      <c r="K18" s="4">
+        <v>371</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>1168</v>
-      </c>
-      <c r="O18" s="4">
-        <v>371</v>
-      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA18" s="6">
+      <c r="U18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="6">
         <v>0</v>
       </c>
-      <c r="AB18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="X18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
-        <v>32</v>
+      <c r="J19" s="4">
+        <v>1132</v>
+      </c>
+      <c r="K19" s="4">
+        <v>407</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <v>1132</v>
-      </c>
-      <c r="O19" s="4">
-        <v>407</v>
-      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="6" t="s">
+      <c r="V19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2620,62 +2433,56 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6">
+      <c r="J20" s="6">
         <v>14</v>
       </c>
-      <c r="O20" s="6">
+      <c r="K20" s="6">
         <v>20</v>
       </c>
-      <c r="P20" s="6">
+      <c r="L20" s="6">
         <v>11</v>
       </c>
+      <c r="M20" s="6">
+        <v>11</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="6">
-        <v>11</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="6">
         <v>5</v>
       </c>
-      <c r="V20" s="6">
+      <c r="R20" s="6">
         <v>10</v>
       </c>
-      <c r="W20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
+      <c r="S20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2684,121 +2491,109 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
-        <v>45</v>
+      <c r="J21" s="4">
+        <v>824</v>
+      </c>
+      <c r="K21" s="4">
+        <v>311</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <v>824</v>
-      </c>
-      <c r="O21" s="4">
-        <v>311</v>
-      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA21" s="9">
+      <c r="U21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="9">
         <v>0</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC21" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="X21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4" t="s">
-        <v>32</v>
+      <c r="J22" s="4">
+        <v>941</v>
+      </c>
+      <c r="K22" s="4">
+        <v>308</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4">
-        <v>941</v>
-      </c>
-      <c r="O22" s="4">
-        <v>308</v>
-      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA22" s="9">
+      <c r="V22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="9">
         <v>0</v>
       </c>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2806,62 +2601,56 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6">
+      <c r="J23" s="6">
         <v>14</v>
       </c>
-      <c r="O23" s="6">
+      <c r="K23" s="6">
         <v>20</v>
       </c>
-      <c r="P23" s="6">
+      <c r="L23" s="6">
         <v>11</v>
       </c>
+      <c r="M23" s="6">
+        <v>11</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="6">
         <v>11</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="6">
-        <v>11</v>
-      </c>
-      <c r="V23" s="6">
+      <c r="R23" s="6">
         <v>10</v>
       </c>
-      <c r="W23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
+      <c r="S23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2870,121 +2659,109 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>45</v>
+      <c r="J24" s="4">
+        <v>1034</v>
+      </c>
+      <c r="K24" s="4">
+        <v>311</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4">
-        <v>1034</v>
-      </c>
-      <c r="O24" s="4">
-        <v>311</v>
-      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA24" s="9">
+      <c r="U24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" s="9">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC24" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="X24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>32</v>
+      <c r="J25" s="4">
+        <v>1005</v>
+      </c>
+      <c r="K25" s="4">
+        <v>318</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4">
-        <v>1005</v>
-      </c>
-      <c r="O25" s="4">
-        <v>318</v>
-      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA25" s="9">
+      <c r="V25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="9">
         <v>0</v>
       </c>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2992,62 +2769,56 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6">
+      <c r="J26" s="6">
         <v>14</v>
       </c>
-      <c r="O26" s="6">
+      <c r="K26" s="6">
         <v>20</v>
       </c>
-      <c r="P26" s="6">
+      <c r="L26" s="6">
         <v>11</v>
       </c>
+      <c r="M26" s="6">
+        <v>11</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="6">
-        <v>11</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="6">
         <v>12</v>
       </c>
-      <c r="V26" s="6">
+      <c r="R26" s="6">
         <v>10</v>
       </c>
-      <c r="W26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
+      <c r="S26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3056,61 +2827,55 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4" t="s">
-        <v>45</v>
+      <c r="J27" s="4">
+        <v>439</v>
+      </c>
+      <c r="K27" s="4">
+        <v>384</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4">
-        <v>439</v>
-      </c>
-      <c r="O27" s="4">
-        <v>384</v>
-      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA27" s="6">
+      <c r="U27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27" s="6">
         <v>0</v>
       </c>
-      <c r="AB27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC27" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="X27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3118,62 +2883,56 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6">
+      <c r="J28" s="6">
         <v>5</v>
       </c>
-      <c r="O28" s="6">
+      <c r="K28" s="6">
         <v>23</v>
       </c>
-      <c r="P28" s="6">
+      <c r="L28" s="6">
         <v>15</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="M28" s="6">
         <v>12</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="6">
+        <v>10</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="U28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V28" s="6">
-        <v>10</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3182,61 +2941,55 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
-        <v>45</v>
+      <c r="J29" s="4">
+        <v>780</v>
+      </c>
+      <c r="K29" s="4">
+        <v>324</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4">
-        <v>780</v>
-      </c>
-      <c r="O29" s="4">
-        <v>324</v>
-      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA29" s="6">
+      <c r="U29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="6">
         <v>0</v>
       </c>
-      <c r="AB29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC29" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="X29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3244,62 +2997,56 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6">
+      <c r="J30" s="6">
         <v>5</v>
       </c>
-      <c r="O30" s="6">
+      <c r="K30" s="6">
         <v>23</v>
       </c>
-      <c r="P30" s="6">
+      <c r="L30" s="6">
         <v>15</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="M30" s="6">
         <v>12</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="6">
+        <v>10</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="U30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="V30" s="6">
-        <v>10</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3308,61 +3055,55 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
-        <v>45</v>
+      <c r="J31" s="4">
+        <v>780</v>
+      </c>
+      <c r="K31" s="4">
+        <v>384</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4">
-        <v>780</v>
-      </c>
-      <c r="O31" s="4">
-        <v>384</v>
-      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA31" s="6">
+      <c r="U31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="6">
         <v>0</v>
       </c>
-      <c r="AB31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC31" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="X31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3370,62 +3111,56 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6">
+      <c r="J32" s="6">
         <v>5</v>
       </c>
-      <c r="O32" s="6">
+      <c r="K32" s="6">
         <v>23</v>
       </c>
-      <c r="P32" s="6">
+      <c r="L32" s="6">
         <v>15</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="M32" s="6">
         <v>12</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R32" s="6">
+        <v>10</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="U32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" s="6">
-        <v>10</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3434,61 +3169,55 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
-        <v>45</v>
+      <c r="J33" s="4">
+        <v>1251</v>
+      </c>
+      <c r="K33" s="4">
+        <v>324</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4">
-        <v>1251</v>
-      </c>
-      <c r="O33" s="4">
-        <v>324</v>
-      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA33" s="6">
+      <c r="U33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="6">
         <v>0</v>
       </c>
-      <c r="AB33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC33" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="X33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3496,62 +3225,56 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6">
+      <c r="J34" s="6">
         <v>5</v>
       </c>
-      <c r="O34" s="6">
+      <c r="K34" s="6">
         <v>23</v>
       </c>
-      <c r="P34" s="6">
+      <c r="L34" s="6">
         <v>15</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="M34" s="6">
         <v>12</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" s="6">
+        <v>10</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="U34" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V34" s="6">
-        <v>10</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y34" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3560,58 +3283,52 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
-        <v>45</v>
+      <c r="J35" s="4">
+        <v>304</v>
+      </c>
+      <c r="K35" s="4">
+        <v>551</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4">
-        <v>304</v>
-      </c>
-      <c r="O35" s="4">
-        <v>551</v>
-      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA35" s="6">
+      <c r="U35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="6">
         <v>0</v>
       </c>
-      <c r="AB35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC35" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="X35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3620,58 +3337,52 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4" t="s">
-        <v>45</v>
+      <c r="J36" s="4">
+        <v>1111</v>
+      </c>
+      <c r="K36" s="4">
+        <v>551</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4">
-        <v>1111</v>
-      </c>
-      <c r="O36" s="4">
-        <v>551</v>
-      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA36" s="6">
+      <c r="U36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" s="6">
         <v>0</v>
       </c>
-      <c r="AB36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC36" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="X36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3680,179 +3391,161 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4" t="s">
-        <v>45</v>
+      <c r="J37" s="4">
+        <v>958</v>
+      </c>
+      <c r="K37" s="4">
+        <v>64</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4">
-        <v>958</v>
-      </c>
-      <c r="O37" s="4">
-        <v>64</v>
-      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA37" s="6">
+      <c r="U37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="W37" s="6">
         <v>0</v>
       </c>
-      <c r="AB37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD37" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="X37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>32</v>
+      <c r="J38" s="4">
+        <v>956</v>
+      </c>
+      <c r="K38" s="4">
+        <v>45</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4">
-        <v>956</v>
-      </c>
-      <c r="O38" s="4">
-        <v>45</v>
-      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA38" s="6">
+      <c r="V38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="6">
         <v>0</v>
       </c>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>32</v>
+      <c r="J39" s="4">
+        <v>990</v>
+      </c>
+      <c r="K39" s="4">
+        <v>45</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4">
-        <v>990</v>
-      </c>
-      <c r="O39" s="4">
-        <v>45</v>
-      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA39" s="6">
+      <c r="V39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="6">
         <v>0</v>
       </c>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3860,62 +3553,56 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6">
+      <c r="J40" s="6">
         <v>14</v>
       </c>
-      <c r="O40" s="6">
+      <c r="K40" s="6">
         <v>20</v>
       </c>
-      <c r="P40" s="6">
+      <c r="L40" s="6">
         <v>11</v>
       </c>
+      <c r="M40" s="6">
+        <v>11</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="6">
-        <v>11</v>
-      </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="6">
         <v>21</v>
       </c>
-      <c r="V40" s="6">
+      <c r="R40" s="6">
         <v>10</v>
       </c>
-      <c r="W40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
+      <c r="S40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-    </row>
-    <row r="41" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3924,2722 +3611,2528 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="4"/>
+      <c r="J41" s="4">
+        <v>1347</v>
+      </c>
+      <c r="K41" s="4">
+        <v>64</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="4">
-        <v>1347</v>
-      </c>
-      <c r="O41" s="4">
-        <v>64</v>
-      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z41" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA41" s="6">
+      <c r="U41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W41" s="6">
         <v>1</v>
       </c>
-      <c r="AB41" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC41" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD41" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="X41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="J42" s="4">
+        <v>1345</v>
+      </c>
+      <c r="K42" s="4">
+        <v>45</v>
+      </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="4">
-        <v>1345</v>
-      </c>
-      <c r="O42" s="4">
-        <v>45</v>
-      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA42" s="9">
+      <c r="V42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W42" s="9">
         <v>0</v>
       </c>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="J43" s="4">
+        <v>1379</v>
+      </c>
+      <c r="K43" s="4">
+        <v>45</v>
+      </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="4">
-        <v>1379</v>
-      </c>
-      <c r="O43" s="4">
-        <v>45</v>
-      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA43" s="9">
+      <c r="V43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W43" s="9">
         <v>0</v>
       </c>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="J44" s="4">
+        <v>52</v>
+      </c>
+      <c r="K44" s="4">
+        <v>334</v>
+      </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4">
-        <v>52</v>
-      </c>
-      <c r="O44" s="4">
-        <v>334</v>
-      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA44" s="9">
+      <c r="V44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W44" s="9">
         <v>0</v>
       </c>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD44" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="J45" s="4">
+        <v>82</v>
+      </c>
+      <c r="K45" s="4">
+        <v>334</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4">
-        <v>82</v>
-      </c>
-      <c r="O45" s="4">
-        <v>334</v>
-      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA45" s="9">
+      <c r="V45" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W45" s="9">
         <v>0</v>
       </c>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD45" s="11"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="J46" s="4">
+        <v>107</v>
+      </c>
+      <c r="K46" s="4">
+        <v>334</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="4">
-        <v>107</v>
-      </c>
-      <c r="O46" s="4">
-        <v>334</v>
-      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA46" s="9">
+      <c r="V46" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W46" s="9">
         <v>0</v>
       </c>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD46" s="11"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="J47" s="4">
+        <v>137</v>
+      </c>
+      <c r="K47" s="4">
+        <v>334</v>
+      </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="4">
-        <v>137</v>
-      </c>
-      <c r="O47" s="4">
-        <v>334</v>
-      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA47" s="9">
+      <c r="V47" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W47" s="9">
         <v>0</v>
       </c>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD47" s="11"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="J48" s="4">
+        <v>107</v>
+      </c>
+      <c r="K48" s="4">
+        <v>334</v>
+      </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="4">
-        <v>107</v>
-      </c>
-      <c r="O48" s="4">
-        <v>334</v>
-      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA48" s="9">
+      <c r="V48" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W48" s="9">
         <v>0</v>
       </c>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD48" s="11"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="J49" s="4">
+        <v>129</v>
+      </c>
+      <c r="K49" s="4">
+        <v>289</v>
+      </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="4">
-        <v>129</v>
-      </c>
-      <c r="O49" s="4">
-        <v>289</v>
-      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA49" s="9">
+      <c r="V49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W49" s="9">
         <v>0</v>
       </c>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD49" s="11" t="s">
-        <v>127</v>
-      </c>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="J50" s="4">
+        <v>161</v>
+      </c>
+      <c r="K50" s="4">
+        <v>274</v>
+      </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="4">
-        <v>161</v>
-      </c>
-      <c r="O50" s="4">
-        <v>274</v>
-      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA50" s="9">
+      <c r="V50" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W50" s="9">
         <v>0</v>
       </c>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD50" s="11"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="J51" s="4">
+        <v>243</v>
+      </c>
+      <c r="K51" s="4">
+        <v>274</v>
+      </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="4">
-        <v>243</v>
-      </c>
-      <c r="O51" s="4">
-        <v>274</v>
-      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA51" s="9">
+      <c r="V51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W51" s="9">
         <v>0</v>
       </c>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD51" s="11"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="J52" s="4">
+        <v>161</v>
+      </c>
+      <c r="K52" s="4">
+        <v>334</v>
+      </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="4">
-        <v>161</v>
-      </c>
-      <c r="O52" s="4">
-        <v>334</v>
-      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA52" s="9">
+      <c r="V52" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W52" s="9">
         <v>0</v>
       </c>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD52" s="11"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="J53" s="4">
+        <v>243</v>
+      </c>
+      <c r="K53" s="4">
+        <v>334</v>
+      </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="4">
-        <v>243</v>
-      </c>
-      <c r="O53" s="4">
-        <v>334</v>
-      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA53" s="9">
+      <c r="V53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W53" s="9">
         <v>0</v>
       </c>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD53" s="11"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="J54" s="4">
+        <v>267</v>
+      </c>
+      <c r="K54" s="4">
+        <v>334</v>
+      </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="4">
-        <v>267</v>
-      </c>
-      <c r="O54" s="4">
-        <v>334</v>
-      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA54" s="9">
+      <c r="V54" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W54" s="9">
         <v>0</v>
       </c>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD54" s="11"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="J55" s="4">
+        <v>325</v>
+      </c>
+      <c r="K55" s="4">
+        <v>334</v>
+      </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="4">
-        <v>325</v>
-      </c>
-      <c r="O55" s="4">
-        <v>334</v>
-      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA55" s="9">
+      <c r="V55" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W55" s="9">
         <v>0</v>
       </c>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="J56" s="4">
+        <v>267</v>
+      </c>
+      <c r="K56" s="4">
+        <v>274</v>
+      </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="4">
-        <v>267</v>
-      </c>
-      <c r="O56" s="4">
-        <v>274</v>
-      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA56" s="9">
+      <c r="V56" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W56" s="9">
         <v>0</v>
       </c>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="J57" s="4">
+        <v>307</v>
+      </c>
+      <c r="K57" s="4">
+        <v>289</v>
+      </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="4">
-        <v>307</v>
-      </c>
-      <c r="O57" s="4">
-        <v>289</v>
-      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA57" s="9">
+      <c r="V57" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W57" s="9">
         <v>0</v>
       </c>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD57" s="11" t="s">
-        <v>137</v>
-      </c>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z57" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="J58" s="4">
+        <v>325</v>
+      </c>
+      <c r="K58" s="4">
+        <v>334</v>
+      </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="4">
-        <v>325</v>
-      </c>
-      <c r="O58" s="4">
-        <v>334</v>
-      </c>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA58" s="9">
+      <c r="V58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W58" s="9">
         <v>0</v>
       </c>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="J59" s="4">
+        <v>350</v>
+      </c>
+      <c r="K59" s="4">
+        <v>334</v>
+      </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="4">
-        <v>350</v>
-      </c>
-      <c r="O59" s="4">
-        <v>334</v>
-      </c>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA59" s="9">
+      <c r="V59" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W59" s="9">
         <v>0</v>
       </c>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD59" s="11"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
-      <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AK59" s="5"/>
-      <c r="AL59" s="5"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="J60" s="4">
+        <v>380</v>
+      </c>
+      <c r="K60" s="4">
+        <v>334</v>
+      </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="4">
-        <v>380</v>
-      </c>
-      <c r="O60" s="4">
-        <v>334</v>
-      </c>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA60" s="9">
+      <c r="V60" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W60" s="9">
         <v>0</v>
       </c>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD60" s="11"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="J61" s="4">
+        <v>410</v>
+      </c>
+      <c r="K61" s="4">
+        <v>334</v>
+      </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="4">
-        <v>410</v>
-      </c>
-      <c r="O61" s="4">
-        <v>334</v>
-      </c>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA61" s="9">
+      <c r="V61" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W61" s="9">
         <v>0</v>
       </c>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD61" s="11"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
-      <c r="AI61" s="5"/>
-      <c r="AJ61" s="5"/>
-      <c r="AK61" s="5"/>
-      <c r="AL61" s="5"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="J62" s="4">
+        <v>413</v>
+      </c>
+      <c r="K62" s="4">
+        <v>394</v>
+      </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="4">
-        <v>413</v>
-      </c>
-      <c r="O62" s="4">
-        <v>394</v>
-      </c>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA62" s="9">
+      <c r="V62" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W62" s="9">
         <v>0</v>
       </c>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD62" s="11"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
-      <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="J63" s="4">
+        <v>480</v>
+      </c>
+      <c r="K63" s="4">
+        <v>394</v>
+      </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="4">
-        <v>480</v>
-      </c>
-      <c r="O63" s="4">
-        <v>394</v>
-      </c>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA63" s="9">
+      <c r="V63" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W63" s="9">
         <v>0</v>
       </c>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD63" s="11"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
-      <c r="AI63" s="5"/>
-      <c r="AJ63" s="5"/>
-      <c r="AK63" s="5"/>
-      <c r="AL63" s="5"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="J64" s="4">
+        <v>568</v>
+      </c>
+      <c r="K64" s="4">
+        <v>334</v>
+      </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="4">
-        <v>568</v>
-      </c>
-      <c r="O64" s="4">
-        <v>334</v>
-      </c>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA64" s="9">
+      <c r="V64" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W64" s="9">
         <v>0</v>
       </c>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD64" s="11"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="J65" s="4">
+        <v>812</v>
+      </c>
+      <c r="K65" s="4">
+        <v>334</v>
+      </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="4">
-        <v>812</v>
-      </c>
-      <c r="O65" s="4">
-        <v>334</v>
-      </c>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA65" s="9">
+      <c r="V65" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W65" s="9">
         <v>0</v>
       </c>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD65" s="11"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
-      <c r="AI65" s="5"/>
-      <c r="AJ65" s="5"/>
-      <c r="AK65" s="5"/>
-      <c r="AL65" s="5"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="J66" s="4">
+        <v>568</v>
+      </c>
+      <c r="K66" s="4">
+        <v>394</v>
+      </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="4">
-        <v>568</v>
-      </c>
-      <c r="O66" s="4">
-        <v>394</v>
-      </c>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA66" s="9">
+      <c r="V66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W66" s="9">
         <v>0</v>
       </c>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD66" s="11"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="J67" s="4">
+        <v>812</v>
+      </c>
+      <c r="K67" s="4">
+        <v>394</v>
+      </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="4">
-        <v>812</v>
-      </c>
-      <c r="O67" s="4">
-        <v>394</v>
-      </c>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA67" s="9">
+      <c r="V67" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W67" s="9">
         <v>0</v>
       </c>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD67" s="11"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
-      <c r="AI67" s="5"/>
-      <c r="AJ67" s="5"/>
-      <c r="AK67" s="5"/>
-      <c r="AL67" s="5"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="J68" s="4">
+        <v>939</v>
+      </c>
+      <c r="K68" s="4">
+        <v>394</v>
+      </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="4">
-        <v>939</v>
-      </c>
-      <c r="O68" s="4">
-        <v>394</v>
-      </c>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA68" s="9">
+      <c r="V68" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W68" s="9">
         <v>0</v>
       </c>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD68" s="11"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="5"/>
-      <c r="AL68" s="5"/>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="J69" s="4">
+        <v>1005</v>
+      </c>
+      <c r="K69" s="4">
+        <v>394</v>
+      </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="4">
-        <v>1005</v>
-      </c>
-      <c r="O69" s="4">
-        <v>394</v>
-      </c>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA69" s="9">
+      <c r="V69" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W69" s="9">
         <v>0</v>
       </c>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD69" s="11"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
-      <c r="AI69" s="5"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="5"/>
-      <c r="AL69" s="5"/>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="J70" s="4">
+        <v>939</v>
+      </c>
+      <c r="K70" s="4">
+        <v>394</v>
+      </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="4">
-        <v>939</v>
-      </c>
-      <c r="O70" s="4">
-        <v>394</v>
-      </c>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA70" s="9">
+      <c r="V70" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W70" s="9">
         <v>0</v>
       </c>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD70" s="11"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
-      <c r="AI70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="5"/>
-      <c r="AL70" s="5"/>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
+      <c r="J71" s="4">
+        <v>963</v>
+      </c>
+      <c r="K71" s="4">
+        <v>372</v>
+      </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="4">
-        <v>963</v>
-      </c>
-      <c r="O71" s="4">
-        <v>372</v>
-      </c>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA71" s="9">
+      <c r="V71" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W71" s="9">
         <v>0</v>
       </c>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD71" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z71" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="5"/>
-      <c r="AL71" s="5"/>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="J72" s="4">
+        <v>939</v>
+      </c>
+      <c r="K72" s="4">
+        <v>334</v>
+      </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="4">
-        <v>939</v>
-      </c>
-      <c r="O72" s="4">
-        <v>334</v>
-      </c>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA72" s="9">
+      <c r="V72" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W72" s="9">
         <v>0</v>
       </c>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD72" s="11"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
-      <c r="AI72" s="5"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="J73" s="4">
+        <v>1005</v>
+      </c>
+      <c r="K73" s="4">
+        <v>334</v>
+      </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="4">
-        <v>1005</v>
-      </c>
-      <c r="O73" s="4">
-        <v>334</v>
-      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA73" s="9">
+      <c r="V73" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W73" s="9">
         <v>0</v>
       </c>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD73" s="11"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
+      <c r="J74" s="4">
+        <v>983</v>
+      </c>
+      <c r="K74" s="4">
+        <v>352</v>
+      </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="4">
-        <v>983</v>
-      </c>
-      <c r="O74" s="4">
-        <v>352</v>
-      </c>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA74" s="9">
+      <c r="V74" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W74" s="9">
         <v>0</v>
       </c>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD74" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z74" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
-      <c r="AI74" s="5"/>
-      <c r="AJ74" s="5"/>
-      <c r="AK74" s="5"/>
-      <c r="AL74" s="5"/>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
+      <c r="J75" s="4">
+        <v>1005</v>
+      </c>
+      <c r="K75" s="4">
+        <v>334</v>
+      </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="4">
-        <v>1005</v>
-      </c>
-      <c r="O75" s="4">
-        <v>334</v>
-      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA75" s="9">
+      <c r="V75" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W75" s="9">
         <v>0</v>
       </c>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD75" s="11"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
-      <c r="AI75" s="5"/>
-      <c r="AJ75" s="5"/>
-      <c r="AK75" s="5"/>
-      <c r="AL75" s="5"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
+      <c r="J76" s="4">
+        <v>1074</v>
+      </c>
+      <c r="K76" s="4">
+        <v>334</v>
+      </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="4">
-        <v>1074</v>
-      </c>
-      <c r="O76" s="4">
-        <v>334</v>
-      </c>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA76" s="9">
+      <c r="V76" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W76" s="9">
         <v>0</v>
       </c>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD76" s="11"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
+      <c r="J77" s="4">
+        <v>1232</v>
+      </c>
+      <c r="K77" s="4">
+        <v>334</v>
+      </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="4">
-        <v>1232</v>
-      </c>
-      <c r="O77" s="4">
-        <v>334</v>
-      </c>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA77" s="9">
+      <c r="V77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W77" s="9">
         <v>0</v>
       </c>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD77" s="11"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="J78" s="4">
+        <v>1053</v>
+      </c>
+      <c r="K78" s="4">
+        <v>394</v>
+      </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="4">
-        <v>1053</v>
-      </c>
-      <c r="O78" s="4">
-        <v>394</v>
-      </c>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA78" s="9">
+      <c r="V78" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W78" s="9">
         <v>0</v>
       </c>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD78" s="11"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="J79" s="4">
+        <v>1119</v>
+      </c>
+      <c r="K79" s="4">
+        <v>394</v>
+      </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="4">
-        <v>1119</v>
-      </c>
-      <c r="O79" s="4">
-        <v>394</v>
-      </c>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA79" s="9">
+      <c r="V79" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W79" s="9">
         <v>0</v>
       </c>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD79" s="11"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="5"/>
-      <c r="AL79" s="5"/>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="J80" s="4">
+        <v>1217</v>
+      </c>
+      <c r="K80" s="4">
+        <v>394</v>
+      </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="4">
-        <v>1217</v>
-      </c>
-      <c r="O80" s="4">
-        <v>394</v>
-      </c>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA80" s="9">
+      <c r="V80" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W80" s="9">
         <v>0</v>
       </c>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD80" s="11"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
-      <c r="AI80" s="5"/>
-      <c r="AJ80" s="5"/>
-      <c r="AK80" s="5"/>
-      <c r="AL80" s="5"/>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="J81" s="4">
+        <v>1273</v>
+      </c>
+      <c r="K81" s="4">
+        <v>394</v>
+      </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="4">
-        <v>1273</v>
-      </c>
-      <c r="O81" s="4">
-        <v>394</v>
-      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA81" s="9">
+      <c r="V81" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W81" s="9">
         <v>0</v>
       </c>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD81" s="11"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
-      <c r="AI81" s="5"/>
-      <c r="AJ81" s="5"/>
-      <c r="AK81" s="5"/>
-      <c r="AL81" s="5"/>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
+      <c r="J82" s="4">
+        <v>1317</v>
+      </c>
+      <c r="K82" s="4">
+        <v>394</v>
+      </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
-      <c r="N82" s="4">
-        <v>1317</v>
-      </c>
-      <c r="O82" s="4">
-        <v>394</v>
-      </c>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA82" s="9">
+      <c r="V82" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W82" s="9">
         <v>0</v>
       </c>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD82" s="11"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
+      <c r="J83" s="4">
+        <v>1347</v>
+      </c>
+      <c r="K83" s="4">
+        <v>394</v>
+      </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="4">
-        <v>1347</v>
-      </c>
-      <c r="O83" s="4">
-        <v>394</v>
-      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA83" s="9">
+      <c r="V83" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W83" s="9">
         <v>0</v>
       </c>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD83" s="11"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="J84" s="4">
+        <v>1377</v>
+      </c>
+      <c r="K84" s="4">
+        <v>394</v>
+      </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="4">
-        <v>1377</v>
-      </c>
-      <c r="O84" s="4">
-        <v>394</v>
-      </c>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA84" s="9">
+      <c r="V84" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W84" s="9">
         <v>0</v>
       </c>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD84" s="11"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
-      <c r="AI84" s="5"/>
-      <c r="AJ84" s="5"/>
-      <c r="AK84" s="5"/>
-      <c r="AL84" s="5"/>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="J85" s="4">
+        <v>54</v>
+      </c>
+      <c r="K85" s="4">
+        <v>45</v>
+      </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="4">
-        <v>54</v>
-      </c>
-      <c r="O85" s="4">
-        <v>45</v>
-      </c>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA85" s="9">
+      <c r="V85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W85" s="9">
         <v>0</v>
       </c>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
-      <c r="AI85" s="5"/>
-      <c r="AJ85" s="5"/>
-      <c r="AK85" s="5"/>
-      <c r="AL85" s="5"/>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="J86" s="4">
+        <v>102</v>
+      </c>
+      <c r="K86" s="4">
+        <v>45</v>
+      </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
-      <c r="N86" s="4">
-        <v>102</v>
-      </c>
-      <c r="O86" s="4">
-        <v>45</v>
-      </c>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA86" s="9">
+      <c r="V86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W86" s="9">
         <v>0</v>
       </c>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
-      <c r="AI86" s="5"/>
-      <c r="AJ86" s="5"/>
-      <c r="AK86" s="5"/>
-      <c r="AL86" s="5"/>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
+      <c r="J87" s="4">
+        <v>734</v>
+      </c>
+      <c r="K87" s="4">
+        <v>567</v>
+      </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="4">
-        <v>734</v>
-      </c>
-      <c r="O87" s="4">
-        <v>567</v>
-      </c>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA87" s="9">
+      <c r="V87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W87" s="9">
         <v>0</v>
       </c>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
-      <c r="AI87" s="5"/>
-      <c r="AJ87" s="5"/>
-      <c r="AK87" s="5"/>
-      <c r="AL87" s="5"/>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
+      <c r="J88" s="4">
+        <v>696</v>
+      </c>
+      <c r="K88" s="4">
+        <v>567</v>
+      </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="4">
-        <v>696</v>
-      </c>
-      <c r="O88" s="4">
-        <v>567</v>
-      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA88" s="9">
+      <c r="V88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W88" s="9">
         <v>0</v>
       </c>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
-      <c r="AI88" s="5"/>
-      <c r="AJ88" s="5"/>
-      <c r="AK88" s="5"/>
-      <c r="AL88" s="5"/>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
+      <c r="J89" s="4">
+        <v>24</v>
+      </c>
+      <c r="K89" s="4">
+        <v>196</v>
+      </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="4">
-        <v>24</v>
-      </c>
-      <c r="O89" s="4">
-        <v>196</v>
-      </c>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
@@ -6649,49 +6142,45 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
-      <c r="AI89" s="5"/>
-      <c r="AJ89" s="5"/>
-      <c r="AK89" s="5"/>
-      <c r="AL89" s="5"/>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
+      <c r="J90" s="4">
+        <v>174</v>
+      </c>
+      <c r="K90" s="4">
+        <v>150</v>
+      </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="4">
-        <v>174</v>
-      </c>
-      <c r="O90" s="4">
-        <v>150</v>
-      </c>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
@@ -6701,49 +6190,45 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y90" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
-      <c r="AI90" s="5"/>
-      <c r="AJ90" s="5"/>
-      <c r="AK90" s="5"/>
-      <c r="AL90" s="5"/>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+      <c r="J91" s="4">
+        <v>174</v>
+      </c>
+      <c r="K91" s="4">
+        <v>196</v>
+      </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="4">
-        <v>174</v>
-      </c>
-      <c r="O91" s="4">
-        <v>196</v>
-      </c>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
@@ -6753,49 +6238,45 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y91" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
-      <c r="AI91" s="5"/>
-      <c r="AJ91" s="5"/>
-      <c r="AK91" s="5"/>
-      <c r="AL91" s="5"/>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+      <c r="J92" s="4">
+        <v>324</v>
+      </c>
+      <c r="K92" s="4">
+        <v>196</v>
+      </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="4">
-        <v>324</v>
-      </c>
-      <c r="O92" s="4">
-        <v>196</v>
-      </c>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
@@ -6805,49 +6286,45 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y92" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
-      <c r="AI92" s="5"/>
-      <c r="AJ92" s="5"/>
-      <c r="AK92" s="5"/>
-      <c r="AL92" s="5"/>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="J93" s="4">
+        <v>474</v>
+      </c>
+      <c r="K93" s="4">
+        <v>196</v>
+      </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="4">
-        <v>474</v>
-      </c>
-      <c r="O93" s="4">
-        <v>196</v>
-      </c>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
@@ -6857,49 +6334,45 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="4"/>
-      <c r="AA93" s="4"/>
-      <c r="AB93" s="4"/>
-      <c r="AC93" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y93" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
-      <c r="AI93" s="5"/>
-      <c r="AJ93" s="5"/>
-      <c r="AK93" s="5"/>
-      <c r="AL93" s="5"/>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+      <c r="J94" s="4">
+        <v>630</v>
+      </c>
+      <c r="K94" s="4">
+        <v>323</v>
+      </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="4">
-        <v>630</v>
-      </c>
-      <c r="O94" s="4">
-        <v>323</v>
-      </c>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -6909,49 +6382,45 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
-      <c r="AA94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AC94" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y94" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
-      <c r="AI94" s="5"/>
-      <c r="AJ94" s="5"/>
-      <c r="AK94" s="5"/>
-      <c r="AL94" s="5"/>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="J95" s="4">
+        <v>630</v>
+      </c>
+      <c r="K95" s="4">
+        <v>383</v>
+      </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="4">
-        <v>630</v>
-      </c>
-      <c r="O95" s="4">
-        <v>383</v>
-      </c>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
@@ -6961,49 +6430,45 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AC95" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y95" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
-      <c r="AI95" s="5"/>
-      <c r="AJ95" s="5"/>
-      <c r="AK95" s="5"/>
-      <c r="AL95" s="5"/>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
+      <c r="J96" s="4">
+        <v>1093</v>
+      </c>
+      <c r="K96" s="4">
+        <v>323</v>
+      </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="4">
-        <v>1093</v>
-      </c>
-      <c r="O96" s="4">
-        <v>323</v>
-      </c>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -7013,49 +6478,45 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
-      <c r="AA96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AC96" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y96" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
-      <c r="AI96" s="5"/>
-      <c r="AJ96" s="5"/>
-      <c r="AK96" s="5"/>
-      <c r="AL96" s="5"/>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+      <c r="J97" s="4">
+        <v>1135</v>
+      </c>
+      <c r="K97" s="4">
+        <v>450</v>
+      </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-      <c r="N97" s="4">
-        <v>1135</v>
-      </c>
-      <c r="O97" s="4">
-        <v>450</v>
-      </c>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
@@ -7065,49 +6526,45 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="4"/>
-      <c r="AA97" s="4"/>
-      <c r="AB97" s="4"/>
-      <c r="AC97" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y97" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
-      <c r="AI97" s="5"/>
-      <c r="AJ97" s="5"/>
-      <c r="AK97" s="5"/>
-      <c r="AL97" s="5"/>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="J98" s="4">
+        <v>1285</v>
+      </c>
+      <c r="K98" s="4">
+        <v>450</v>
+      </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="4">
-        <v>1285</v>
-      </c>
-      <c r="O98" s="4">
-        <v>450</v>
-      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
@@ -7117,24 +6574,20 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
-      <c r="AA98" s="4"/>
-      <c r="AB98" s="4"/>
-      <c r="AC98" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y98" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
-      <c r="AI98" s="5"/>
-      <c r="AJ98" s="5"/>
-      <c r="AK98" s="5"/>
-      <c r="AL98" s="5"/>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -7159,22 +6612,18 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
-      <c r="AA99" s="4"/>
-      <c r="AB99" s="4"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
-      <c r="AI99" s="5"/>
-      <c r="AJ99" s="5"/>
-      <c r="AK99" s="5"/>
-      <c r="AL99" s="5"/>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -7199,20 +6648,16 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="Z100" s="4"/>
-      <c r="AA100" s="4"/>
-      <c r="AB100" s="4"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
-      <c r="AI100" s="5"/>
-      <c r="AJ100" s="5"/>
-      <c r="AK100" s="5"/>
-      <c r="AL100" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7252,10 +6697,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -7284,10 +6729,10 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -7316,7 +6761,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13"/>
@@ -7346,7 +6791,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="13"/>
@@ -7376,7 +6821,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7406,7 +6851,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7436,7 +6881,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7466,7 +6911,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7496,7 +6941,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7526,7 +6971,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87566D-7DF2-4512-ABBD-22AA9E323005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF158451-59EB-4FA7-B553-546B7545FB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3975" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="4335" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="187">
   <si>
     <t>Type</t>
   </si>
@@ -573,6 +573,9 @@
     <t>1R</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -687,6 +690,9 @@
     <t>T</t>
   </si>
   <si>
+    <t>着点ボタン</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -780,7 +786,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1641,7 +1647,9 @@
         <v>39</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1666,19 +1674,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="6">
         <v>0</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
@@ -1694,11 +1702,11 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>39</v>
@@ -1724,17 +1732,17 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W7" s="6">
         <v>0</v>
       </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
@@ -1747,10 +1755,10 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>39</v>
@@ -1783,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" s="6" t="s">
         <v>39</v>
@@ -1810,10 +1818,12 @@
         <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1835,19 +1845,19 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W9" s="6">
         <v>0</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -1864,14 +1874,14 @@
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1894,14 +1904,14 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W10" s="6">
         <v>0</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -1915,13 +1925,13 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1951,13 +1961,13 @@
         <v>10</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -1978,10 +1988,12 @@
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2003,19 +2015,19 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W12" s="6">
         <v>0</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -2032,14 +2044,14 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2062,14 +2074,14 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W13" s="6">
         <v>0</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -2083,13 +2095,13 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2119,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -2146,10 +2158,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2171,19 +2185,19 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W15" s="6">
         <v>0</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -2200,14 +2214,14 @@
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2230,14 +2244,14 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W16" s="6">
         <v>0</v>
       </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -2251,13 +2265,13 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2287,13 +2301,13 @@
         <v>10</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -2314,10 +2328,12 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2339,19 +2355,19 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W18" s="6">
         <v>0</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2368,14 +2384,14 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2398,14 +2414,14 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W19" s="6">
         <v>0</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
@@ -2419,13 +2435,13 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2455,13 +2471,13 @@
         <v>10</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -2482,10 +2498,12 @@
         <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2507,19 +2525,19 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W21" s="9">
         <v>0</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -2536,14 +2554,14 @@
         <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2566,14 +2584,14 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W22" s="9">
         <v>0</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -2587,13 +2605,13 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2623,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -2650,10 +2668,12 @@
         <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2675,19 +2695,19 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W24" s="9">
         <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -2704,14 +2724,14 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2734,14 +2754,14 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W25" s="9">
         <v>0</v>
       </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -2755,13 +2775,13 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2791,13 +2811,13 @@
         <v>10</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
@@ -2815,13 +2835,15 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2843,19 +2865,19 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W27" s="6">
         <v>0</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -2869,13 +2891,13 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2899,19 +2921,19 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" s="6">
         <v>10</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -2929,13 +2951,15 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2957,19 +2981,19 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
@@ -2983,13 +3007,13 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3013,19 +3037,19 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R30" s="6">
         <v>10</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -3043,13 +3067,15 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -3071,19 +3097,19 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W31" s="6">
         <v>0</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
@@ -3097,13 +3123,13 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3127,19 +3153,19 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R32" s="6">
         <v>10</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -3157,13 +3183,15 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -3185,19 +3213,19 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W33" s="6">
         <v>0</v>
       </c>
       <c r="X33" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
@@ -3211,13 +3239,13 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3241,19 +3269,19 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R34" s="6">
         <v>10</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -3271,10 +3299,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3299,19 +3327,19 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W35" s="6">
         <v>0</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -3325,10 +3353,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3353,19 +3381,19 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W36" s="6">
         <v>0</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -3382,10 +3410,12 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -3407,22 +3437,22 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W37" s="6">
         <v>0</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
@@ -3438,11 +3468,11 @@
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -3466,14 +3496,14 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W38" s="6">
         <v>0</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
@@ -3490,11 +3520,11 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
@@ -3518,14 +3548,14 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W39" s="6">
         <v>0</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
@@ -3539,13 +3569,13 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3575,13 +3605,13 @@
         <v>10</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -3599,13 +3629,15 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3627,22 +3659,22 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="W41" s="6">
         <v>1</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
@@ -3658,11 +3690,11 @@
         <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3686,14 +3718,14 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W42" s="9">
         <v>0</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -3710,11 +3742,11 @@
         <v>29</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3738,14 +3770,14 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W43" s="9">
         <v>0</v>
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
@@ -3762,11 +3794,11 @@
         <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3790,17 +3822,17 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W44" s="9">
         <v>0</v>
       </c>
       <c r="X44" s="3"/>
       <c r="Y44" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
@@ -3816,11 +3848,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3844,14 +3876,14 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W45" s="9">
         <v>0</v>
       </c>
       <c r="X45" s="3"/>
       <c r="Y45" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z45" s="11"/>
       <c r="AA45" s="5"/>
@@ -3868,11 +3900,11 @@
         <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3896,14 +3928,14 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W46" s="9">
         <v>0</v>
       </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z46" s="11"/>
       <c r="AA46" s="5"/>
@@ -3920,11 +3952,11 @@
         <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3948,14 +3980,14 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W47" s="9">
         <v>0</v>
       </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z47" s="11"/>
       <c r="AA47" s="5"/>
@@ -3972,11 +4004,11 @@
         <v>29</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -4000,14 +4032,14 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W48" s="9">
         <v>0</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z48" s="11"/>
       <c r="AA48" s="5"/>
@@ -4024,11 +4056,11 @@
         <v>29</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4052,17 +4084,17 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W49" s="9">
         <v>0</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -4078,11 +4110,11 @@
         <v>29</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -4106,14 +4138,14 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W50" s="9">
         <v>0</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z50" s="11"/>
       <c r="AA50" s="5"/>
@@ -4130,11 +4162,11 @@
         <v>29</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4158,14 +4190,14 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W51" s="9">
         <v>0</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z51" s="11"/>
       <c r="AA51" s="5"/>
@@ -4182,11 +4214,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4210,14 +4242,14 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W52" s="9">
         <v>0</v>
       </c>
       <c r="X52" s="3"/>
       <c r="Y52" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z52" s="11"/>
       <c r="AA52" s="5"/>
@@ -4234,11 +4266,11 @@
         <v>29</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -4262,14 +4294,14 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W53" s="9">
         <v>0</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z53" s="11"/>
       <c r="AA53" s="5"/>
@@ -4286,11 +4318,11 @@
         <v>29</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -4314,14 +4346,14 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W54" s="9">
         <v>0</v>
       </c>
       <c r="X54" s="3"/>
       <c r="Y54" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z54" s="11"/>
       <c r="AA54" s="5"/>
@@ -4338,11 +4370,11 @@
         <v>29</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -4366,14 +4398,14 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W55" s="9">
         <v>0</v>
       </c>
       <c r="X55" s="3"/>
       <c r="Y55" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -4390,11 +4422,11 @@
         <v>29</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4418,14 +4450,14 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W56" s="9">
         <v>0</v>
       </c>
       <c r="X56" s="3"/>
       <c r="Y56" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
@@ -4442,11 +4474,11 @@
         <v>29</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4470,17 +4502,17 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W57" s="9">
         <v>0</v>
       </c>
       <c r="X57" s="3"/>
       <c r="Y57" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
@@ -4496,11 +4528,11 @@
         <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4524,14 +4556,14 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W58" s="9">
         <v>0</v>
       </c>
       <c r="X58" s="3"/>
       <c r="Y58" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
@@ -4548,11 +4580,11 @@
         <v>29</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -4576,14 +4608,14 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W59" s="9">
         <v>0</v>
       </c>
       <c r="X59" s="3"/>
       <c r="Y59" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z59" s="11"/>
       <c r="AA59" s="5"/>
@@ -4600,11 +4632,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4628,14 +4660,14 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W60" s="9">
         <v>0</v>
       </c>
       <c r="X60" s="3"/>
       <c r="Y60" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z60" s="11"/>
       <c r="AA60" s="5"/>
@@ -4652,11 +4684,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -4680,14 +4712,14 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W61" s="9">
         <v>0</v>
       </c>
       <c r="X61" s="3"/>
       <c r="Y61" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z61" s="11"/>
       <c r="AA61" s="5"/>
@@ -4704,11 +4736,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4732,14 +4764,14 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W62" s="9">
         <v>0</v>
       </c>
       <c r="X62" s="3"/>
       <c r="Y62" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z62" s="11"/>
       <c r="AA62" s="5"/>
@@ -4756,11 +4788,11 @@
         <v>29</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -4784,14 +4816,14 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W63" s="9">
         <v>0</v>
       </c>
       <c r="X63" s="3"/>
       <c r="Y63" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z63" s="11"/>
       <c r="AA63" s="5"/>
@@ -4808,11 +4840,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -4836,14 +4868,14 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W64" s="9">
         <v>0</v>
       </c>
       <c r="X64" s="3"/>
       <c r="Y64" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z64" s="11"/>
       <c r="AA64" s="5"/>
@@ -4860,11 +4892,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -4888,14 +4920,14 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W65" s="9">
         <v>0</v>
       </c>
       <c r="X65" s="3"/>
       <c r="Y65" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z65" s="11"/>
       <c r="AA65" s="5"/>
@@ -4912,11 +4944,11 @@
         <v>29</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -4940,14 +4972,14 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W66" s="9">
         <v>0</v>
       </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z66" s="11"/>
       <c r="AA66" s="5"/>
@@ -4964,11 +4996,11 @@
         <v>29</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -4992,14 +5024,14 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W67" s="9">
         <v>0</v>
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z67" s="11"/>
       <c r="AA67" s="5"/>
@@ -5016,11 +5048,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -5044,14 +5076,14 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W68" s="9">
         <v>0</v>
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z68" s="11"/>
       <c r="AA68" s="5"/>
@@ -5068,11 +5100,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -5096,14 +5128,14 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W69" s="9">
         <v>0</v>
       </c>
       <c r="X69" s="3"/>
       <c r="Y69" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z69" s="11"/>
       <c r="AA69" s="5"/>
@@ -5120,11 +5152,11 @@
         <v>29</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -5148,14 +5180,14 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W70" s="9">
         <v>0</v>
       </c>
       <c r="X70" s="3"/>
       <c r="Y70" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z70" s="11"/>
       <c r="AA70" s="5"/>
@@ -5172,11 +5204,11 @@
         <v>29</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -5200,17 +5232,17 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W71" s="9">
         <v>0</v>
       </c>
       <c r="X71" s="3"/>
       <c r="Y71" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z71" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
@@ -5226,11 +5258,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -5254,14 +5286,14 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W72" s="9">
         <v>0</v>
       </c>
       <c r="X72" s="3"/>
       <c r="Y72" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z72" s="11"/>
       <c r="AA72" s="5"/>
@@ -5278,11 +5310,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -5306,14 +5338,14 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W73" s="9">
         <v>0</v>
       </c>
       <c r="X73" s="3"/>
       <c r="Y73" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z73" s="11"/>
       <c r="AA73" s="5"/>
@@ -5330,11 +5362,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -5358,17 +5390,17 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W74" s="9">
         <v>0</v>
       </c>
       <c r="X74" s="3"/>
       <c r="Y74" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
@@ -5384,11 +5416,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -5412,14 +5444,14 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W75" s="9">
         <v>0</v>
       </c>
       <c r="X75" s="3"/>
       <c r="Y75" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z75" s="11"/>
       <c r="AA75" s="5"/>
@@ -5436,11 +5468,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5464,14 +5496,14 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W76" s="9">
         <v>0</v>
       </c>
       <c r="X76" s="3"/>
       <c r="Y76" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z76" s="11"/>
       <c r="AA76" s="5"/>
@@ -5488,11 +5520,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -5516,14 +5548,14 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W77" s="9">
         <v>0</v>
       </c>
       <c r="X77" s="3"/>
       <c r="Y77" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z77" s="11"/>
       <c r="AA77" s="5"/>
@@ -5540,11 +5572,11 @@
         <v>29</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -5568,14 +5600,14 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W78" s="9">
         <v>0</v>
       </c>
       <c r="X78" s="3"/>
       <c r="Y78" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z78" s="11"/>
       <c r="AA78" s="5"/>
@@ -5592,11 +5624,11 @@
         <v>29</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -5620,14 +5652,14 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W79" s="9">
         <v>0</v>
       </c>
       <c r="X79" s="3"/>
       <c r="Y79" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z79" s="11"/>
       <c r="AA79" s="5"/>
@@ -5644,11 +5676,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5672,14 +5704,14 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W80" s="9">
         <v>0</v>
       </c>
       <c r="X80" s="3"/>
       <c r="Y80" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z80" s="11"/>
       <c r="AA80" s="5"/>
@@ -5696,11 +5728,11 @@
         <v>29</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -5724,14 +5756,14 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W81" s="9">
         <v>0</v>
       </c>
       <c r="X81" s="3"/>
       <c r="Y81" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z81" s="11"/>
       <c r="AA81" s="5"/>
@@ -5748,11 +5780,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -5776,14 +5808,14 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W82" s="9">
         <v>0</v>
       </c>
       <c r="X82" s="3"/>
       <c r="Y82" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z82" s="11"/>
       <c r="AA82" s="5"/>
@@ -5800,11 +5832,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -5828,14 +5860,14 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W83" s="9">
         <v>0</v>
       </c>
       <c r="X83" s="3"/>
       <c r="Y83" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z83" s="11"/>
       <c r="AA83" s="5"/>
@@ -5852,11 +5884,11 @@
         <v>29</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -5880,14 +5912,14 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W84" s="9">
         <v>0</v>
       </c>
       <c r="X84" s="3"/>
       <c r="Y84" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z84" s="11"/>
       <c r="AA84" s="5"/>
@@ -5904,11 +5936,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -5932,14 +5964,14 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W85" s="9">
         <v>0</v>
       </c>
       <c r="X85" s="3"/>
       <c r="Y85" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
@@ -5956,11 +5988,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -5984,14 +6016,14 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W86" s="9">
         <v>0</v>
       </c>
       <c r="X86" s="3"/>
       <c r="Y86" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
@@ -6008,11 +6040,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -6036,14 +6068,14 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W87" s="9">
         <v>0</v>
       </c>
       <c r="X87" s="3"/>
       <c r="Y87" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
@@ -6060,11 +6092,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -6088,14 +6120,14 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W88" s="9">
         <v>0</v>
       </c>
       <c r="X88" s="3"/>
       <c r="Y88" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
@@ -6109,14 +6141,14 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -6143,7 +6175,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
       <c r="Y89" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
@@ -6157,14 +6189,14 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -6191,7 +6223,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
@@ -6205,14 +6237,14 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -6239,7 +6271,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
@@ -6253,14 +6285,14 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6287,7 +6319,7 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Y92" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
@@ -6301,14 +6333,14 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6335,7 +6367,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
       <c r="Y93" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
@@ -6349,14 +6381,14 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -6383,7 +6415,7 @@
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
@@ -6397,14 +6429,14 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -6431,7 +6463,7 @@
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Y95" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
@@ -6445,14 +6477,14 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -6479,7 +6511,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
       <c r="Y96" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
@@ -6493,14 +6525,14 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -6527,7 +6559,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
@@ -6541,14 +6573,14 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -6575,7 +6607,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Y98" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
@@ -6697,10 +6729,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -6729,10 +6761,10 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6761,7 +6793,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13"/>
@@ -6911,7 +6943,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -6941,7 +6973,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -6971,7 +7003,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF158451-59EB-4FA7-B553-546B7545FB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0E04A-174F-406B-BF99-DA7F3BFF3B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="4335" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="5145" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>1R</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>0,1</t>
@@ -591,7 +591,7 @@
     <t>1R_G</t>
   </si>
   <si>
-    <t>信号機</t>
+    <t>信号機表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -750,7 +750,7 @@
     <t>P21_PG</t>
   </si>
   <si>
-    <t>転てつ器</t>
+    <t>転てつ器表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -786,7 +786,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -795,7 +795,7 @@
     <t>74T_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -948,7 +948,7 @@
     <t>停電_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0E04A-174F-406B-BF99-DA7F3BFF3B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB0FB7A-DBED-4F32-970E-D52EBEFBE1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="5145" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="4785" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
-（定位=N, 反位=R）（省略可）</t>
+（NRC型）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
-（定位=N, 反位=R）（省略可）</t>
+（NRC型）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>制御条件に含む方向てこの名称（省略可）</t>
         </r>
       </text>
     </comment>
@@ -171,11 +171,38 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>制御条件に含む方向てこ状態
+（LNR型）（省略可）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -432,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="192">
   <si>
     <t>Type</t>
   </si>
@@ -478,6 +505,12 @@
   </si>
   <si>
     <t>PointValueB</t>
+  </si>
+  <si>
+    <t>DirectionName</t>
+  </si>
+  <si>
+    <t>DirectionValue</t>
   </si>
   <si>
     <t>X</t>
@@ -771,6 +804,9 @@
     <t>駅扱切換</t>
   </si>
   <si>
+    <t>物理鍵てこ</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -1008,10 +1044,16 @@
     <t>N</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Label</t>
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1375,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1346,14 +1388,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="23" width="15.140625" customWidth="1"/>
-    <col min="24" max="24" width="37.5703125" customWidth="1"/>
-    <col min="25" max="25" width="100.140625" customWidth="1"/>
-    <col min="26" max="26" width="62.5703125" customWidth="1"/>
-    <col min="27" max="34" width="14.5703125" customWidth="1"/>
+    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="37.5703125" customWidth="1"/>
+    <col min="27" max="27" width="100.140625" customWidth="1"/>
+    <col min="28" max="28" width="62.5703125" customWidth="1"/>
+    <col min="29" max="36" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,27 +1468,33 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1455,14 +1503,14 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1474,11 +1522,11 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -1486,13 +1534,15 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1501,20 +1551,20 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
         <v>850</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <v>78</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N3" s="6">
         <v>79</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>110</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1524,11 +1574,11 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -1536,16 +1586,18 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1553,20 +1605,20 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>6</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="6">
         <v>37</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>63</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1575,14 +1627,14 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -1590,13 +1642,15 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1605,16 +1659,16 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6">
-        <f>J3+11</f>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <f>L3+11</f>
         <v>861</v>
       </c>
-      <c r="K5" s="6">
-        <f>K3-68</f>
+      <c r="M5" s="6">
+        <f>M3-68</f>
         <v>10</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1626,43 +1680,45 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="AA5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="7"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>431</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>311</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1670,59 +1726,61 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="6" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="6">
         <v>0</v>
       </c>
-      <c r="X6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="AA6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>497</v>
       </c>
-      <c r="K7" s="4">
+      <c r="M7" s="4">
         <v>317</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1731,37 +1789,39 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="6">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="6">
         <v>0</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1769,41 +1829,41 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>14</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <v>20</v>
       </c>
-      <c r="L8" s="6">
+      <c r="N8" s="6">
         <v>11</v>
       </c>
-      <c r="M8" s="6">
+      <c r="O8" s="6">
         <v>11</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="6">
         <v>1</v>
       </c>
-      <c r="R8" s="6">
+      <c r="T8" s="6">
         <v>10</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="X8" s="4"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -1812,31 +1872,33 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>528</v>
       </c>
-      <c r="K9" s="4">
+      <c r="M9" s="4">
         <v>371</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1844,23 +1906,23 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" s="6">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="6">
         <v>0</v>
       </c>
-      <c r="X9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="Z9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -1868,33 +1930,35 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>492</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>427</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1903,18 +1967,18 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="6">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="6">
         <v>0</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -1922,16 +1986,18 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1939,41 +2005,41 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>14</v>
       </c>
-      <c r="K11" s="6">
+      <c r="M11" s="6">
         <v>20</v>
       </c>
-      <c r="L11" s="6">
+      <c r="N11" s="6">
         <v>11</v>
       </c>
-      <c r="M11" s="6">
+      <c r="O11" s="6">
         <v>11</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="6">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="6">
         <v>2</v>
       </c>
-      <c r="R11" s="6">
+      <c r="T11" s="6">
         <v>10</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="U11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="V11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="X11" s="4"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -1982,31 +2048,33 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>882</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>311</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2014,23 +2082,23 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" s="6">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="6">
         <v>0</v>
       </c>
-      <c r="X12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="Z12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -2038,33 +2106,35 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>959</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>309</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2073,18 +2143,18 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="6">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" s="6">
         <v>0</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
@@ -2092,16 +2162,18 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2109,41 +2181,41 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="6">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>14</v>
       </c>
-      <c r="K14" s="6">
+      <c r="M14" s="6">
         <v>20</v>
       </c>
-      <c r="L14" s="6">
+      <c r="N14" s="6">
         <v>11</v>
       </c>
-      <c r="M14" s="6">
+      <c r="O14" s="6">
         <v>11</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="6">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="6">
         <v>3</v>
       </c>
-      <c r="R14" s="6">
+      <c r="T14" s="6">
         <v>10</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="X14" s="4"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2152,31 +2224,33 @@
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>882</v>
       </c>
-      <c r="K15" s="4">
+      <c r="M15" s="4">
         <v>371</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2184,23 +2258,23 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="6">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" s="6">
         <v>0</v>
       </c>
-      <c r="X15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="Z15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -2208,33 +2282,35 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>948</v>
       </c>
-      <c r="K16" s="4">
+      <c r="M16" s="4">
         <v>407</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2243,18 +2319,18 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="6">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" s="6">
         <v>0</v>
       </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -2262,16 +2338,18 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2279,41 +2357,41 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="6">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>14</v>
       </c>
-      <c r="K17" s="6">
+      <c r="M17" s="6">
         <v>20</v>
       </c>
-      <c r="L17" s="6">
+      <c r="N17" s="6">
         <v>11</v>
       </c>
-      <c r="M17" s="6">
+      <c r="O17" s="6">
         <v>11</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="6">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="6">
         <v>4</v>
       </c>
-      <c r="R17" s="6">
+      <c r="T17" s="6">
         <v>10</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="X17" s="4"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2322,31 +2400,33 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>1168</v>
       </c>
-      <c r="K18" s="4">
+      <c r="M18" s="4">
         <v>371</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2354,23 +2434,23 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W18" s="6">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" s="6">
         <v>0</v>
       </c>
-      <c r="X18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="Z18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -2378,33 +2458,35 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>1132</v>
       </c>
-      <c r="K19" s="4">
+      <c r="M19" s="4">
         <v>407</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2413,18 +2495,18 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W19" s="6">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="6">
         <v>0</v>
       </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2432,16 +2514,18 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2449,41 +2533,41 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>14</v>
       </c>
-      <c r="K20" s="6">
+      <c r="M20" s="6">
         <v>20</v>
       </c>
-      <c r="L20" s="6">
+      <c r="N20" s="6">
         <v>11</v>
       </c>
-      <c r="M20" s="6">
+      <c r="O20" s="6">
         <v>11</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="6">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="6">
         <v>5</v>
       </c>
-      <c r="R20" s="6">
+      <c r="T20" s="6">
         <v>10</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="X20" s="4"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2492,31 +2576,33 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>824</v>
       </c>
-      <c r="K21" s="4">
+      <c r="M21" s="4">
         <v>311</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2524,23 +2610,23 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="9">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="9">
         <v>0</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
+      <c r="Z21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
@@ -2548,33 +2634,35 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>941</v>
       </c>
-      <c r="K22" s="4">
+      <c r="M22" s="4">
         <v>308</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2583,18 +2671,18 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W22" s="9">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="9">
         <v>0</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -2602,16 +2690,18 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2619,41 +2709,41 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="6">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>14</v>
       </c>
-      <c r="K23" s="6">
+      <c r="M23" s="6">
         <v>20</v>
       </c>
-      <c r="L23" s="6">
+      <c r="N23" s="6">
         <v>11</v>
       </c>
-      <c r="M23" s="6">
+      <c r="O23" s="6">
         <v>11</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="6">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="6">
         <v>11</v>
       </c>
-      <c r="R23" s="6">
+      <c r="T23" s="6">
         <v>10</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="X23" s="4"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -2662,31 +2752,33 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>1034</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="4">
         <v>311</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2694,23 +2786,23 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W24" s="9">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y24" s="9">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
+      <c r="Z24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
@@ -2718,33 +2810,35 @@
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
         <v>1005</v>
       </c>
-      <c r="K25" s="4">
+      <c r="M25" s="4">
         <v>318</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2753,18 +2847,18 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W25" s="9">
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="9">
         <v>0</v>
       </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -2772,16 +2866,18 @@
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2789,41 +2885,41 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>14</v>
       </c>
-      <c r="K26" s="6">
+      <c r="M26" s="6">
         <v>20</v>
       </c>
-      <c r="L26" s="6">
+      <c r="N26" s="6">
         <v>11</v>
       </c>
-      <c r="M26" s="6">
+      <c r="O26" s="6">
         <v>11</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="6">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="6">
         <v>12</v>
       </c>
-      <c r="R26" s="6">
+      <c r="T26" s="6">
         <v>10</v>
       </c>
-      <c r="S26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="X26" s="4"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -2832,31 +2928,33 @@
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
         <v>439</v>
       </c>
-      <c r="K27" s="4">
+      <c r="M27" s="4">
         <v>384</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2864,23 +2962,23 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W27" s="6">
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" s="6">
         <v>0</v>
       </c>
-      <c r="X27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
+      <c r="Z27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
@@ -2888,16 +2986,18 @@
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2905,42 +3005,42 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="6">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="K28" s="6">
+      <c r="M28" s="6">
         <v>23</v>
       </c>
-      <c r="L28" s="6">
+      <c r="N28" s="6">
         <v>15</v>
       </c>
-      <c r="M28" s="6">
+      <c r="O28" s="6">
         <v>12</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R28" s="6">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="6">
         <v>10</v>
       </c>
-      <c r="S28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -2948,31 +3048,33 @@
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
         <v>780</v>
       </c>
-      <c r="K29" s="4">
+      <c r="M29" s="4">
         <v>324</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2980,23 +3082,23 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="V29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W29" s="6">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
@@ -3004,16 +3106,18 @@
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3021,42 +3125,42 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="6">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
         <v>5</v>
       </c>
-      <c r="K30" s="6">
+      <c r="M30" s="6">
         <v>23</v>
       </c>
-      <c r="L30" s="6">
+      <c r="N30" s="6">
         <v>15</v>
       </c>
-      <c r="M30" s="6">
+      <c r="O30" s="6">
         <v>12</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R30" s="6">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" s="6">
         <v>10</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -3064,31 +3168,33 @@
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
         <v>780</v>
       </c>
-      <c r="K31" s="4">
+      <c r="M31" s="4">
         <v>384</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3096,23 +3202,23 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W31" s="6">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="6">
         <v>0</v>
       </c>
-      <c r="X31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
+      <c r="Z31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
@@ -3120,16 +3226,18 @@
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3137,42 +3245,42 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="6">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
         <v>5</v>
       </c>
-      <c r="K32" s="6">
+      <c r="M32" s="6">
         <v>23</v>
       </c>
-      <c r="L32" s="6">
+      <c r="N32" s="6">
         <v>15</v>
       </c>
-      <c r="M32" s="6">
+      <c r="O32" s="6">
         <v>12</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R32" s="6">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T32" s="6">
         <v>10</v>
       </c>
-      <c r="S32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -3180,31 +3288,33 @@
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
         <v>1251</v>
       </c>
-      <c r="K33" s="4">
+      <c r="M33" s="4">
         <v>324</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -3212,23 +3322,23 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W33" s="6">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y33" s="6">
         <v>0</v>
       </c>
-      <c r="X33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
+      <c r="Z33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
@@ -3236,16 +3346,18 @@
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3253,42 +3365,42 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="6">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
         <v>5</v>
       </c>
-      <c r="K34" s="6">
+      <c r="M34" s="6">
         <v>23</v>
       </c>
-      <c r="L34" s="6">
+      <c r="N34" s="6">
         <v>15</v>
       </c>
-      <c r="M34" s="6">
+      <c r="O34" s="6">
         <v>12</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R34" s="6">
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T34" s="6">
         <v>10</v>
       </c>
-      <c r="S34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T34" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -3296,13 +3408,15 @@
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3311,14 +3425,14 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>304</v>
       </c>
-      <c r="K35" s="4">
+      <c r="M35" s="4">
         <v>551</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -3326,23 +3440,23 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W35" s="6">
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y35" s="6">
         <v>0</v>
       </c>
-      <c r="X35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
+      <c r="Z35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -3350,13 +3464,15 @@
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3365,14 +3481,14 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>1111</v>
       </c>
-      <c r="K36" s="4">
+      <c r="M36" s="4">
         <v>551</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3380,23 +3496,23 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="4" t="s">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="V36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W36" s="6">
-        <v>0</v>
-      </c>
-      <c r="X36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
+      <c r="AA36" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3404,31 +3520,33 @@
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>958</v>
       </c>
-      <c r="K37" s="4">
+      <c r="M37" s="4">
         <v>64</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3436,57 +3554,59 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="W37" s="6">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y37" s="6">
         <v>0</v>
       </c>
-      <c r="X37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z37" s="5" t="s">
+      <c r="Z37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
+      <c r="AA37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
         <v>956</v>
       </c>
-      <c r="K38" s="4">
+      <c r="M38" s="4">
         <v>45</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3495,18 +3615,18 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W38" s="6">
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y38" s="6">
         <v>0</v>
       </c>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -3514,31 +3634,33 @@
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
         <v>990</v>
       </c>
-      <c r="K39" s="4">
+      <c r="M39" s="4">
         <v>45</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -3547,18 +3669,18 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W39" s="6">
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y39" s="6">
         <v>0</v>
       </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -3566,16 +3688,18 @@
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3583,41 +3707,41 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="6">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>14</v>
       </c>
-      <c r="K40" s="6">
+      <c r="M40" s="6">
         <v>20</v>
       </c>
-      <c r="L40" s="6">
+      <c r="N40" s="6">
         <v>11</v>
       </c>
-      <c r="M40" s="6">
+      <c r="O40" s="6">
         <v>11</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="6">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="6">
         <v>21</v>
       </c>
-      <c r="R40" s="6">
+      <c r="T40" s="6">
         <v>10</v>
       </c>
-      <c r="S40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T40" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="U40" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="X40" s="4"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -3626,31 +3750,33 @@
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>1347</v>
       </c>
-      <c r="K41" s="4">
+      <c r="M41" s="4">
         <v>64</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3658,57 +3784,59 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="V41" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="W41" s="6">
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y41" s="6">
         <v>1</v>
       </c>
-      <c r="X41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y41" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
+      <c r="Z41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>1345</v>
       </c>
-      <c r="K42" s="4">
+      <c r="M42" s="4">
         <v>45</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3717,18 +3845,18 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W42" s="9">
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y42" s="9">
         <v>0</v>
       </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
@@ -3736,31 +3864,33 @@
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
         <v>1379</v>
       </c>
-      <c r="K43" s="4">
+      <c r="M43" s="4">
         <v>45</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3769,18 +3899,18 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W43" s="9">
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y43" s="9">
         <v>0</v>
       </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -3788,31 +3918,33 @@
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>52</v>
       </c>
-      <c r="K44" s="4">
+      <c r="M44" s="4">
         <v>334</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -3821,52 +3953,54 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W44" s="9">
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y44" s="9">
         <v>0</v>
       </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB44" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
         <v>82</v>
       </c>
-      <c r="K45" s="4">
+      <c r="M45" s="4">
         <v>334</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -3875,50 +4009,52 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W45" s="9">
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y45" s="9">
         <v>0</v>
       </c>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB45" s="11"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>107</v>
       </c>
-      <c r="K46" s="4">
+      <c r="M46" s="4">
         <v>334</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -3927,50 +4063,52 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W46" s="9">
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y46" s="9">
         <v>0</v>
       </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB46" s="11"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>137</v>
       </c>
-      <c r="K47" s="4">
+      <c r="M47" s="4">
         <v>334</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -3979,50 +4117,52 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W47" s="9">
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y47" s="9">
         <v>0</v>
       </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB47" s="11"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
         <v>107</v>
       </c>
-      <c r="K48" s="4">
+      <c r="M48" s="4">
         <v>334</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4031,50 +4171,52 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W48" s="9">
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y48" s="9">
         <v>0</v>
       </c>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB48" s="11"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
         <v>129</v>
       </c>
-      <c r="K49" s="4">
+      <c r="M49" s="4">
         <v>289</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4083,52 +4225,54 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W49" s="9">
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y49" s="9">
         <v>0</v>
       </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z49" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB49" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4">
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
         <v>161</v>
       </c>
-      <c r="K50" s="4">
+      <c r="M50" s="4">
         <v>274</v>
       </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4137,50 +4281,52 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W50" s="9">
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y50" s="9">
         <v>0</v>
       </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB50" s="11"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
         <v>243</v>
       </c>
-      <c r="K51" s="4">
+      <c r="M51" s="4">
         <v>274</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4189,50 +4335,52 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W51" s="9">
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y51" s="9">
         <v>0</v>
       </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB51" s="11"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
         <v>161</v>
       </c>
-      <c r="K52" s="4">
+      <c r="M52" s="4">
         <v>334</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4241,50 +4389,52 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W52" s="9">
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y52" s="9">
         <v>0</v>
       </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB52" s="11"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
         <v>243</v>
       </c>
-      <c r="K53" s="4">
+      <c r="M53" s="4">
         <v>334</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -4293,50 +4443,52 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W53" s="9">
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y53" s="9">
         <v>0</v>
       </c>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB53" s="11"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4">
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
         <v>267</v>
       </c>
-      <c r="K54" s="4">
+      <c r="M54" s="4">
         <v>334</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -4345,50 +4497,52 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W54" s="9">
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y54" s="9">
         <v>0</v>
       </c>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB54" s="11"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4">
         <v>325</v>
       </c>
-      <c r="K55" s="4">
+      <c r="M55" s="4">
         <v>334</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4397,18 +4551,18 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W55" s="9">
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y55" s="9">
         <v>0</v>
       </c>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -4416,31 +4570,33 @@
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4">
         <v>267</v>
       </c>
-      <c r="K56" s="4">
+      <c r="M56" s="4">
         <v>274</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -4449,18 +4605,18 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W56" s="9">
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y56" s="9">
         <v>0</v>
       </c>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -4468,31 +4624,33 @@
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4">
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4">
         <v>307</v>
       </c>
-      <c r="K57" s="4">
+      <c r="M57" s="4">
         <v>289</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -4501,52 +4659,54 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W57" s="9">
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y57" s="9">
         <v>0</v>
       </c>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB57" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4">
         <v>325</v>
       </c>
-      <c r="K58" s="4">
+      <c r="M58" s="4">
         <v>334</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4555,18 +4715,18 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W58" s="9">
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y58" s="9">
         <v>0</v>
       </c>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -4574,31 +4734,33 @@
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="4">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4">
         <v>350</v>
       </c>
-      <c r="K59" s="4">
+      <c r="M59" s="4">
         <v>334</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4607,50 +4769,52 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W59" s="9">
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y59" s="9">
         <v>0</v>
       </c>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB59" s="11"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4">
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4">
         <v>380</v>
       </c>
-      <c r="K60" s="4">
+      <c r="M60" s="4">
         <v>334</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4659,50 +4823,52 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W60" s="9">
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y60" s="9">
         <v>0</v>
       </c>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB60" s="11"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4">
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4">
         <v>410</v>
       </c>
-      <c r="K61" s="4">
+      <c r="M61" s="4">
         <v>334</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4711,50 +4877,52 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W61" s="9">
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y61" s="9">
         <v>0</v>
       </c>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB61" s="11"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4">
         <v>413</v>
       </c>
-      <c r="K62" s="4">
+      <c r="M62" s="4">
         <v>394</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4763,50 +4931,52 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W62" s="9">
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y62" s="9">
         <v>0</v>
       </c>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB62" s="11"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="4">
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4">
         <v>480</v>
       </c>
-      <c r="K63" s="4">
+      <c r="M63" s="4">
         <v>394</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4815,50 +4985,52 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W63" s="9">
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y63" s="9">
         <v>0</v>
       </c>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB63" s="11"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4">
         <v>568</v>
       </c>
-      <c r="K64" s="4">
+      <c r="M64" s="4">
         <v>334</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4867,50 +5039,52 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W64" s="9">
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y64" s="9">
         <v>0</v>
       </c>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB64" s="11"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4">
         <v>812</v>
       </c>
-      <c r="K65" s="4">
+      <c r="M65" s="4">
         <v>334</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -4919,50 +5093,52 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W65" s="9">
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y65" s="9">
         <v>0</v>
       </c>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB65" s="11"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4">
         <v>568</v>
       </c>
-      <c r="K66" s="4">
+      <c r="M66" s="4">
         <v>394</v>
       </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -4971,50 +5147,52 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
-      <c r="V66" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W66" s="9">
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y66" s="9">
         <v>0</v>
       </c>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB66" s="11"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
         <v>812</v>
       </c>
-      <c r="K67" s="4">
+      <c r="M67" s="4">
         <v>394</v>
       </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -5023,50 +5201,52 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W67" s="9">
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y67" s="9">
         <v>0</v>
       </c>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB67" s="11"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4">
         <v>939</v>
       </c>
-      <c r="K68" s="4">
+      <c r="M68" s="4">
         <v>394</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -5075,50 +5255,52 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W68" s="9">
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y68" s="9">
         <v>0</v>
       </c>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z68" s="11"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB68" s="11"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4">
         <v>1005</v>
       </c>
-      <c r="K69" s="4">
+      <c r="M69" s="4">
         <v>394</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -5127,50 +5309,52 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W69" s="9">
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y69" s="9">
         <v>0</v>
       </c>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB69" s="11"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4">
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4">
         <v>939</v>
       </c>
-      <c r="K70" s="4">
+      <c r="M70" s="4">
         <v>394</v>
       </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5179,50 +5363,52 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W70" s="9">
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y70" s="9">
         <v>0</v>
       </c>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB70" s="11"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4">
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4">
         <v>963</v>
       </c>
-      <c r="K71" s="4">
+      <c r="M71" s="4">
         <v>372</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5231,52 +5417,54 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W71" s="9">
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y71" s="9">
         <v>0</v>
       </c>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z71" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB71" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4">
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
         <v>939</v>
       </c>
-      <c r="K72" s="4">
+      <c r="M72" s="4">
         <v>334</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -5285,50 +5473,52 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W72" s="9">
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y72" s="9">
         <v>0</v>
       </c>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB72" s="11"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4">
         <v>1005</v>
       </c>
-      <c r="K73" s="4">
+      <c r="M73" s="4">
         <v>334</v>
       </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -5337,50 +5527,52 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W73" s="9">
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y73" s="9">
         <v>0</v>
       </c>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB73" s="11"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4">
         <v>983</v>
       </c>
-      <c r="K74" s="4">
+      <c r="M74" s="4">
         <v>352</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5389,52 +5581,54 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W74" s="9">
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y74" s="9">
         <v>0</v>
       </c>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z74" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB74" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="4">
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4">
         <v>1005</v>
       </c>
-      <c r="K75" s="4">
+      <c r="M75" s="4">
         <v>334</v>
       </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -5443,50 +5637,52 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W75" s="9">
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y75" s="9">
         <v>0</v>
       </c>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB75" s="11"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="4">
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4">
         <v>1074</v>
       </c>
-      <c r="K76" s="4">
+      <c r="M76" s="4">
         <v>334</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -5495,50 +5691,52 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W76" s="9">
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y76" s="9">
         <v>0</v>
       </c>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB76" s="11"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="4">
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4">
         <v>1232</v>
       </c>
-      <c r="K77" s="4">
+      <c r="M77" s="4">
         <v>334</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -5547,50 +5745,52 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W77" s="9">
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y77" s="9">
         <v>0</v>
       </c>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB77" s="11"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4">
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4">
         <v>1053</v>
       </c>
-      <c r="K78" s="4">
+      <c r="M78" s="4">
         <v>394</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -5599,50 +5799,52 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W78" s="9">
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y78" s="9">
         <v>0</v>
       </c>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB78" s="11"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4">
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4">
         <v>1119</v>
       </c>
-      <c r="K79" s="4">
+      <c r="M79" s="4">
         <v>394</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -5651,50 +5853,52 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W79" s="9">
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y79" s="9">
         <v>0</v>
       </c>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z79" s="11"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB79" s="11"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4">
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4">
         <v>1217</v>
       </c>
-      <c r="K80" s="4">
+      <c r="M80" s="4">
         <v>394</v>
       </c>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -5703,50 +5907,52 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W80" s="9">
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y80" s="9">
         <v>0</v>
       </c>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB80" s="11"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4">
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4">
         <v>1273</v>
       </c>
-      <c r="K81" s="4">
+      <c r="M81" s="4">
         <v>394</v>
       </c>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -5755,50 +5961,52 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W81" s="9">
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y81" s="9">
         <v>0</v>
       </c>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB81" s="11"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="4">
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4">
         <v>1317</v>
       </c>
-      <c r="K82" s="4">
+      <c r="M82" s="4">
         <v>394</v>
       </c>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -5807,50 +6015,52 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W82" s="9">
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y82" s="9">
         <v>0</v>
       </c>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB82" s="11"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4">
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4">
         <v>1347</v>
       </c>
-      <c r="K83" s="4">
+      <c r="M83" s="4">
         <v>394</v>
       </c>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -5859,50 +6069,52 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W83" s="9">
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y83" s="9">
         <v>0</v>
       </c>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB83" s="11"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4">
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4">
         <v>1377</v>
       </c>
-      <c r="K84" s="4">
+      <c r="M84" s="4">
         <v>394</v>
       </c>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -5911,50 +6123,52 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W84" s="9">
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y84" s="9">
         <v>0</v>
       </c>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB84" s="11"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4">
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4">
         <v>54</v>
       </c>
-      <c r="K85" s="4">
+      <c r="M85" s="4">
         <v>45</v>
       </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -5963,18 +6177,18 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W85" s="9">
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y85" s="9">
         <v>0</v>
       </c>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
@@ -5982,31 +6196,33 @@
       <c r="AF85" s="5"/>
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4">
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4">
         <v>102</v>
       </c>
-      <c r="K86" s="4">
+      <c r="M86" s="4">
         <v>45</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6015,18 +6231,18 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W86" s="9">
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y86" s="9">
         <v>0</v>
       </c>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
@@ -6034,31 +6250,33 @@
       <c r="AF86" s="5"/>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="4">
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4">
         <v>734</v>
       </c>
-      <c r="K87" s="4">
+      <c r="M87" s="4">
         <v>567</v>
       </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6067,18 +6285,18 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W87" s="9">
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y87" s="9">
         <v>0</v>
       </c>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
@@ -6086,31 +6304,33 @@
       <c r="AF87" s="5"/>
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="4">
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4">
         <v>696</v>
       </c>
-      <c r="K88" s="4">
+      <c r="M88" s="4">
         <v>567</v>
       </c>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -6119,18 +6339,18 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W88" s="9">
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y88" s="9">
         <v>0</v>
       </c>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
@@ -6138,31 +6358,33 @@
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4">
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4">
         <v>24</v>
       </c>
-      <c r="K89" s="4">
+      <c r="M89" s="4">
         <v>196</v>
       </c>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -6174,11 +6396,11 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
-      <c r="Y89" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -6186,31 +6408,33 @@
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4">
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4">
         <v>174</v>
       </c>
-      <c r="K90" s="4">
+      <c r="M90" s="4">
         <v>150</v>
       </c>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6222,11 +6446,11 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
-      <c r="Y90" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -6234,31 +6458,33 @@
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="4">
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4">
         <v>174</v>
       </c>
-      <c r="K91" s="4">
+      <c r="M91" s="4">
         <v>196</v>
       </c>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6270,11 +6496,11 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
-      <c r="Y91" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
@@ -6282,31 +6508,33 @@
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4">
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4">
         <v>324</v>
       </c>
-      <c r="K92" s="4">
+      <c r="M92" s="4">
         <v>196</v>
       </c>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -6318,11 +6546,11 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
-      <c r="Y92" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
@@ -6330,31 +6558,33 @@
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4">
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4">
         <v>474</v>
       </c>
-      <c r="K93" s="4">
+      <c r="M93" s="4">
         <v>196</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -6366,11 +6596,11 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
-      <c r="Y93" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
@@ -6378,31 +6608,33 @@
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="4">
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4">
         <v>630</v>
       </c>
-      <c r="K94" s="4">
+      <c r="M94" s="4">
         <v>323</v>
       </c>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -6414,11 +6646,11 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
-      <c r="Y94" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
@@ -6426,31 +6658,33 @@
       <c r="AF94" s="5"/>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="4">
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4">
         <v>630</v>
       </c>
-      <c r="K95" s="4">
+      <c r="M95" s="4">
         <v>383</v>
       </c>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
@@ -6462,11 +6696,11 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="Y95" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
@@ -6474,31 +6708,33 @@
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4">
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4">
         <v>1093</v>
       </c>
-      <c r="K96" s="4">
+      <c r="M96" s="4">
         <v>323</v>
       </c>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -6510,11 +6746,11 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
-      <c r="Y96" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
@@ -6522,31 +6758,33 @@
       <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4">
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4">
         <v>1135</v>
       </c>
-      <c r="K97" s="4">
+      <c r="M97" s="4">
         <v>450</v>
       </c>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -6558,11 +6796,11 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
-      <c r="Y97" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -6570,31 +6808,33 @@
       <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="4">
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4">
         <v>1285</v>
       </c>
-      <c r="K98" s="4">
+      <c r="M98" s="4">
         <v>450</v>
       </c>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -6606,11 +6846,11 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
-      <c r="Y98" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -6618,8 +6858,10 @@
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6644,8 +6886,8 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
@@ -6654,8 +6896,10 @@
       <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6680,8 +6924,8 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
@@ -6690,6 +6934,8 @@
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6697,14 +6943,20 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>入力規則!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G100 I2:I100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
@@ -6728,13 +6980,15 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>183</v>
+      <c r="A1" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -6760,13 +7014,15 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>185</v>
+      <c r="A2" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -6792,11 +7048,15 @@
       <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -6822,11 +7082,11 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>29</v>
+      <c r="A4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -6852,11 +7112,11 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -6882,11 +7142,11 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -6912,11 +7172,11 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -6942,11 +7202,11 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -6972,11 +7232,11 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -7002,11 +7262,11 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>

--- a/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
+++ b/exe/TSV/Excel/TH70_Hamazono_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CA43C4-000A-4C96-B647-CEB09FFED2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95163C7F-1B9E-4C9C-9B20-F20315FB4DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="4320" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="4710" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH70_浜園駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="252">
   <si>
     <t>Type</t>
   </si>
@@ -876,7 +876,7 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
-    <t>TH70_CTC</t>
+    <t>TH70_81</t>
   </si>
   <si>
     <t>-1,1,-11,11</t>
@@ -1119,22 +1119,40 @@
     <t>下り117T</t>
   </si>
   <si>
-    <t>停電_R</t>
+    <t>転てつ不良_R</t>
   </si>
   <si>
     <t>状態表示灯</t>
   </si>
   <si>
+    <t>TH70_W-FAILURE</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
+    <t>停電_R</t>
+  </si>
+  <si>
+    <t>TH70_PWR-FAILURE</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH70_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH70_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
+  </si>
+  <si>
+    <t>TH70_30TEK</t>
   </si>
   <si>
     <t>Retsuban</t>
@@ -1146,34 +1164,64 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH71_TTC_Up1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番津崎1番線</t>
   </si>
   <si>
+    <t>TH71_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番津崎2番線</t>
+  </si>
+  <si>
+    <t>TH71_TTC_Track2</t>
   </si>
   <si>
     <t>列番浜園上り第2接近</t>
   </si>
   <si>
+    <t>TH70_TTC_Up2</t>
+  </si>
+  <si>
     <t>列番浜園上り第1接近</t>
+  </si>
+  <si>
+    <t>TH70_TTC_Up1</t>
   </si>
   <si>
     <t>列番浜園1番線</t>
   </si>
   <si>
+    <t>TH70_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番浜園2番線</t>
+  </si>
+  <si>
+    <t>TH70_TTC_Track2</t>
   </si>
   <si>
     <t>列番浜園SST</t>
   </si>
   <si>
+    <t>TH70_TTC_TrackS</t>
+  </si>
+  <si>
     <t>列番浜園下り第1接近</t>
   </si>
   <si>
+    <t>TH70_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番浜園下り第2接近</t>
+  </si>
+  <si>
+    <t>TH70_TTC_Down2</t>
   </si>
   <si>
     <t>Button</t>
@@ -1507,7 +1555,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ100"/>
+  <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -6478,17 +6526,19 @@
       <c r="D85" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="4">
-        <v>54</v>
-      </c>
-      <c r="M85" s="4">
+      <c r="L85" s="10">
+        <v>64</v>
+      </c>
+      <c r="M85" s="10">
         <v>45</v>
       </c>
       <c r="N85" s="4"/>
@@ -6509,7 +6559,7 @@
       </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
@@ -6526,23 +6576,25 @@
         <v>31</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="10" t="s">
+        <v>218</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="4">
-        <v>102</v>
-      </c>
-      <c r="M86" s="4">
+      <c r="L86" s="10">
+        <v>122</v>
+      </c>
+      <c r="M86" s="10">
         <v>45</v>
       </c>
       <c r="N86" s="4"/>
@@ -6563,7 +6615,7 @@
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
@@ -6580,24 +6632,26 @@
         <v>31</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="4">
-        <v>734</v>
-      </c>
-      <c r="M87" s="4">
-        <v>567</v>
+      <c r="L87" s="10">
+        <v>180</v>
+      </c>
+      <c r="M87" s="10">
+        <v>45</v>
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -6617,7 +6671,7 @@
       </c>
       <c r="Z87" s="3"/>
       <c r="AA87" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
@@ -6634,13 +6688,15 @@
         <v>31</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -6648,7 +6704,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="M88" s="4">
         <v>567</v>
@@ -6671,7 +6727,7 @@
       </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
@@ -6685,16 +6741,18 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>220</v>
+        <v>31</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -6702,10 +6760,10 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4">
-        <v>24</v>
+        <v>696</v>
       </c>
       <c r="M89" s="4">
-        <v>196</v>
+        <v>567</v>
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -6717,11 +6775,15 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="5" t="s">
-        <v>222</v>
+      <c r="X89" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y89" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
@@ -6735,16 +6797,18 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -6752,10 +6816,10 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="M90" s="4">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -6771,7 +6835,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
@@ -6785,16 +6849,18 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6805,7 +6871,7 @@
         <v>174</v>
       </c>
       <c r="M91" s="4">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -6821,7 +6887,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
@@ -6835,16 +6901,18 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>233</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -6852,7 +6920,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="M92" s="4">
         <v>196</v>
@@ -6871,7 +6939,7 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
       <c r="AA92" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
@@ -6885,16 +6953,18 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -6902,7 +6972,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4">
-        <v>474</v>
+        <v>324</v>
       </c>
       <c r="M93" s="4">
         <v>196</v>
@@ -6921,7 +6991,7 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
@@ -6935,16 +7005,18 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -6952,10 +7024,10 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4">
-        <v>630</v>
+        <v>474</v>
       </c>
       <c r="M94" s="4">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -6971,7 +7043,7 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
@@ -6985,16 +7057,18 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E95" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -7005,7 +7079,7 @@
         <v>630</v>
       </c>
       <c r="M95" s="4">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -7021,7 +7095,7 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
@@ -7035,16 +7109,18 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -7052,10 +7128,10 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4">
-        <v>1093</v>
+        <v>630</v>
       </c>
       <c r="M96" s="4">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -7071,7 +7147,7 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
@@ -7085,16 +7161,18 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E97" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -7102,10 +7180,10 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4">
-        <v>1135</v>
+        <v>1093</v>
       </c>
       <c r="M97" s="4">
-        <v>450</v>
+        <v>323</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -7121,7 +7199,7 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
       <c r="AA97" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
@@ -7135,16 +7213,18 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -7152,7 +7232,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4">
-        <v>1285</v>
+        <v>1135</v>
       </c>
       <c r="M98" s="4">
         <v>450</v>
@@ -7171,7 +7251,7 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
       <c r="AA98" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
@@ -7184,19 +7264,31 @@
       <c r="AJ98" s="5"/>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="L99" s="4">
+        <v>1285</v>
+      </c>
+      <c r="M99" s="4">
+        <v>450</v>
+      </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
@@ -7210,7 +7302,9 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
-      <c r="AA99" s="5"/>
+      <c r="AA99" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
@@ -7259,6 +7353,44 @@
       <c r="AI100" s="5"/>
       <c r="AJ100" s="5"/>
     </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7270,19 +7402,19 @@
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K100</xm:sqref>
+          <xm:sqref>K2:K101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G100 I2:I100</xm:sqref>
+          <xm:sqref>G2:G101 I2:I101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A100</xm:sqref>
+          <xm:sqref>A2:A101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7303,13 +7435,13 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -7337,7 +7469,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>126</v>
@@ -7374,7 +7506,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>126</v>
@@ -7585,7 +7717,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
